--- a/LDMP/data/summary_table_ldn_sdg.xlsx
+++ b/LDMP/data/summary_table_ldn_sdg.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\azvol\Code\LandDegradation\trends.earth\LDMP\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\LandDegradation\trends.earth\LDMP\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4E2F0AD-AFD8-4552-9AFA-7F8779FA6668}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEEF815B-ED7B-4D59-91DF-B442A915B5BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25610" windowHeight="10250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="28800" windowHeight="15555" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SDG 15.3.1" sheetId="5" r:id="rId1"/>
@@ -19,7 +19,17 @@
     <sheet name="Land cover" sheetId="8" r:id="rId4"/>
     <sheet name="UNCCD Reporting" sheetId="4" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -792,7 +802,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="137">
+  <cellXfs count="139">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -887,9 +897,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1012,29 +1019,29 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1048,6 +1055,12 @@
     <xf numFmtId="0" fontId="18" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1076,6 +1089,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1136,16 +1156,10 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1478,18 +1492,18 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="43"/>
-    <col min="2" max="2" width="14.54296875" style="43" customWidth="1"/>
-    <col min="3" max="5" width="15.54296875" style="44" customWidth="1"/>
-    <col min="6" max="6" width="16.81640625" style="44" customWidth="1"/>
-    <col min="7" max="9" width="15.54296875" style="44" customWidth="1"/>
-    <col min="10" max="10" width="15.54296875" style="45" customWidth="1"/>
-    <col min="11" max="16384" width="9.1796875" style="43"/>
+    <col min="1" max="1" width="9.140625" style="42"/>
+    <col min="2" max="2" width="14.5703125" style="42" customWidth="1"/>
+    <col min="3" max="5" width="15.5703125" style="43" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" style="43" customWidth="1"/>
+    <col min="7" max="9" width="15.5703125" style="43" customWidth="1"/>
+    <col min="10" max="10" width="15.5703125" style="44" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="42"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>44</v>
       </c>
@@ -1503,119 +1517,119 @@
       <c r="I1" s="12"/>
       <c r="J1" s="13"/>
     </row>
-    <row r="2" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
     </row>
-    <row r="3" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A3" s="85" t="s">
+    <row r="3" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="89" t="s">
         <v>45</v>
       </c>
-      <c r="B3" s="85"/>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="85"/>
-    </row>
-    <row r="4" spans="1:10" s="49" customFormat="1" ht="30" x14ac:dyDescent="0.45">
-      <c r="A4" s="51"/>
-      <c r="C4" s="52"/>
-      <c r="D4" s="52"/>
-      <c r="E4" s="52"/>
-      <c r="F4" s="56" t="s">
+      <c r="B3" s="89"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="89"/>
+      <c r="F3" s="89"/>
+      <c r="G3" s="89"/>
+      <c r="H3" s="89"/>
+      <c r="I3" s="89"/>
+      <c r="J3" s="89"/>
+    </row>
+    <row r="4" spans="1:10" s="48" customFormat="1" ht="30.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="50"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="G4" s="56" t="s">
+      <c r="G4" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="H4" s="52"/>
-      <c r="I4" s="52"/>
-      <c r="J4" s="53"/>
-    </row>
-    <row r="5" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="H4" s="51"/>
+      <c r="I4" s="51"/>
+      <c r="J4" s="52"/>
+    </row>
+    <row r="5" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
       <c r="E5" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="F5" s="54">
+      <c r="F5" s="53">
         <f>SUM(F6:F9)</f>
         <v>0</v>
       </c>
-      <c r="G5" s="60" t="e">
+      <c r="G5" s="59" t="e">
         <f>SUM(G6:G9)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="E6" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="F6" s="76"/>
-      <c r="G6" s="77" t="e">
+      <c r="F6" s="75"/>
+      <c r="G6" s="76" t="e">
         <f>F6/$F$5</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H6" s="50"/>
-    </row>
-    <row r="7" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="H6" s="49"/>
+    </row>
+    <row r="7" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="E7" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="F7" s="55"/>
+      <c r="F7" s="54"/>
       <c r="G7" s="29" t="e">
         <f t="shared" ref="G7:G9" si="0">F7/$F$5</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H7" s="50"/>
-    </row>
-    <row r="8" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="H7" s="49"/>
+    </row>
+    <row r="8" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
       <c r="E8" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="F8" s="80"/>
-      <c r="G8" s="81" t="e">
+      <c r="F8" s="79"/>
+      <c r="G8" s="80" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H8" s="50"/>
-    </row>
-    <row r="9" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="H8" s="49"/>
+    </row>
+    <row r="9" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
       <c r="E9" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="F9" s="78"/>
-      <c r="G9" s="79" t="e">
+      <c r="F9" s="77"/>
+      <c r="G9" s="78" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H9" s="50"/>
-    </row>
-    <row r="10" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="H9" s="49"/>
+    </row>
+    <row r="10" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
     </row>
-    <row r="11" spans="1:10" s="46" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="86" t="s">
+    <row r="11" spans="1:10" s="45" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="86"/>
-      <c r="C11" s="86"/>
-      <c r="D11" s="86"/>
-      <c r="E11" s="86"/>
-      <c r="F11" s="86"/>
-      <c r="G11" s="86"/>
-      <c r="H11" s="86"/>
-      <c r="I11" s="86"/>
-      <c r="J11" s="86"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A13" s="42" t="s">
+      <c r="B11" s="90"/>
+      <c r="C11" s="90"/>
+      <c r="D11" s="90"/>
+      <c r="E11" s="90"/>
+      <c r="F11" s="90"/>
+      <c r="G11" s="90"/>
+      <c r="H11" s="90"/>
+      <c r="I11" s="90"/>
+      <c r="J11" s="90"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="41" t="s">
         <v>50</v>
       </c>
     </row>
@@ -1633,170 +1647,170 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J87"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A19" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="43" customWidth="1"/>
-    <col min="2" max="2" width="14.54296875" style="43" customWidth="1"/>
-    <col min="3" max="9" width="15.54296875" style="44" customWidth="1"/>
-    <col min="10" max="10" width="15.54296875" style="45" customWidth="1"/>
-    <col min="11" max="16384" width="9.1796875" style="43"/>
+    <col min="1" max="1" width="8.7109375" style="42" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" style="42" customWidth="1"/>
+    <col min="3" max="9" width="15.5703125" style="43" customWidth="1"/>
+    <col min="10" max="10" width="15.5703125" style="44" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="42"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="75" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:10" s="74" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="75" customFormat="1" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:10" s="74" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
     </row>
-    <row r="3" spans="1:10" s="75" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="85" t="s">
+    <row r="3" spans="1:10" s="74" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="89" t="s">
         <v>87</v>
       </c>
-      <c r="B3" s="88"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
-    </row>
-    <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.45">
+      <c r="B3" s="92"/>
+      <c r="C3" s="92"/>
+      <c r="D3" s="92"/>
+      <c r="E3" s="92"/>
+      <c r="F3" s="92"/>
+      <c r="G3" s="92"/>
+      <c r="H3" s="92"/>
+      <c r="I3" s="92"/>
+      <c r="J3" s="92"/>
+    </row>
+    <row r="4" spans="1:10" ht="30.75" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
-      <c r="F4" s="56" t="s">
+      <c r="F4" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="G4" s="56" t="s">
+      <c r="G4" s="55" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
       <c r="E5" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="F5" s="54">
+      <c r="F5" s="53">
         <f>SUM(F6:F9)</f>
         <v>0</v>
       </c>
-      <c r="G5" s="60" t="e">
+      <c r="G5" s="59" t="e">
         <f>SUM(G6:G9)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="E6" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="F6" s="76"/>
-      <c r="G6" s="77" t="e">
+      <c r="F6" s="75"/>
+      <c r="G6" s="76" t="e">
         <f>F6/$F$5</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="E7" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="55"/>
+      <c r="F7" s="54"/>
       <c r="G7" s="29" t="e">
         <f t="shared" ref="G7:G9" si="0">F7/$F$5</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
       <c r="E8" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="F8" s="80"/>
-      <c r="G8" s="81" t="e">
+      <c r="F8" s="79"/>
+      <c r="G8" s="80" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
       <c r="E9" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="F9" s="78"/>
-      <c r="G9" s="79" t="e">
+      <c r="F9" s="77"/>
+      <c r="G9" s="78" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="75" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:10" s="74" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
-      <c r="C10" s="73"/>
-      <c r="D10" s="73"/>
-      <c r="E10" s="73"/>
-      <c r="F10" s="73"/>
-      <c r="G10" s="73"/>
-      <c r="H10" s="73"/>
-      <c r="I10" s="73"/>
-      <c r="J10" s="74"/>
-    </row>
-    <row r="11" spans="1:10" s="75" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="86" t="s">
+      <c r="C10" s="72"/>
+      <c r="D10" s="72"/>
+      <c r="E10" s="72"/>
+      <c r="F10" s="72"/>
+      <c r="G10" s="72"/>
+      <c r="H10" s="72"/>
+      <c r="I10" s="72"/>
+      <c r="J10" s="73"/>
+    </row>
+    <row r="11" spans="1:10" s="74" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="90" t="s">
         <v>80</v>
       </c>
-      <c r="B11" s="89"/>
-      <c r="C11" s="89"/>
-      <c r="D11" s="89"/>
-      <c r="E11" s="89"/>
-      <c r="F11" s="89"/>
-      <c r="G11" s="89"/>
-      <c r="H11" s="89"/>
-      <c r="I11" s="89"/>
-      <c r="J11" s="89"/>
-    </row>
-    <row r="12" spans="1:10" s="75" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B11" s="113"/>
+      <c r="C11" s="113"/>
+      <c r="D11" s="113"/>
+      <c r="E11" s="113"/>
+      <c r="F11" s="113"/>
+      <c r="G11" s="113"/>
+      <c r="H11" s="113"/>
+      <c r="I11" s="113"/>
+      <c r="J11" s="113"/>
+    </row>
+    <row r="12" spans="1:10" s="74" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
-      <c r="C12" s="73"/>
-      <c r="D12" s="73"/>
-      <c r="E12" s="73"/>
-      <c r="F12" s="73"/>
-      <c r="G12" s="73"/>
-      <c r="H12" s="73"/>
-      <c r="I12" s="73"/>
-      <c r="J12" s="74"/>
-    </row>
-    <row r="13" spans="1:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="87" t="s">
+      <c r="C12" s="72"/>
+      <c r="D12" s="72"/>
+      <c r="E12" s="72"/>
+      <c r="F12" s="72"/>
+      <c r="G12" s="72"/>
+      <c r="H12" s="72"/>
+      <c r="I12" s="72"/>
+      <c r="J12" s="73"/>
+    </row>
+    <row r="13" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="112" t="s">
         <v>84</v>
       </c>
-      <c r="B13" s="87"/>
-      <c r="C13" s="87"/>
-      <c r="D13" s="87"/>
-      <c r="E13" s="87"/>
-      <c r="F13" s="87"/>
-      <c r="G13" s="87"/>
-      <c r="H13" s="87"/>
-      <c r="I13" s="87"/>
-      <c r="J13" s="87"/>
-    </row>
-    <row r="14" spans="1:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B13" s="112"/>
+      <c r="C13" s="112"/>
+      <c r="D13" s="112"/>
+      <c r="E13" s="112"/>
+      <c r="F13" s="112"/>
+      <c r="G13" s="112"/>
+      <c r="H13" s="112"/>
+      <c r="I13" s="112"/>
+      <c r="J13" s="112"/>
+    </row>
+    <row r="14" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="1"/>
-      <c r="C14" s="90" t="s">
+      <c r="C14" s="98" t="s">
         <v>4</v>
       </c>
-      <c r="D14" s="91"/>
-      <c r="E14" s="91"/>
-      <c r="F14" s="91"/>
-      <c r="G14" s="91"/>
-      <c r="H14" s="91"/>
-      <c r="I14" s="91"/>
-    </row>
-    <row r="15" spans="1:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="C15" s="136" t="s">
+      <c r="D14" s="99"/>
+      <c r="E14" s="99"/>
+      <c r="F14" s="99"/>
+      <c r="G14" s="99"/>
+      <c r="H14" s="99"/>
+      <c r="I14" s="99"/>
+    </row>
+    <row r="15" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="C15" s="88" t="s">
         <v>27</v>
       </c>
       <c r="D15" s="14" t="s">
@@ -1817,15 +1831,15 @@
       <c r="I15" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="J15" s="45" t="s">
+      <c r="J15" s="44" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="A16" s="92" t="s">
+    <row r="16" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="133" t="s">
+      <c r="B16" s="85" t="s">
         <v>27</v>
       </c>
       <c r="C16" s="23"/>
@@ -1840,8 +1854,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="88"/>
+    <row r="17" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="92"/>
       <c r="B17" s="2" t="s">
         <v>5</v>
       </c>
@@ -1857,8 +1871,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="88"/>
+    <row r="18" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="92"/>
       <c r="B18" s="2" t="s">
         <v>6</v>
       </c>
@@ -1874,8 +1888,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="88"/>
+    <row r="19" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="92"/>
       <c r="B19" s="2" t="s">
         <v>7</v>
       </c>
@@ -1891,8 +1905,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="88"/>
+    <row r="20" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="92"/>
       <c r="B20" s="2" t="s">
         <v>8</v>
       </c>
@@ -1908,8 +1922,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="88"/>
+    <row r="21" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="92"/>
       <c r="B21" s="2" t="s">
         <v>71</v>
       </c>
@@ -1925,8 +1939,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="88"/>
+    <row r="22" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="92"/>
       <c r="B22" s="2" t="s">
         <v>9</v>
       </c>
@@ -1942,7 +1956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5"/>
       <c r="B23" s="6" t="s">
         <v>10</v>
@@ -1980,34 +1994,34 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="93" t="s">
+    <row r="25" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="114" t="s">
         <v>83</v>
       </c>
-      <c r="B25" s="93"/>
-      <c r="C25" s="93"/>
-      <c r="D25" s="93"/>
-      <c r="E25" s="93"/>
-      <c r="F25" s="93"/>
-      <c r="G25" s="93"/>
-      <c r="H25" s="93"/>
-      <c r="I25" s="93"/>
-      <c r="J25" s="93"/>
-    </row>
-    <row r="26" spans="1:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B25" s="114"/>
+      <c r="C25" s="114"/>
+      <c r="D25" s="114"/>
+      <c r="E25" s="114"/>
+      <c r="F25" s="114"/>
+      <c r="G25" s="114"/>
+      <c r="H25" s="114"/>
+      <c r="I25" s="114"/>
+      <c r="J25" s="114"/>
+    </row>
+    <row r="26" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
-      <c r="C26" s="90" t="s">
+      <c r="C26" s="98" t="s">
         <v>4</v>
       </c>
-      <c r="D26" s="91"/>
-      <c r="E26" s="91"/>
-      <c r="F26" s="91"/>
-      <c r="G26" s="91"/>
-      <c r="H26" s="91"/>
-      <c r="I26" s="91"/>
-    </row>
-    <row r="27" spans="1:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="C27" s="135" t="s">
+      <c r="D26" s="99"/>
+      <c r="E26" s="99"/>
+      <c r="F26" s="99"/>
+      <c r="G26" s="99"/>
+      <c r="H26" s="99"/>
+      <c r="I26" s="99"/>
+    </row>
+    <row r="27" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="C27" s="87" t="s">
         <v>27</v>
       </c>
       <c r="D27" s="3" t="s">
@@ -2028,15 +2042,15 @@
       <c r="I27" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="J27" s="45" t="s">
+      <c r="J27" s="44" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="A28" s="92" t="s">
+    <row r="28" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="B28" s="133" t="s">
+      <c r="B28" s="85" t="s">
         <v>27</v>
       </c>
       <c r="C28" s="23"/>
@@ -2051,8 +2065,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="88"/>
+    <row r="29" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="92"/>
       <c r="B29" s="2" t="s">
         <v>5</v>
       </c>
@@ -2068,8 +2082,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="88"/>
+    <row r="30" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="92"/>
       <c r="B30" s="2" t="s">
         <v>6</v>
       </c>
@@ -2085,8 +2099,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="88"/>
+    <row r="31" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="92"/>
       <c r="B31" s="2" t="s">
         <v>7</v>
       </c>
@@ -2102,8 +2116,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="88"/>
+    <row r="32" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="92"/>
       <c r="B32" s="2" t="s">
         <v>8</v>
       </c>
@@ -2119,8 +2133,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="88"/>
+    <row r="33" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="92"/>
       <c r="B33" s="2" t="s">
         <v>71</v>
       </c>
@@ -2136,8 +2150,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="88"/>
+    <row r="34" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="92"/>
       <c r="B34" s="2" t="s">
         <v>9</v>
       </c>
@@ -2153,7 +2167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="5"/>
       <c r="B35" s="6" t="s">
         <v>10</v>
@@ -2191,34 +2205,34 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A37" s="95" t="s">
+    <row r="37" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="94" t="s">
         <v>82</v>
       </c>
-      <c r="B37" s="96"/>
-      <c r="C37" s="97"/>
-      <c r="D37" s="97"/>
-      <c r="E37" s="97"/>
-      <c r="F37" s="97"/>
-      <c r="G37" s="97"/>
-      <c r="H37" s="97"/>
-      <c r="I37" s="97"/>
-      <c r="J37" s="98"/>
-    </row>
-    <row r="38" spans="1:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B37" s="95"/>
+      <c r="C37" s="96"/>
+      <c r="D37" s="96"/>
+      <c r="E37" s="96"/>
+      <c r="F37" s="96"/>
+      <c r="G37" s="96"/>
+      <c r="H37" s="96"/>
+      <c r="I37" s="96"/>
+      <c r="J37" s="97"/>
+    </row>
+    <row r="38" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="1"/>
-      <c r="C38" s="90" t="s">
+      <c r="C38" s="98" t="s">
         <v>4</v>
       </c>
-      <c r="D38" s="91"/>
-      <c r="E38" s="91"/>
-      <c r="F38" s="91"/>
-      <c r="G38" s="91"/>
-      <c r="H38" s="91"/>
-      <c r="I38" s="91"/>
-    </row>
-    <row r="39" spans="1:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="C39" s="135" t="s">
+      <c r="D38" s="99"/>
+      <c r="E38" s="99"/>
+      <c r="F38" s="99"/>
+      <c r="G38" s="99"/>
+      <c r="H38" s="99"/>
+      <c r="I38" s="99"/>
+    </row>
+    <row r="39" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="C39" s="87" t="s">
         <v>27</v>
       </c>
       <c r="D39" s="3" t="s">
@@ -2239,15 +2253,15 @@
       <c r="I39" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="J39" s="45" t="s">
+      <c r="J39" s="44" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="A40" s="92" t="s">
+    <row r="40" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="B40" s="133" t="s">
+      <c r="B40" s="85" t="s">
         <v>27</v>
       </c>
       <c r="C40" s="23"/>
@@ -2262,8 +2276,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="88"/>
+    <row r="41" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="92"/>
       <c r="B41" s="2" t="s">
         <v>5</v>
       </c>
@@ -2279,8 +2293,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="88"/>
+    <row r="42" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="92"/>
       <c r="B42" s="2" t="s">
         <v>6</v>
       </c>
@@ -2296,8 +2310,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="88"/>
+    <row r="43" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="92"/>
       <c r="B43" s="2" t="s">
         <v>7</v>
       </c>
@@ -2313,8 +2327,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="88"/>
+    <row r="44" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="92"/>
       <c r="B44" s="2" t="s">
         <v>8</v>
       </c>
@@ -2330,8 +2344,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="88"/>
+    <row r="45" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="92"/>
       <c r="B45" s="2" t="s">
         <v>71</v>
       </c>
@@ -2347,8 +2361,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="88"/>
+    <row r="46" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="92"/>
       <c r="B46" s="2" t="s">
         <v>9</v>
       </c>
@@ -2364,7 +2378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="5"/>
       <c r="B47" s="6" t="s">
         <v>10</v>
@@ -2402,34 +2416,34 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A49" s="99" t="s">
+    <row r="49" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="100" t="s">
         <v>85</v>
       </c>
-      <c r="B49" s="100"/>
-      <c r="C49" s="101"/>
-      <c r="D49" s="101"/>
-      <c r="E49" s="101"/>
-      <c r="F49" s="101"/>
-      <c r="G49" s="101"/>
-      <c r="H49" s="101"/>
-      <c r="I49" s="101"/>
-      <c r="J49" s="102"/>
-    </row>
-    <row r="50" spans="1:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B49" s="101"/>
+      <c r="C49" s="102"/>
+      <c r="D49" s="102"/>
+      <c r="E49" s="102"/>
+      <c r="F49" s="102"/>
+      <c r="G49" s="102"/>
+      <c r="H49" s="102"/>
+      <c r="I49" s="102"/>
+      <c r="J49" s="103"/>
+    </row>
+    <row r="50" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B50" s="1"/>
-      <c r="C50" s="90" t="s">
+      <c r="C50" s="98" t="s">
         <v>4</v>
       </c>
-      <c r="D50" s="91"/>
-      <c r="E50" s="91"/>
-      <c r="F50" s="91"/>
-      <c r="G50" s="91"/>
-      <c r="H50" s="91"/>
-      <c r="I50" s="91"/>
-    </row>
-    <row r="51" spans="1:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="C51" s="135" t="s">
+      <c r="D50" s="99"/>
+      <c r="E50" s="99"/>
+      <c r="F50" s="99"/>
+      <c r="G50" s="99"/>
+      <c r="H50" s="99"/>
+      <c r="I50" s="99"/>
+    </row>
+    <row r="51" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="C51" s="87" t="s">
         <v>27</v>
       </c>
       <c r="D51" s="3" t="s">
@@ -2450,15 +2464,15 @@
       <c r="I51" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="J51" s="45" t="s">
+      <c r="J51" s="44" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="A52" s="92" t="s">
+    <row r="52" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A52" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="B52" s="133" t="s">
+      <c r="B52" s="85" t="s">
         <v>27</v>
       </c>
       <c r="C52" s="23"/>
@@ -2473,8 +2487,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="88"/>
+    <row r="53" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="92"/>
       <c r="B53" s="2" t="s">
         <v>5</v>
       </c>
@@ -2490,8 +2504,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="88"/>
+    <row r="54" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="92"/>
       <c r="B54" s="2" t="s">
         <v>6</v>
       </c>
@@ -2507,8 +2521,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="88"/>
+    <row r="55" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="92"/>
       <c r="B55" s="2" t="s">
         <v>7</v>
       </c>
@@ -2524,8 +2538,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="88"/>
+    <row r="56" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="92"/>
       <c r="B56" s="2" t="s">
         <v>8</v>
       </c>
@@ -2541,8 +2555,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="88"/>
+    <row r="57" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="92"/>
       <c r="B57" s="2" t="s">
         <v>71</v>
       </c>
@@ -2558,8 +2572,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="88"/>
+    <row r="58" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="92"/>
       <c r="B58" s="2" t="s">
         <v>9</v>
       </c>
@@ -2575,7 +2589,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="5"/>
       <c r="B59" s="6" t="s">
         <v>10</v>
@@ -2613,35 +2627,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:10" s="75" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A61" s="103" t="s">
+    <row r="61" spans="1:10" s="74" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="104" t="s">
         <v>81</v>
       </c>
-      <c r="B61" s="104"/>
-      <c r="C61" s="105"/>
-      <c r="D61" s="105"/>
-      <c r="E61" s="105"/>
-      <c r="F61" s="105"/>
-      <c r="G61" s="105"/>
-      <c r="H61" s="105"/>
-      <c r="I61" s="105"/>
-      <c r="J61" s="106"/>
-    </row>
-    <row r="62" spans="1:10" s="75" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B61" s="105"/>
+      <c r="C61" s="106"/>
+      <c r="D61" s="106"/>
+      <c r="E61" s="106"/>
+      <c r="F61" s="106"/>
+      <c r="G61" s="106"/>
+      <c r="H61" s="106"/>
+      <c r="I61" s="106"/>
+      <c r="J61" s="107"/>
+    </row>
+    <row r="62" spans="1:10" s="74" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B62" s="1"/>
-      <c r="C62" s="90" t="s">
+      <c r="C62" s="98" t="s">
         <v>4</v>
       </c>
-      <c r="D62" s="91"/>
-      <c r="E62" s="91"/>
-      <c r="F62" s="91"/>
-      <c r="G62" s="91"/>
-      <c r="H62" s="91"/>
-      <c r="I62" s="91"/>
-      <c r="J62" s="74"/>
-    </row>
-    <row r="63" spans="1:10" s="75" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="C63" s="135" t="s">
+      <c r="D62" s="99"/>
+      <c r="E62" s="99"/>
+      <c r="F62" s="99"/>
+      <c r="G62" s="99"/>
+      <c r="H62" s="99"/>
+      <c r="I62" s="99"/>
+      <c r="J62" s="73"/>
+    </row>
+    <row r="63" spans="1:10" s="74" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="C63" s="87" t="s">
         <v>27</v>
       </c>
       <c r="D63" s="3" t="s">
@@ -2662,15 +2676,15 @@
       <c r="I63" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="J63" s="74" t="s">
+      <c r="J63" s="73" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="1:10" s="75" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A64" s="92" t="s">
+    <row r="64" spans="1:10" s="74" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A64" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="B64" s="133" t="s">
+      <c r="B64" s="85" t="s">
         <v>27</v>
       </c>
       <c r="C64" s="23"/>
@@ -2685,8 +2699,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:10" s="75" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="88"/>
+    <row r="65" spans="1:10" s="74" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="92"/>
       <c r="B65" s="2" t="s">
         <v>5</v>
       </c>
@@ -2702,8 +2716,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:10" s="75" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="88"/>
+    <row r="66" spans="1:10" s="74" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="92"/>
       <c r="B66" s="2" t="s">
         <v>6</v>
       </c>
@@ -2719,8 +2733,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:10" s="75" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="88"/>
+    <row r="67" spans="1:10" s="74" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="92"/>
       <c r="B67" s="2" t="s">
         <v>7</v>
       </c>
@@ -2736,8 +2750,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:10" s="75" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="88"/>
+    <row r="68" spans="1:10" s="74" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="92"/>
       <c r="B68" s="2" t="s">
         <v>8</v>
       </c>
@@ -2753,8 +2767,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:10" s="75" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="88"/>
+    <row r="69" spans="1:10" s="74" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="92"/>
       <c r="B69" s="2" t="s">
         <v>71</v>
       </c>
@@ -2770,8 +2784,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:10" s="75" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="88"/>
+    <row r="70" spans="1:10" s="74" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="92"/>
       <c r="B70" s="2" t="s">
         <v>9</v>
       </c>
@@ -2787,7 +2801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:10" s="75" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:10" s="74" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="5"/>
       <c r="B71" s="6" t="s">
         <v>10</v>
@@ -2825,45 +2839,45 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:10" s="75" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C72" s="73"/>
-      <c r="D72" s="73"/>
-      <c r="E72" s="73"/>
-      <c r="F72" s="73"/>
-      <c r="G72" s="73"/>
-      <c r="H72" s="73"/>
-      <c r="I72" s="73"/>
-      <c r="J72" s="74"/>
-    </row>
-    <row r="73" spans="1:10" s="75" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A73" s="107" t="s">
+    <row r="72" spans="1:10" s="74" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C72" s="72"/>
+      <c r="D72" s="72"/>
+      <c r="E72" s="72"/>
+      <c r="F72" s="72"/>
+      <c r="G72" s="72"/>
+      <c r="H72" s="72"/>
+      <c r="I72" s="72"/>
+      <c r="J72" s="73"/>
+    </row>
+    <row r="73" spans="1:10" s="74" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="108" t="s">
         <v>86</v>
       </c>
-      <c r="B73" s="108"/>
-      <c r="C73" s="109"/>
-      <c r="D73" s="109"/>
-      <c r="E73" s="109"/>
-      <c r="F73" s="109"/>
-      <c r="G73" s="109"/>
-      <c r="H73" s="109"/>
-      <c r="I73" s="109"/>
-      <c r="J73" s="110"/>
-    </row>
-    <row r="74" spans="1:10" s="75" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B73" s="109"/>
+      <c r="C73" s="110"/>
+      <c r="D73" s="110"/>
+      <c r="E73" s="110"/>
+      <c r="F73" s="110"/>
+      <c r="G73" s="110"/>
+      <c r="H73" s="110"/>
+      <c r="I73" s="110"/>
+      <c r="J73" s="111"/>
+    </row>
+    <row r="74" spans="1:10" s="74" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B74" s="1"/>
-      <c r="C74" s="90" t="s">
+      <c r="C74" s="98" t="s">
         <v>4</v>
       </c>
-      <c r="D74" s="91"/>
-      <c r="E74" s="91"/>
-      <c r="F74" s="91"/>
-      <c r="G74" s="91"/>
-      <c r="H74" s="91"/>
-      <c r="I74" s="91"/>
-      <c r="J74" s="74"/>
-    </row>
-    <row r="75" spans="1:10" s="75" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="C75" s="135" t="s">
+      <c r="D74" s="99"/>
+      <c r="E74" s="99"/>
+      <c r="F74" s="99"/>
+      <c r="G74" s="99"/>
+      <c r="H74" s="99"/>
+      <c r="I74" s="99"/>
+      <c r="J74" s="73"/>
+    </row>
+    <row r="75" spans="1:10" s="74" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="C75" s="87" t="s">
         <v>27</v>
       </c>
       <c r="D75" s="3" t="s">
@@ -2884,15 +2898,15 @@
       <c r="I75" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="J75" s="74" t="s">
+      <c r="J75" s="73" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="76" spans="1:10" s="75" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A76" s="92" t="s">
+    <row r="76" spans="1:10" s="74" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A76" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="B76" s="133" t="s">
+      <c r="B76" s="85" t="s">
         <v>27</v>
       </c>
       <c r="C76" s="23"/>
@@ -2907,8 +2921,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:10" s="75" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="88"/>
+    <row r="77" spans="1:10" s="74" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="92"/>
       <c r="B77" s="2" t="s">
         <v>5</v>
       </c>
@@ -2924,8 +2938,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:10" s="75" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="88"/>
+    <row r="78" spans="1:10" s="74" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="92"/>
       <c r="B78" s="2" t="s">
         <v>6</v>
       </c>
@@ -2941,8 +2955,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:10" s="75" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="88"/>
+    <row r="79" spans="1:10" s="74" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="92"/>
       <c r="B79" s="2" t="s">
         <v>7</v>
       </c>
@@ -2958,8 +2972,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:10" s="75" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="88"/>
+    <row r="80" spans="1:10" s="74" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="92"/>
       <c r="B80" s="2" t="s">
         <v>8</v>
       </c>
@@ -2975,8 +2989,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:10" s="75" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="88"/>
+    <row r="81" spans="1:10" s="74" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="92"/>
       <c r="B81" s="2" t="s">
         <v>71</v>
       </c>
@@ -2992,8 +3006,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:10" s="75" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="88"/>
+    <row r="82" spans="1:10" s="74" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="92"/>
       <c r="B82" s="2" t="s">
         <v>9</v>
       </c>
@@ -3009,7 +3023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:10" s="75" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:10" s="74" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="5"/>
       <c r="B83" s="6" t="s">
         <v>10</v>
@@ -3047,37 +3061,44 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:10" s="75" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="C84" s="73"/>
-      <c r="D84" s="73"/>
-      <c r="E84" s="73"/>
-      <c r="F84" s="73"/>
-      <c r="G84" s="73"/>
-      <c r="H84" s="73"/>
-      <c r="I84" s="73"/>
-      <c r="J84" s="74"/>
-    </row>
-    <row r="85" spans="1:10" s="46" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="86" t="s">
+    <row r="84" spans="1:10" s="74" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C84" s="72"/>
+      <c r="D84" s="72"/>
+      <c r="E84" s="72"/>
+      <c r="F84" s="72"/>
+      <c r="G84" s="72"/>
+      <c r="H84" s="72"/>
+      <c r="I84" s="72"/>
+      <c r="J84" s="73"/>
+    </row>
+    <row r="85" spans="1:10" s="45" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="B85" s="94"/>
-      <c r="C85" s="94"/>
-      <c r="D85" s="94"/>
-      <c r="E85" s="94"/>
-      <c r="F85" s="94"/>
-      <c r="G85" s="94"/>
-      <c r="H85" s="94"/>
-      <c r="I85" s="94"/>
-      <c r="J85" s="94"/>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A87" s="42" t="s">
+      <c r="B85" s="93"/>
+      <c r="C85" s="93"/>
+      <c r="D85" s="93"/>
+      <c r="E85" s="93"/>
+      <c r="F85" s="93"/>
+      <c r="G85" s="93"/>
+      <c r="H85" s="93"/>
+      <c r="I85" s="93"/>
+      <c r="J85" s="93"/>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A87" s="41" t="s">
         <v>50</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A13:J13"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="C26:I26"/>
+    <mergeCell ref="C14:I14"/>
+    <mergeCell ref="A16:A22"/>
+    <mergeCell ref="A25:J25"/>
     <mergeCell ref="A52:A58"/>
     <mergeCell ref="A85:J85"/>
     <mergeCell ref="A28:A34"/>
@@ -3092,13 +3113,6 @@
     <mergeCell ref="A73:J73"/>
     <mergeCell ref="C74:I74"/>
     <mergeCell ref="A76:A82"/>
-    <mergeCell ref="A13:J13"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="C26:I26"/>
-    <mergeCell ref="C14:I14"/>
-    <mergeCell ref="A16:A22"/>
-    <mergeCell ref="A25:J25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3111,132 +3125,132 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="43"/>
-    <col min="2" max="2" width="14.54296875" style="43" customWidth="1"/>
-    <col min="3" max="10" width="15.54296875" style="43" customWidth="1"/>
-    <col min="11" max="16384" width="9.1796875" style="43"/>
+    <col min="1" max="1" width="9.140625" style="42"/>
+    <col min="2" max="2" width="14.5703125" style="42" customWidth="1"/>
+    <col min="3" max="10" width="15.5703125" style="42" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="42"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
     </row>
-    <row r="3" spans="1:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="85" t="s">
+    <row r="3" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="88"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="88"/>
-    </row>
-    <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.45">
+      <c r="B3" s="92"/>
+      <c r="C3" s="92"/>
+      <c r="D3" s="92"/>
+      <c r="E3" s="92"/>
+      <c r="F3" s="92"/>
+      <c r="G3" s="92"/>
+      <c r="H3" s="92"/>
+      <c r="I3" s="92"/>
+      <c r="J3" s="92"/>
+    </row>
+    <row r="4" spans="1:10" ht="30.75" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
-      <c r="F4" s="56" t="s">
+      <c r="F4" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="G4" s="56" t="s">
+      <c r="G4" s="55" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
       <c r="E5" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="F5" s="54">
+      <c r="F5" s="53">
         <f>SUM(F6:F9)</f>
         <v>0</v>
       </c>
-      <c r="G5" s="60" t="e">
+      <c r="G5" s="59" t="e">
         <f>SUM(G6:G9)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H5" s="44"/>
-      <c r="I5" s="44"/>
-      <c r="J5" s="45"/>
-    </row>
-    <row r="6" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="H5" s="43"/>
+      <c r="I5" s="43"/>
+      <c r="J5" s="44"/>
+    </row>
+    <row r="6" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
       <c r="E6" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="F6" s="76"/>
-      <c r="G6" s="77" t="e">
+      <c r="F6" s="75"/>
+      <c r="G6" s="76" t="e">
         <f>F6/$F$5</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H6" s="44"/>
-      <c r="I6" s="44"/>
-      <c r="J6" s="45"/>
-    </row>
-    <row r="7" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="H6" s="43"/>
+      <c r="I6" s="43"/>
+      <c r="J6" s="44"/>
+    </row>
+    <row r="7" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
       <c r="E7" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="F7" s="55"/>
+      <c r="F7" s="54"/>
       <c r="G7" s="29" t="e">
         <f t="shared" ref="G7:G9" si="0">F7/$F$5</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H7" s="44"/>
-      <c r="I7" s="44"/>
-      <c r="J7" s="45"/>
-    </row>
-    <row r="8" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="H7" s="43"/>
+      <c r="I7" s="43"/>
+      <c r="J7" s="44"/>
+    </row>
+    <row r="8" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
-      <c r="C8" s="44"/>
-      <c r="D8" s="44"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
       <c r="E8" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="F8" s="80"/>
-      <c r="G8" s="81" t="e">
+      <c r="F8" s="79"/>
+      <c r="G8" s="80" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H8" s="44"/>
-      <c r="I8" s="44"/>
-      <c r="J8" s="45"/>
-    </row>
-    <row r="9" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="H8" s="43"/>
+      <c r="I8" s="43"/>
+      <c r="J8" s="44"/>
+    </row>
+    <row r="9" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
       <c r="E9" s="28" t="s">
         <v>56</v>
       </c>
-      <c r="F9" s="78"/>
-      <c r="G9" s="79" t="e">
+      <c r="F9" s="77"/>
+      <c r="G9" s="78" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H9" s="44"/>
-      <c r="I9" s="44"/>
-      <c r="J9" s="45"/>
-    </row>
-    <row r="10" spans="1:10" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H9" s="43"/>
+      <c r="I9" s="43"/>
+      <c r="J9" s="44"/>
+    </row>
+    <row r="10" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
     </row>
-    <row r="11" spans="1:10" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="F11" s="27" t="s">
         <v>57</v>
@@ -3246,27 +3260,27 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
     </row>
-    <row r="13" spans="1:10" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="113" t="s">
+    <row r="13" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="117" t="s">
         <v>58</v>
       </c>
-      <c r="B13" s="114"/>
-      <c r="C13" s="114"/>
-      <c r="D13" s="114"/>
-      <c r="E13" s="114"/>
-      <c r="F13" s="114"/>
-      <c r="G13" s="114"/>
-      <c r="H13" s="114"/>
-      <c r="I13" s="114"/>
-      <c r="J13" s="114"/>
-    </row>
-    <row r="14" spans="1:10" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B13" s="118"/>
+      <c r="C13" s="118"/>
+      <c r="D13" s="118"/>
+      <c r="E13" s="118"/>
+      <c r="F13" s="118"/>
+      <c r="G13" s="118"/>
+      <c r="H13" s="118"/>
+      <c r="I13" s="118"/>
+      <c r="J13" s="118"/>
+    </row>
+    <row r="14" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
     </row>
-    <row r="15" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C15" s="17" t="s">
         <v>72</v>
       </c>
@@ -3292,9 +3306,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="A16" s="115"/>
-      <c r="B16" s="133" t="s">
+    <row r="16" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="119"/>
+      <c r="B16" s="85" t="s">
         <v>27</v>
       </c>
       <c r="C16" s="26"/>
@@ -3318,8 +3332,8 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="88"/>
+    <row r="17" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="92"/>
       <c r="B17" s="2" t="s">
         <v>5</v>
       </c>
@@ -3344,8 +3358,8 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="88"/>
+    <row r="18" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="92"/>
       <c r="B18" s="2" t="s">
         <v>6</v>
       </c>
@@ -3370,8 +3384,8 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="88"/>
+    <row r="19" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="92"/>
       <c r="B19" s="2" t="s">
         <v>7</v>
       </c>
@@ -3396,8 +3410,8 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="88"/>
+    <row r="20" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="92"/>
       <c r="B20" s="2" t="s">
         <v>8</v>
       </c>
@@ -3422,8 +3436,8 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="88"/>
+    <row r="21" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="92"/>
       <c r="B21" s="2" t="s">
         <v>71</v>
       </c>
@@ -3448,7 +3462,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="9"/>
       <c r="C22" s="25"/>
       <c r="D22" s="6" t="s">
@@ -3475,35 +3489,35 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="116" t="s">
+    <row r="24" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="120" t="s">
         <v>70</v>
       </c>
-      <c r="B24" s="88"/>
-      <c r="C24" s="88"/>
-      <c r="D24" s="88"/>
-      <c r="E24" s="88"/>
-      <c r="F24" s="88"/>
-      <c r="G24" s="88"/>
-      <c r="H24" s="88"/>
-      <c r="I24" s="88"/>
-      <c r="J24" s="88"/>
-    </row>
-    <row r="25" spans="1:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B24" s="92"/>
+      <c r="C24" s="92"/>
+      <c r="D24" s="92"/>
+      <c r="E24" s="92"/>
+      <c r="F24" s="92"/>
+      <c r="G24" s="92"/>
+      <c r="H24" s="92"/>
+      <c r="I24" s="92"/>
+      <c r="J24" s="92"/>
+    </row>
+    <row r="25" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
-      <c r="C25" s="117" t="s">
+      <c r="C25" s="121" t="s">
         <v>4</v>
       </c>
-      <c r="D25" s="88"/>
-      <c r="E25" s="88"/>
-      <c r="F25" s="88"/>
-      <c r="G25" s="88"/>
-      <c r="H25" s="88"/>
-      <c r="I25" s="88"/>
-      <c r="J25" s="88"/>
-    </row>
-    <row r="26" spans="1:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="C26" s="39" t="s">
+      <c r="D25" s="92"/>
+      <c r="E25" s="92"/>
+      <c r="F25" s="92"/>
+      <c r="G25" s="92"/>
+      <c r="H25" s="92"/>
+      <c r="I25" s="92"/>
+      <c r="J25" s="92"/>
+    </row>
+    <row r="26" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="C26" s="38" t="s">
         <v>27</v>
       </c>
       <c r="D26" s="16" t="s">
@@ -3522,132 +3536,132 @@
         <v>71</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="A27" s="92" t="s">
+    <row r="27" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="B27" s="133" t="s">
+      <c r="B27" s="85" t="s">
         <v>27</v>
       </c>
-      <c r="C27" s="61"/>
-      <c r="D27" s="61"/>
-      <c r="E27" s="61"/>
-      <c r="F27" s="61"/>
-      <c r="G27" s="61"/>
-      <c r="H27" s="61"/>
-    </row>
-    <row r="28" spans="1:10" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="88"/>
+      <c r="C27" s="60"/>
+      <c r="D27" s="60"/>
+      <c r="E27" s="60"/>
+      <c r="F27" s="60"/>
+      <c r="G27" s="60"/>
+      <c r="H27" s="60"/>
+    </row>
+    <row r="28" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="92"/>
       <c r="B28" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C28" s="61"/>
-      <c r="D28" s="61"/>
-      <c r="E28" s="61"/>
-      <c r="F28" s="61"/>
-      <c r="G28" s="61"/>
-      <c r="H28" s="61"/>
-    </row>
-    <row r="29" spans="1:10" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="88"/>
+      <c r="C28" s="60"/>
+      <c r="D28" s="60"/>
+      <c r="E28" s="60"/>
+      <c r="F28" s="60"/>
+      <c r="G28" s="60"/>
+      <c r="H28" s="60"/>
+    </row>
+    <row r="29" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="92"/>
       <c r="B29" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C29" s="61"/>
-      <c r="D29" s="61"/>
-      <c r="E29" s="61"/>
-      <c r="F29" s="61"/>
-      <c r="G29" s="61"/>
-      <c r="H29" s="61"/>
-    </row>
-    <row r="30" spans="1:10" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="88"/>
+      <c r="C29" s="60"/>
+      <c r="D29" s="60"/>
+      <c r="E29" s="60"/>
+      <c r="F29" s="60"/>
+      <c r="G29" s="60"/>
+      <c r="H29" s="60"/>
+    </row>
+    <row r="30" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="92"/>
       <c r="B30" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C30" s="61"/>
-      <c r="D30" s="61"/>
-      <c r="E30" s="61"/>
-      <c r="F30" s="61"/>
-      <c r="G30" s="61"/>
-      <c r="H30" s="61"/>
-    </row>
-    <row r="31" spans="1:10" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="88"/>
+      <c r="C30" s="60"/>
+      <c r="D30" s="60"/>
+      <c r="E30" s="60"/>
+      <c r="F30" s="60"/>
+      <c r="G30" s="60"/>
+      <c r="H30" s="60"/>
+    </row>
+    <row r="31" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="92"/>
       <c r="B31" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C31" s="61"/>
-      <c r="D31" s="61"/>
-      <c r="E31" s="61"/>
-      <c r="F31" s="61"/>
-      <c r="G31" s="61"/>
-      <c r="H31" s="61"/>
-    </row>
-    <row r="32" spans="1:10" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="88"/>
+      <c r="C31" s="60"/>
+      <c r="D31" s="60"/>
+      <c r="E31" s="60"/>
+      <c r="F31" s="60"/>
+      <c r="G31" s="60"/>
+      <c r="H31" s="60"/>
+    </row>
+    <row r="32" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="92"/>
       <c r="B32" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C32" s="61"/>
-      <c r="D32" s="61"/>
-      <c r="E32" s="61"/>
-      <c r="F32" s="61"/>
-      <c r="G32" s="61"/>
-      <c r="H32" s="61"/>
-    </row>
-    <row r="33" spans="1:10" s="47" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C32" s="60"/>
+      <c r="D32" s="60"/>
+      <c r="E32" s="60"/>
+      <c r="F32" s="60"/>
+      <c r="G32" s="60"/>
+      <c r="H32" s="60"/>
+    </row>
+    <row r="33" spans="1:10" s="46" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="8"/>
       <c r="B33" s="6"/>
-      <c r="C33" s="62"/>
-      <c r="D33" s="62"/>
-      <c r="E33" s="62"/>
-      <c r="F33" s="62"/>
-      <c r="G33" s="62"/>
-      <c r="H33" s="62"/>
-      <c r="I33" s="45"/>
-      <c r="J33" s="45"/>
-    </row>
-    <row r="34" spans="1:10" s="47" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="111" t="s">
+      <c r="C33" s="61"/>
+      <c r="D33" s="61"/>
+      <c r="E33" s="61"/>
+      <c r="F33" s="61"/>
+      <c r="G33" s="61"/>
+      <c r="H33" s="61"/>
+      <c r="I33" s="44"/>
+      <c r="J33" s="44"/>
+    </row>
+    <row r="34" spans="1:10" s="46" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="115" t="s">
         <v>69</v>
       </c>
-      <c r="B34" s="112"/>
-      <c r="C34" s="112"/>
-      <c r="D34" s="112"/>
-      <c r="E34" s="112"/>
-      <c r="F34" s="112"/>
-      <c r="G34" s="112"/>
-      <c r="H34" s="112"/>
-      <c r="I34" s="112"/>
-      <c r="J34" s="112"/>
-    </row>
-    <row r="36" spans="1:10" s="46" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="86" t="s">
+      <c r="B34" s="116"/>
+      <c r="C34" s="116"/>
+      <c r="D34" s="116"/>
+      <c r="E34" s="116"/>
+      <c r="F34" s="116"/>
+      <c r="G34" s="116"/>
+      <c r="H34" s="116"/>
+      <c r="I34" s="116"/>
+      <c r="J34" s="116"/>
+    </row>
+    <row r="36" spans="1:10" s="45" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="B36" s="94"/>
-      <c r="C36" s="94"/>
-      <c r="D36" s="94"/>
-      <c r="E36" s="94"/>
-      <c r="F36" s="94"/>
-      <c r="G36" s="94"/>
-      <c r="H36" s="94"/>
-      <c r="I36" s="94"/>
-      <c r="J36" s="94"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A38" s="42" t="s">
+      <c r="B36" s="93"/>
+      <c r="C36" s="93"/>
+      <c r="D36" s="93"/>
+      <c r="E36" s="93"/>
+      <c r="F36" s="93"/>
+      <c r="G36" s="93"/>
+      <c r="H36" s="93"/>
+      <c r="I36" s="93"/>
+      <c r="J36" s="93"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="C38" s="44"/>
-      <c r="D38" s="44"/>
-      <c r="E38" s="44"/>
-      <c r="F38" s="44"/>
-      <c r="G38" s="44"/>
-      <c r="H38" s="44"/>
-      <c r="I38" s="44"/>
-      <c r="J38" s="45"/>
+      <c r="C38" s="43"/>
+      <c r="D38" s="43"/>
+      <c r="E38" s="43"/>
+      <c r="F38" s="43"/>
+      <c r="G38" s="43"/>
+      <c r="H38" s="43"/>
+      <c r="I38" s="43"/>
+      <c r="J38" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -3671,148 +3685,148 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="43" customWidth="1"/>
-    <col min="2" max="2" width="14.54296875" style="43" customWidth="1"/>
-    <col min="3" max="9" width="15.54296875" style="43" customWidth="1"/>
-    <col min="10" max="10" width="15.54296875" style="45" customWidth="1"/>
-    <col min="11" max="16384" width="9.1796875" style="43"/>
+    <col min="1" max="1" width="8.7109375" style="42" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" style="42" customWidth="1"/>
+    <col min="3" max="9" width="15.5703125" style="42" customWidth="1"/>
+    <col min="10" max="10" width="15.5703125" style="44" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="42"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:10" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>59</v>
       </c>
       <c r="J1" s="13"/>
     </row>
-    <row r="2" spans="1:10" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
     </row>
-    <row r="3" spans="1:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="85" t="s">
+    <row r="3" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="89" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="88"/>
-      <c r="C3" s="88"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="88"/>
-      <c r="G3" s="88"/>
-      <c r="H3" s="88"/>
-      <c r="I3" s="88"/>
-      <c r="J3" s="118"/>
-    </row>
-    <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.45">
+      <c r="B3" s="92"/>
+      <c r="C3" s="92"/>
+      <c r="D3" s="92"/>
+      <c r="E3" s="92"/>
+      <c r="F3" s="92"/>
+      <c r="G3" s="92"/>
+      <c r="H3" s="92"/>
+      <c r="I3" s="92"/>
+      <c r="J3" s="122"/>
+    </row>
+    <row r="4" spans="1:10" ht="30.75" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
-      <c r="F4" s="56" t="s">
+      <c r="F4" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="G4" s="56" t="s">
+      <c r="G4" s="55" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
       <c r="E5" s="28" t="s">
         <v>66</v>
       </c>
-      <c r="F5" s="54">
+      <c r="F5" s="53">
         <f>SUM(F6:F9)</f>
         <v>0</v>
       </c>
-      <c r="G5" s="60" t="e">
+      <c r="G5" s="59" t="e">
         <f>SUM(G6:G9)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H5" s="44"/>
-      <c r="I5" s="44"/>
-    </row>
-    <row r="6" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="H5" s="43"/>
+      <c r="I5" s="43"/>
+    </row>
+    <row r="6" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="44"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
       <c r="E6" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="F6" s="76"/>
-      <c r="G6" s="77" t="e">
+      <c r="F6" s="75"/>
+      <c r="G6" s="76" t="e">
         <f>F6/$F$5</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H6" s="44"/>
-      <c r="I6" s="44"/>
-    </row>
-    <row r="7" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="H6" s="43"/>
+      <c r="I6" s="43"/>
+    </row>
+    <row r="7" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="44"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
       <c r="E7" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="F7" s="55"/>
+      <c r="F7" s="54"/>
       <c r="G7" s="29" t="e">
         <f t="shared" ref="G7:G9" si="0">F7/$F$5</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H7" s="44"/>
-      <c r="I7" s="44"/>
-    </row>
-    <row r="8" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="H7" s="43"/>
+      <c r="I7" s="43"/>
+    </row>
+    <row r="8" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
-      <c r="C8" s="44"/>
-      <c r="D8" s="44"/>
+      <c r="C8" s="43"/>
+      <c r="D8" s="43"/>
       <c r="E8" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="F8" s="80"/>
-      <c r="G8" s="81" t="e">
+      <c r="F8" s="79"/>
+      <c r="G8" s="80" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H8" s="44"/>
-      <c r="I8" s="44"/>
-    </row>
-    <row r="9" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
+      <c r="H8" s="43"/>
+      <c r="I8" s="43"/>
+    </row>
+    <row r="9" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
       <c r="E9" s="28" t="s">
         <v>63</v>
       </c>
-      <c r="F9" s="78"/>
-      <c r="G9" s="79" t="e">
+      <c r="F9" s="77"/>
+      <c r="G9" s="78" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H9" s="44"/>
-      <c r="I9" s="44"/>
-    </row>
-    <row r="10" spans="1:10" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="H9" s="43"/>
+      <c r="I9" s="43"/>
+    </row>
+    <row r="10" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
-      <c r="J10" s="43"/>
-    </row>
-    <row r="11" spans="1:10" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="119" t="s">
+      <c r="J10" s="42"/>
+    </row>
+    <row r="11" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="123" t="s">
         <v>64</v>
       </c>
-      <c r="B11" s="120"/>
-      <c r="C11" s="120"/>
-      <c r="D11" s="120"/>
-      <c r="E11" s="120"/>
-      <c r="F11" s="120"/>
-      <c r="G11" s="120"/>
-      <c r="H11" s="120"/>
-      <c r="I11" s="120"/>
-      <c r="J11" s="121"/>
-    </row>
-    <row r="12" spans="1:10" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B11" s="124"/>
+      <c r="C11" s="124"/>
+      <c r="D11" s="124"/>
+      <c r="E11" s="124"/>
+      <c r="F11" s="124"/>
+      <c r="G11" s="124"/>
+      <c r="H11" s="124"/>
+      <c r="I11" s="124"/>
+      <c r="J11" s="125"/>
+    </row>
+    <row r="12" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
-      <c r="J12" s="43"/>
-    </row>
-    <row r="13" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="J12" s="42"/>
+    </row>
+    <row r="13" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C13" s="17" t="s">
         <v>16</v>
       </c>
@@ -3826,9 +3840,9 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="A14" s="115"/>
-      <c r="B14" s="133" t="s">
+    <row r="14" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="119"/>
+      <c r="B14" s="85" t="s">
         <v>27</v>
       </c>
       <c r="C14" s="23">
@@ -3848,8 +3862,8 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="88"/>
+    <row r="15" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="92"/>
       <c r="B15" s="2" t="s">
         <v>5</v>
       </c>
@@ -3870,8 +3884,8 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="88"/>
+    <row r="16" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="92"/>
       <c r="B16" s="2" t="s">
         <v>6</v>
       </c>
@@ -3892,8 +3906,8 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="88"/>
+    <row r="17" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="92"/>
       <c r="B17" s="2" t="s">
         <v>7</v>
       </c>
@@ -3914,8 +3928,8 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="88"/>
+    <row r="18" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="92"/>
       <c r="B18" s="2" t="s">
         <v>8</v>
       </c>
@@ -3936,8 +3950,8 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="88"/>
+    <row r="19" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="92"/>
       <c r="B19" s="2" t="s">
         <v>71</v>
       </c>
@@ -3958,8 +3972,8 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="88"/>
+    <row r="20" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="92"/>
       <c r="B20" s="2" t="s">
         <v>9</v>
       </c>
@@ -3980,7 +3994,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="9"/>
       <c r="B21" s="6" t="s">
         <v>10</v>
@@ -3999,40 +4013,40 @@
       </c>
       <c r="F21" s="22"/>
     </row>
-    <row r="22" spans="1:10" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4"/>
       <c r="B22" s="6"/>
       <c r="C22" s="19"/>
       <c r="D22" s="19"/>
     </row>
-    <row r="23" spans="1:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="122" t="s">
+    <row r="23" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="126" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="88"/>
-      <c r="C23" s="88"/>
-      <c r="D23" s="88"/>
-      <c r="E23" s="88"/>
-      <c r="F23" s="88"/>
-      <c r="G23" s="88"/>
-      <c r="H23" s="88"/>
-      <c r="I23" s="88"/>
-      <c r="J23" s="118"/>
-    </row>
-    <row r="24" spans="1:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B23" s="92"/>
+      <c r="C23" s="92"/>
+      <c r="D23" s="92"/>
+      <c r="E23" s="92"/>
+      <c r="F23" s="92"/>
+      <c r="G23" s="92"/>
+      <c r="H23" s="92"/>
+      <c r="I23" s="92"/>
+      <c r="J23" s="122"/>
+    </row>
+    <row r="24" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
-      <c r="C24" s="90" t="s">
+      <c r="C24" s="98" t="s">
         <v>4</v>
       </c>
-      <c r="D24" s="88"/>
-      <c r="E24" s="88"/>
-      <c r="F24" s="88"/>
-      <c r="G24" s="88"/>
-      <c r="H24" s="88"/>
-      <c r="I24" s="88"/>
-    </row>
-    <row r="25" spans="1:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="C25" s="134" t="s">
+      <c r="D24" s="92"/>
+      <c r="E24" s="92"/>
+      <c r="F24" s="92"/>
+      <c r="G24" s="92"/>
+      <c r="H24" s="92"/>
+      <c r="I24" s="92"/>
+    </row>
+    <row r="25" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="C25" s="86" t="s">
         <v>27</v>
       </c>
       <c r="D25" s="20" t="s">
@@ -4053,15 +4067,15 @@
       <c r="I25" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="J25" s="45" t="s">
+      <c r="J25" s="44" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="A26" s="92" t="s">
+    <row r="26" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="B26" s="133" t="s">
+      <c r="B26" s="85" t="s">
         <v>27</v>
       </c>
       <c r="C26" s="23"/>
@@ -4076,8 +4090,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="88"/>
+    <row r="27" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="92"/>
       <c r="B27" s="2" t="s">
         <v>5</v>
       </c>
@@ -4093,8 +4107,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="88"/>
+    <row r="28" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="92"/>
       <c r="B28" s="2" t="s">
         <v>6</v>
       </c>
@@ -4110,8 +4124,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="88"/>
+    <row r="29" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="92"/>
       <c r="B29" s="2" t="s">
         <v>7</v>
       </c>
@@ -4127,8 +4141,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="88"/>
+    <row r="30" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="92"/>
       <c r="B30" s="2" t="s">
         <v>8</v>
       </c>
@@ -4144,8 +4158,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="88"/>
+    <row r="31" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="92"/>
       <c r="B31" s="2" t="s">
         <v>71</v>
       </c>
@@ -4161,8 +4175,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="88"/>
+    <row r="32" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="92"/>
       <c r="B32" s="2" t="s">
         <v>9</v>
       </c>
@@ -4178,7 +4192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:10" s="47" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" s="46" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="8"/>
       <c r="B33" s="6" t="s">
         <v>10</v>
@@ -4216,31 +4230,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:10" s="46" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="86" t="s">
+    <row r="35" spans="1:10" s="45" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="B35" s="94"/>
-      <c r="C35" s="94"/>
-      <c r="D35" s="94"/>
-      <c r="E35" s="94"/>
-      <c r="F35" s="94"/>
-      <c r="G35" s="94"/>
-      <c r="H35" s="94"/>
-      <c r="I35" s="94"/>
-      <c r="J35" s="94"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A37" s="42" t="s">
+      <c r="B35" s="93"/>
+      <c r="C35" s="93"/>
+      <c r="D35" s="93"/>
+      <c r="E35" s="93"/>
+      <c r="F35" s="93"/>
+      <c r="G35" s="93"/>
+      <c r="H35" s="93"/>
+      <c r="I35" s="93"/>
+      <c r="J35" s="93"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="C37" s="44"/>
-      <c r="D37" s="44"/>
-      <c r="E37" s="44"/>
-      <c r="F37" s="44"/>
-      <c r="G37" s="44"/>
-      <c r="H37" s="44"/>
-      <c r="I37" s="44"/>
+      <c r="C37" s="43"/>
+      <c r="D37" s="43"/>
+      <c r="E37" s="43"/>
+      <c r="F37" s="43"/>
+      <c r="G37" s="43"/>
+      <c r="H37" s="43"/>
+      <c r="I37" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -4259,18 +4273,18 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:I84"/>
+  <dimension ref="A1:H126"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.26953125" style="67" customWidth="1"/>
-    <col min="3" max="9" width="18.7265625" customWidth="1"/>
+    <col min="1" max="1" width="3.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" style="66" customWidth="1"/>
+    <col min="3" max="8" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>43</v>
       </c>
@@ -4281,476 +4295,556 @@
       <c r="F1" s="12"/>
       <c r="G1" s="12"/>
       <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-    </row>
-    <row r="2" spans="1:9" s="33" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:8" s="33" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="34"/>
-      <c r="B2" s="68"/>
+      <c r="B2" s="67"/>
       <c r="C2" s="35"/>
       <c r="D2" s="35"/>
       <c r="E2" s="35"/>
       <c r="F2" s="35"/>
       <c r="G2" s="35"/>
       <c r="H2" s="35"/>
-      <c r="I2" s="36"/>
-    </row>
-    <row r="3" spans="1:9" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A3" s="40"/>
-      <c r="B3" s="128" t="s">
+    </row>
+    <row r="3" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="39"/>
+      <c r="B3" s="132" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="128"/>
-      <c r="D3" s="128"/>
-      <c r="E3" s="128"/>
-    </row>
-    <row r="4" spans="1:9" ht="29" x14ac:dyDescent="0.35">
+      <c r="C3" s="132"/>
+      <c r="D3" s="132"/>
+      <c r="E3" s="132"/>
+    </row>
+    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B4" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="38" t="s">
         <v>23</v>
       </c>
-      <c r="D4" s="39" t="s">
+      <c r="D4" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="E4" s="39" t="s">
+      <c r="E4" s="38" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:9" s="82" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" s="81" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B5" s="16" t="str">
-        <f>IF(ISBLANK(B24),"",B24)</f>
-        <v/>
-      </c>
-      <c r="C5" s="83" t="str">
-        <f>IF(ISBLANK(B24),"",SUM(C24:H24))</f>
-        <v/>
-      </c>
-      <c r="D5" s="83"/>
+        <f>IF(ISBLANK(B38),"",B38)</f>
+        <v/>
+      </c>
+      <c r="C5" s="82" t="str">
+        <f>IF(ISBLANK(B38),"",SUM(C38:H38))</f>
+        <v/>
+      </c>
+      <c r="D5" s="82"/>
       <c r="E5" s="23" t="str">
-        <f>IF(ISBLANK(B24),"",SUM(C5:D5))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:9" s="75" customFormat="1" x14ac:dyDescent="0.35">
+        <f>IF(ISBLANK(B38),"",SUM(C5:D5))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="74" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="16" t="str">
-        <f t="shared" ref="B6:B20" si="0">IF(ISBLANK(B25),"",B25)</f>
-        <v/>
-      </c>
-      <c r="C6" s="83" t="str">
-        <f t="shared" ref="C6:C20" si="1">IF(ISBLANK(B25),"",SUM(C25:H25))</f>
-        <v/>
-      </c>
-      <c r="D6" s="83"/>
+        <f t="shared" ref="B6:B34" si="0">IF(ISBLANK(B39),"",B39)</f>
+        <v/>
+      </c>
+      <c r="C6" s="82" t="str">
+        <f t="shared" ref="C6:C34" si="1">IF(ISBLANK(B39),"",SUM(C39:H39))</f>
+        <v/>
+      </c>
+      <c r="D6" s="82"/>
       <c r="E6" s="23" t="str">
-        <f t="shared" ref="E6:E20" si="2">IF(ISBLANK(B25),"",SUM(C6:D6))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="58"/>
+        <f t="shared" ref="E6:E34" si="2">IF(ISBLANK(B39),"",SUM(C6:D6))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="57"/>
       <c r="B7" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C7" s="83" t="str">
+      <c r="C7" s="82" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D7" s="84"/>
+      <c r="D7" s="82"/>
       <c r="E7" s="23" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:9" s="75" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="58"/>
+    <row r="8" spans="1:8" s="84" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="57"/>
       <c r="B8" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C8" s="83" t="str">
+      <c r="C8" s="82" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D8" s="84"/>
+      <c r="D8" s="82"/>
       <c r="E8" s="23" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:9" s="75" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="58"/>
+    <row r="9" spans="1:8" s="84" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="57"/>
       <c r="B9" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C9" s="83" t="str">
+      <c r="C9" s="82" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D9" s="84"/>
+      <c r="D9" s="82"/>
       <c r="E9" s="23" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:9" s="75" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="58"/>
+    <row r="10" spans="1:8" s="84" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="57"/>
       <c r="B10" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C10" s="83" t="str">
+      <c r="C10" s="82" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D10" s="84"/>
+      <c r="D10" s="82"/>
       <c r="E10" s="23" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:9" s="75" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="58"/>
+    <row r="11" spans="1:8" s="84" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="57"/>
       <c r="B11" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C11" s="83" t="str">
+      <c r="C11" s="82" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D11" s="84"/>
+      <c r="D11" s="82"/>
       <c r="E11" s="23" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:9" s="75" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="58"/>
+    <row r="12" spans="1:8" s="84" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="57"/>
       <c r="B12" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C12" s="83" t="str">
+      <c r="C12" s="82" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D12" s="84"/>
+      <c r="D12" s="82"/>
       <c r="E12" s="23" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:9" s="75" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="58"/>
+    <row r="13" spans="1:8" s="84" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="57"/>
       <c r="B13" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C13" s="83" t="str">
+      <c r="C13" s="82" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D13" s="84"/>
+      <c r="D13" s="82"/>
       <c r="E13" s="23" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:9" s="75" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="58"/>
+    <row r="14" spans="1:8" s="84" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="57"/>
       <c r="B14" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C14" s="83" t="str">
+      <c r="C14" s="82" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D14" s="84"/>
+      <c r="D14" s="82"/>
       <c r="E14" s="23" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:9" s="75" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="58"/>
+    <row r="15" spans="1:8" s="84" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="57"/>
       <c r="B15" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C15" s="83" t="str">
+      <c r="C15" s="82" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D15" s="84"/>
+      <c r="D15" s="82"/>
       <c r="E15" s="23" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:9" s="75" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="58"/>
+    <row r="16" spans="1:8" s="84" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="57"/>
       <c r="B16" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C16" s="83" t="str">
+      <c r="C16" s="82" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D16" s="84"/>
+      <c r="D16" s="82"/>
       <c r="E16" s="23" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="17" spans="1:9" s="75" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="58"/>
+    <row r="17" spans="1:5" s="84" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="57"/>
       <c r="B17" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C17" s="83" t="str">
+      <c r="C17" s="82" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D17" s="84"/>
+      <c r="D17" s="82"/>
       <c r="E17" s="23" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A18" s="58"/>
+    <row r="18" spans="1:5" s="84" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="57"/>
       <c r="B18" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C18" s="83" t="str">
+      <c r="C18" s="82" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D18" s="84"/>
+      <c r="D18" s="82"/>
       <c r="E18" s="23" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A19" s="58"/>
+    <row r="19" spans="1:5" s="84" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="57"/>
       <c r="B19" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C19" s="83" t="str">
+      <c r="C19" s="82" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D19" s="84"/>
+      <c r="D19" s="82"/>
       <c r="E19" s="23" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A20" s="58"/>
+    <row r="20" spans="1:5" s="84" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="57"/>
       <c r="B20" s="16" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="C20" s="83" t="str">
+      <c r="C20" s="82" t="str">
         <f t="shared" si="1"/>
         <v/>
       </c>
-      <c r="D20" s="84"/>
+      <c r="D20" s="82"/>
       <c r="E20" s="23" t="str">
         <f t="shared" si="2"/>
         <v/>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A22" s="40"/>
-      <c r="B22" s="128" t="s">
+    <row r="21" spans="1:5" s="84" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="57"/>
+      <c r="B21" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C21" s="82" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="D21" s="82"/>
+      <c r="E21" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:5" s="84" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="57"/>
+      <c r="B22" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C22" s="82" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="D22" s="82"/>
+      <c r="E22" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:5" s="74" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="57"/>
+      <c r="B23" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C23" s="82" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="D23" s="82"/>
+      <c r="E23" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:5" s="74" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="57"/>
+      <c r="B24" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C24" s="82" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="D24" s="82"/>
+      <c r="E24" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:5" s="74" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="57"/>
+      <c r="B25" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C25" s="82" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="D25" s="82"/>
+      <c r="E25" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:5" s="74" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="57"/>
+      <c r="B26" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C26" s="82" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="D26" s="82"/>
+      <c r="E26" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:5" s="74" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="57"/>
+      <c r="B27" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C27" s="82" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="D27" s="82"/>
+      <c r="E27" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:5" s="74" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="57"/>
+      <c r="B28" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C28" s="82" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="D28" s="82"/>
+      <c r="E28" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:5" s="74" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="57"/>
+      <c r="B29" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C29" s="82" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="D29" s="82"/>
+      <c r="E29" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:5" s="74" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="57"/>
+      <c r="B30" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C30" s="82" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="D30" s="82"/>
+      <c r="E30" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:5" s="74" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="57"/>
+      <c r="B31" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C31" s="82" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="D31" s="82"/>
+      <c r="E31" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:5" s="74" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="57"/>
+      <c r="B32" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C32" s="82" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="D32" s="82"/>
+      <c r="E32" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="57"/>
+      <c r="B33" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C33" s="82" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="D33" s="82"/>
+      <c r="E33" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="57"/>
+      <c r="B34" s="16" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="C34" s="82" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="D34" s="82"/>
+      <c r="E34" s="23" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A36" s="39"/>
+      <c r="B36" s="132" t="s">
         <v>26</v>
       </c>
-      <c r="C22" s="128"/>
-      <c r="D22" s="128"/>
-      <c r="E22" s="128"/>
-      <c r="F22" s="128"/>
-      <c r="G22" s="128"/>
-      <c r="H22" s="128"/>
-    </row>
-    <row r="23" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A23"/>
-      <c r="B23" s="16" t="s">
+      <c r="C36" s="132"/>
+      <c r="D36" s="132"/>
+      <c r="E36" s="132"/>
+      <c r="F36" s="132"/>
+      <c r="G36" s="132"/>
+      <c r="H36" s="132"/>
+    </row>
+    <row r="37" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37"/>
+      <c r="B37" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="37" t="s">
+      <c r="C37" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="D23" s="37" t="s">
+      <c r="D37" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="E23" s="37" t="s">
+      <c r="E37" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="F23" s="37" t="s">
+      <c r="F37" s="36" t="s">
         <v>30</v>
       </c>
-      <c r="G23" s="38" t="s">
+      <c r="G37" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="H23" s="38" t="s">
+      <c r="H37" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="I23"/>
-    </row>
-    <row r="24" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A24"/>
-      <c r="B24" s="16"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="23"/>
-      <c r="I24"/>
-    </row>
-    <row r="25" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="16"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="23"/>
-    </row>
-    <row r="26" spans="1:9" s="75" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B26" s="16"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="23"/>
-    </row>
-    <row r="27" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="16"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="23"/>
-    </row>
-    <row r="28" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="57"/>
-      <c r="B28" s="16"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="23"/>
-    </row>
-    <row r="29" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="57"/>
-      <c r="B29" s="16"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="23"/>
-    </row>
-    <row r="30" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="57"/>
-      <c r="B30" s="16"/>
-      <c r="C30" s="23"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="23"/>
-      <c r="G30" s="23"/>
-      <c r="H30" s="23"/>
-    </row>
-    <row r="31" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="57"/>
-      <c r="B31" s="16"/>
-      <c r="C31" s="23"/>
-      <c r="D31" s="23"/>
-      <c r="E31" s="23"/>
-      <c r="F31" s="23"/>
-      <c r="G31" s="23"/>
-      <c r="H31" s="23"/>
-    </row>
-    <row r="32" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="57"/>
-      <c r="B32" s="16"/>
-      <c r="C32" s="23"/>
-      <c r="D32" s="23"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="23"/>
-      <c r="H32" s="23"/>
-    </row>
-    <row r="33" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="57"/>
-      <c r="B33" s="16"/>
-      <c r="C33" s="23"/>
-      <c r="D33" s="23"/>
-      <c r="E33" s="23"/>
-      <c r="F33" s="23"/>
-      <c r="G33" s="23"/>
-      <c r="H33" s="23"/>
-    </row>
-    <row r="34" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="57"/>
-      <c r="B34" s="16"/>
-      <c r="C34" s="23"/>
-      <c r="D34" s="23"/>
-      <c r="E34" s="23"/>
-      <c r="F34" s="23"/>
-      <c r="G34" s="23"/>
-      <c r="H34" s="23"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A35" s="57"/>
-      <c r="B35" s="16"/>
-      <c r="C35" s="23"/>
-      <c r="D35" s="23"/>
-      <c r="E35" s="23"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="23"/>
-      <c r="H35" s="23"/>
-      <c r="I35" s="32"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A36" s="57"/>
-      <c r="B36" s="16"/>
-      <c r="C36" s="23"/>
-      <c r="D36" s="23"/>
-      <c r="E36" s="23"/>
-      <c r="F36" s="23"/>
-      <c r="G36" s="23"/>
-      <c r="H36" s="23"/>
-      <c r="I36" s="32"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A37" s="57"/>
-      <c r="B37" s="16"/>
-      <c r="C37" s="23"/>
-      <c r="D37" s="23"/>
-      <c r="E37" s="23"/>
-      <c r="F37" s="23"/>
-      <c r="G37" s="23"/>
-      <c r="H37" s="23"/>
-      <c r="I37" s="32"/>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A38" s="57"/>
+    </row>
+    <row r="38" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38"/>
       <c r="B38" s="16"/>
       <c r="C38" s="23"/>
       <c r="D38" s="23"/>
@@ -4759,8 +4853,7 @@
       <c r="G38" s="23"/>
       <c r="H38" s="23"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A39" s="57"/>
+    <row r="39" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B39" s="16"/>
       <c r="C39" s="23"/>
       <c r="D39" s="23"/>
@@ -4769,298 +4862,135 @@
       <c r="G39" s="23"/>
       <c r="H39" s="23"/>
     </row>
-    <row r="40" spans="1:9" ht="31" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="41" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B41" s="132" t="s">
-        <v>33</v>
-      </c>
-      <c r="C41" s="132"/>
-      <c r="D41" s="132"/>
-      <c r="E41" s="132"/>
-      <c r="F41" s="132"/>
-      <c r="G41" s="132"/>
-      <c r="H41" s="132"/>
-    </row>
-    <row r="42" spans="1:9" s="43" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="B42" s="48"/>
-      <c r="C42" s="123" t="s">
-        <v>65</v>
-      </c>
-      <c r="D42" s="124"/>
-      <c r="E42" s="124"/>
-      <c r="F42" s="124"/>
-      <c r="G42" s="124"/>
-      <c r="H42" s="125"/>
-    </row>
-    <row r="43" spans="1:9" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="32"/>
-      <c r="C43" s="39" t="s">
-        <v>27</v>
-      </c>
-      <c r="D43" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="E43" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="F43" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="G43" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="H43" s="16" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="126" t="s">
-        <v>11</v>
-      </c>
-      <c r="B44" s="41" t="s">
-        <v>27</v>
-      </c>
-      <c r="C44" s="23">
-        <f>'Land cover'!C26</f>
-        <v>0</v>
-      </c>
-      <c r="D44" s="23">
-        <f>'Land cover'!D26</f>
-        <v>0</v>
-      </c>
-      <c r="E44" s="23">
-        <f>'Land cover'!E26</f>
-        <v>0</v>
-      </c>
-      <c r="F44" s="23">
-        <f>'Land cover'!F26</f>
-        <v>0</v>
-      </c>
-      <c r="G44" s="23">
-        <f>'Land cover'!G26</f>
-        <v>0</v>
-      </c>
-      <c r="H44" s="23">
-        <f>'Land cover'!H26</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="127"/>
-      <c r="B45" s="69" t="s">
-        <v>5</v>
-      </c>
-      <c r="C45" s="23">
-        <f>'Land cover'!C27</f>
-        <v>0</v>
-      </c>
-      <c r="D45" s="23">
-        <f>'Land cover'!D27</f>
-        <v>0</v>
-      </c>
-      <c r="E45" s="23">
-        <f>'Land cover'!E27</f>
-        <v>0</v>
-      </c>
-      <c r="F45" s="23">
-        <f>'Land cover'!F27</f>
-        <v>0</v>
-      </c>
-      <c r="G45" s="23">
-        <f>'Land cover'!G27</f>
-        <v>0</v>
-      </c>
-      <c r="H45" s="23">
-        <f>'Land cover'!H27</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="127"/>
-      <c r="B46" s="69" t="s">
-        <v>6</v>
-      </c>
-      <c r="C46" s="23">
-        <f>'Land cover'!C28</f>
-        <v>0</v>
-      </c>
-      <c r="D46" s="23">
-        <f>'Land cover'!D28</f>
-        <v>0</v>
-      </c>
-      <c r="E46" s="23">
-        <f>'Land cover'!E28</f>
-        <v>0</v>
-      </c>
-      <c r="F46" s="23">
-        <f>'Land cover'!F28</f>
-        <v>0</v>
-      </c>
-      <c r="G46" s="23">
-        <f>'Land cover'!G28</f>
-        <v>0</v>
-      </c>
-      <c r="H46" s="23">
-        <f>'Land cover'!H28</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="127"/>
-      <c r="B47" s="69" t="s">
-        <v>7</v>
-      </c>
-      <c r="C47" s="23">
-        <f>'Land cover'!C29</f>
-        <v>0</v>
-      </c>
-      <c r="D47" s="23">
-        <f>'Land cover'!D29</f>
-        <v>0</v>
-      </c>
-      <c r="E47" s="23">
-        <f>'Land cover'!E29</f>
-        <v>0</v>
-      </c>
-      <c r="F47" s="23">
-        <f>'Land cover'!F29</f>
-        <v>0</v>
-      </c>
-      <c r="G47" s="23">
-        <f>'Land cover'!G29</f>
-        <v>0</v>
-      </c>
-      <c r="H47" s="23">
-        <f>'Land cover'!H29</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="127"/>
-      <c r="B48" s="69" t="s">
-        <v>8</v>
-      </c>
-      <c r="C48" s="23">
-        <f>'Land cover'!C30</f>
-        <v>0</v>
-      </c>
-      <c r="D48" s="23">
-        <f>'Land cover'!D30</f>
-        <v>0</v>
-      </c>
-      <c r="E48" s="23">
-        <f>'Land cover'!E30</f>
-        <v>0</v>
-      </c>
-      <c r="F48" s="23">
-        <f>'Land cover'!F30</f>
-        <v>0</v>
-      </c>
-      <c r="G48" s="23">
-        <f>'Land cover'!G30</f>
-        <v>0</v>
-      </c>
-      <c r="H48" s="23">
-        <f>'Land cover'!H30</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="127"/>
-      <c r="B49" s="69" t="s">
-        <v>32</v>
-      </c>
-      <c r="C49" s="23">
-        <f>'Land cover'!C31</f>
-        <v>0</v>
-      </c>
-      <c r="D49" s="23">
-        <f>'Land cover'!D31</f>
-        <v>0</v>
-      </c>
-      <c r="E49" s="23">
-        <f>'Land cover'!E31</f>
-        <v>0</v>
-      </c>
-      <c r="F49" s="23">
-        <f>'Land cover'!F31</f>
-        <v>0</v>
-      </c>
-      <c r="G49" s="23">
-        <f>'Land cover'!G31</f>
-        <v>0</v>
-      </c>
-      <c r="H49" s="23">
-        <f>'Land cover'!H31</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A50"/>
-      <c r="B50" s="67"/>
-      <c r="C50"/>
-      <c r="D50"/>
-      <c r="E50"/>
-      <c r="F50"/>
-      <c r="G50"/>
-      <c r="H50"/>
-      <c r="I50"/>
-    </row>
-    <row r="51" spans="1:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A51" s="59"/>
-      <c r="B51" s="132" t="s">
-        <v>79</v>
-      </c>
-      <c r="C51" s="132"/>
-      <c r="D51" s="132"/>
-      <c r="E51" s="132"/>
-      <c r="F51" s="132"/>
-      <c r="G51" s="132"/>
-      <c r="H51" s="132"/>
-    </row>
-    <row r="52" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B52" s="70"/>
-      <c r="C52" s="123" t="s">
-        <v>40</v>
-      </c>
-      <c r="D52" s="124"/>
-      <c r="E52" s="124"/>
-      <c r="F52" s="124"/>
-      <c r="G52" s="124"/>
-      <c r="H52" s="125"/>
-    </row>
-    <row r="53" spans="1:9" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="32"/>
-      <c r="B53" s="39" t="s">
-        <v>41</v>
-      </c>
-      <c r="C53" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="D53" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="E53" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="F53" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="G53" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="H53" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="I53" s="32"/>
-    </row>
-    <row r="54" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="126" t="s">
-        <v>78</v>
-      </c>
-      <c r="B54" s="41" t="s">
-        <v>27</v>
-      </c>
+    <row r="40" spans="1:8" s="74" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B40" s="16"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="23"/>
+      <c r="E40" s="23"/>
+      <c r="F40" s="23"/>
+      <c r="G40" s="23"/>
+      <c r="H40" s="23"/>
+    </row>
+    <row r="41" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B41" s="16"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="23"/>
+      <c r="F41" s="23"/>
+      <c r="G41" s="23"/>
+      <c r="H41" s="23"/>
+    </row>
+    <row r="42" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="56"/>
+      <c r="B42" s="16"/>
+      <c r="C42" s="23"/>
+      <c r="D42" s="23"/>
+      <c r="E42" s="23"/>
+      <c r="F42" s="23"/>
+      <c r="G42" s="23"/>
+      <c r="H42" s="23"/>
+    </row>
+    <row r="43" spans="1:8" s="84" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B43" s="16"/>
+      <c r="C43" s="23"/>
+      <c r="D43" s="23"/>
+      <c r="E43" s="23"/>
+      <c r="F43" s="23"/>
+      <c r="G43" s="23"/>
+      <c r="H43" s="23"/>
+    </row>
+    <row r="44" spans="1:8" s="84" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B44" s="16"/>
+      <c r="C44" s="23"/>
+      <c r="D44" s="23"/>
+      <c r="E44" s="23"/>
+      <c r="F44" s="23"/>
+      <c r="G44" s="23"/>
+      <c r="H44" s="23"/>
+    </row>
+    <row r="45" spans="1:8" s="84" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B45" s="16"/>
+      <c r="C45" s="23"/>
+      <c r="D45" s="23"/>
+      <c r="E45" s="23"/>
+      <c r="F45" s="23"/>
+      <c r="G45" s="23"/>
+      <c r="H45" s="23"/>
+    </row>
+    <row r="46" spans="1:8" s="84" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B46" s="16"/>
+      <c r="C46" s="23"/>
+      <c r="D46" s="23"/>
+      <c r="E46" s="23"/>
+      <c r="F46" s="23"/>
+      <c r="G46" s="23"/>
+      <c r="H46" s="23"/>
+    </row>
+    <row r="47" spans="1:8" s="84" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="16"/>
+      <c r="C47" s="23"/>
+      <c r="D47" s="23"/>
+      <c r="E47" s="23"/>
+      <c r="F47" s="23"/>
+      <c r="G47" s="23"/>
+      <c r="H47" s="23"/>
+    </row>
+    <row r="48" spans="1:8" s="84" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B48" s="16"/>
+      <c r="C48" s="23"/>
+      <c r="D48" s="23"/>
+      <c r="E48" s="23"/>
+      <c r="F48" s="23"/>
+      <c r="G48" s="23"/>
+      <c r="H48" s="23"/>
+    </row>
+    <row r="49" spans="1:8" s="84" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B49" s="16"/>
+      <c r="C49" s="23"/>
+      <c r="D49" s="23"/>
+      <c r="E49" s="23"/>
+      <c r="F49" s="23"/>
+      <c r="G49" s="23"/>
+      <c r="H49" s="23"/>
+    </row>
+    <row r="50" spans="1:8" s="84" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B50" s="16"/>
+      <c r="C50" s="23"/>
+      <c r="D50" s="23"/>
+      <c r="E50" s="23"/>
+      <c r="F50" s="23"/>
+      <c r="G50" s="23"/>
+      <c r="H50" s="23"/>
+    </row>
+    <row r="51" spans="1:8" s="84" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B51" s="16"/>
+      <c r="C51" s="23"/>
+      <c r="D51" s="23"/>
+      <c r="E51" s="23"/>
+      <c r="F51" s="23"/>
+      <c r="G51" s="23"/>
+      <c r="H51" s="23"/>
+    </row>
+    <row r="52" spans="1:8" s="84" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B52" s="16"/>
+      <c r="C52" s="23"/>
+      <c r="D52" s="23"/>
+      <c r="E52" s="23"/>
+      <c r="F52" s="23"/>
+      <c r="G52" s="23"/>
+      <c r="H52" s="23"/>
+    </row>
+    <row r="53" spans="1:8" s="84" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B53" s="16"/>
+      <c r="C53" s="23"/>
+      <c r="D53" s="23"/>
+      <c r="E53" s="23"/>
+      <c r="F53" s="23"/>
+      <c r="G53" s="23"/>
+      <c r="H53" s="23"/>
+    </row>
+    <row r="54" spans="1:8" s="84" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B54" s="16"/>
       <c r="C54" s="23"/>
       <c r="D54" s="23"/>
       <c r="E54" s="23"/>
@@ -5068,11 +4998,8 @@
       <c r="G54" s="23"/>
       <c r="H54" s="23"/>
     </row>
-    <row r="55" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="127"/>
-      <c r="B55" s="69" t="s">
-        <v>5</v>
-      </c>
+    <row r="55" spans="1:8" s="84" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B55" s="16"/>
       <c r="C55" s="23"/>
       <c r="D55" s="23"/>
       <c r="E55" s="23"/>
@@ -5080,11 +5007,8 @@
       <c r="G55" s="23"/>
       <c r="H55" s="23"/>
     </row>
-    <row r="56" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="127"/>
-      <c r="B56" s="69" t="s">
-        <v>6</v>
-      </c>
+    <row r="56" spans="1:8" s="84" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B56" s="16"/>
       <c r="C56" s="23"/>
       <c r="D56" s="23"/>
       <c r="E56" s="23"/>
@@ -5092,11 +5016,8 @@
       <c r="G56" s="23"/>
       <c r="H56" s="23"/>
     </row>
-    <row r="57" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="127"/>
-      <c r="B57" s="69" t="s">
-        <v>7</v>
-      </c>
+    <row r="57" spans="1:8" s="84" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B57" s="16"/>
       <c r="C57" s="23"/>
       <c r="D57" s="23"/>
       <c r="E57" s="23"/>
@@ -5104,11 +5025,8 @@
       <c r="G57" s="23"/>
       <c r="H57" s="23"/>
     </row>
-    <row r="58" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="127"/>
-      <c r="B58" s="69" t="s">
-        <v>8</v>
-      </c>
+    <row r="58" spans="1:8" s="84" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B58" s="16"/>
       <c r="C58" s="23"/>
       <c r="D58" s="23"/>
       <c r="E58" s="23"/>
@@ -5116,76 +5034,54 @@
       <c r="G58" s="23"/>
       <c r="H58" s="23"/>
     </row>
-    <row r="59" spans="1:9" s="32" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="127"/>
-      <c r="B59" s="69" t="s">
-        <v>32</v>
-      </c>
+    <row r="59" spans="1:8" s="84" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B59" s="16"/>
       <c r="C59" s="23"/>
       <c r="D59" s="23"/>
       <c r="E59" s="23"/>
       <c r="F59" s="23"/>
       <c r="G59" s="23"/>
       <c r="H59" s="23"/>
-      <c r="I59"/>
-    </row>
-    <row r="60" spans="1:9" s="59" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B60" s="71"/>
-      <c r="C60" s="72"/>
-      <c r="D60" s="72"/>
-      <c r="E60" s="72"/>
-      <c r="F60" s="72"/>
-      <c r="G60" s="72"/>
-      <c r="H60" s="72"/>
-    </row>
-    <row r="61" spans="1:9" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="B61" s="128" t="s">
-        <v>42</v>
-      </c>
-      <c r="C61" s="128"/>
-      <c r="D61" s="128"/>
-      <c r="E61" s="128"/>
-      <c r="F61" s="128"/>
-      <c r="G61" s="128"/>
-      <c r="H61" s="128"/>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A62" s="32"/>
-      <c r="B62" s="129" t="s">
-        <v>77</v>
-      </c>
-      <c r="C62" s="130"/>
-      <c r="D62" s="130"/>
-      <c r="E62" s="130"/>
-      <c r="F62" s="130"/>
-      <c r="G62" s="130"/>
-      <c r="H62" s="131"/>
-      <c r="I62" s="32"/>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="B63" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C63" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="D63" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="E63" s="37" t="s">
-        <v>29</v>
-      </c>
-      <c r="F63" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="G63" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="H63" s="38" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="60" spans="1:8" s="84" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B60" s="16"/>
+      <c r="C60" s="23"/>
+      <c r="D60" s="23"/>
+      <c r="E60" s="23"/>
+      <c r="F60" s="23"/>
+      <c r="G60" s="23"/>
+      <c r="H60" s="23"/>
+    </row>
+    <row r="61" spans="1:8" s="84" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B61" s="16"/>
+      <c r="C61" s="23"/>
+      <c r="D61" s="23"/>
+      <c r="E61" s="23"/>
+      <c r="F61" s="23"/>
+      <c r="G61" s="23"/>
+      <c r="H61" s="23"/>
+    </row>
+    <row r="62" spans="1:8" s="84" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B62" s="16"/>
+      <c r="C62" s="23"/>
+      <c r="D62" s="23"/>
+      <c r="E62" s="23"/>
+      <c r="F62" s="23"/>
+      <c r="G62" s="23"/>
+      <c r="H62" s="23"/>
+    </row>
+    <row r="63" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="56"/>
+      <c r="B63" s="16"/>
+      <c r="C63" s="23"/>
+      <c r="D63" s="23"/>
+      <c r="E63" s="23"/>
+      <c r="F63" s="23"/>
+      <c r="G63" s="23"/>
+      <c r="H63" s="23"/>
+    </row>
+    <row r="64" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="56"/>
       <c r="B64" s="16"/>
       <c r="C64" s="23"/>
       <c r="D64" s="23"/>
@@ -5194,7 +5090,8 @@
       <c r="G64" s="23"/>
       <c r="H64" s="23"/>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="56"/>
       <c r="B65" s="16"/>
       <c r="C65" s="23"/>
       <c r="D65" s="23"/>
@@ -5203,7 +5100,8 @@
       <c r="G65" s="23"/>
       <c r="H65" s="23"/>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="56"/>
       <c r="B66" s="16"/>
       <c r="C66" s="23"/>
       <c r="D66" s="23"/>
@@ -5212,7 +5110,8 @@
       <c r="G66" s="23"/>
       <c r="H66" s="23"/>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="56"/>
       <c r="B67" s="16"/>
       <c r="C67" s="23"/>
       <c r="D67" s="23"/>
@@ -5221,178 +5120,748 @@
       <c r="G67" s="23"/>
       <c r="H67" s="23"/>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B68" s="16"/>
-      <c r="C68" s="23"/>
-      <c r="D68" s="23"/>
-      <c r="E68" s="23"/>
-      <c r="F68" s="23"/>
-      <c r="G68" s="23"/>
-      <c r="H68" s="23"/>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B69" s="16"/>
-      <c r="C69" s="23"/>
-      <c r="D69" s="23"/>
-      <c r="E69" s="23"/>
-      <c r="F69" s="23"/>
-      <c r="G69" s="23"/>
-      <c r="H69" s="23"/>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B70" s="16"/>
-      <c r="C70" s="23"/>
-      <c r="D70" s="23"/>
-      <c r="E70" s="23"/>
-      <c r="F70" s="23"/>
-      <c r="G70" s="23"/>
-      <c r="H70" s="23"/>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B71" s="16"/>
-      <c r="C71" s="23"/>
-      <c r="D71" s="23"/>
-      <c r="E71" s="23"/>
-      <c r="F71" s="23"/>
-      <c r="G71" s="23"/>
-      <c r="H71" s="23"/>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B72" s="16"/>
-      <c r="C72" s="23"/>
-      <c r="D72" s="23"/>
-      <c r="E72" s="23"/>
-      <c r="F72" s="23"/>
-      <c r="G72" s="23"/>
-      <c r="H72" s="23"/>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B73" s="16"/>
-      <c r="C73" s="23"/>
-      <c r="D73" s="23"/>
-      <c r="E73" s="23"/>
-      <c r="F73" s="23"/>
-      <c r="G73" s="23"/>
-      <c r="H73" s="23"/>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B74" s="16"/>
-      <c r="C74" s="23"/>
-      <c r="D74" s="23"/>
-      <c r="E74" s="23"/>
-      <c r="F74" s="23"/>
-      <c r="G74" s="23"/>
-      <c r="H74" s="23"/>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B75" s="16"/>
-      <c r="C75" s="23"/>
-      <c r="D75" s="23"/>
-      <c r="E75" s="23"/>
-      <c r="F75" s="23"/>
-      <c r="G75" s="23"/>
-      <c r="H75" s="23"/>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B76" s="16"/>
-      <c r="C76" s="23"/>
-      <c r="D76" s="23"/>
-      <c r="E76" s="23"/>
-      <c r="F76" s="23"/>
-      <c r="G76" s="23"/>
-      <c r="H76" s="23"/>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="B77" s="16"/>
-      <c r="C77" s="23"/>
-      <c r="D77" s="23"/>
-      <c r="E77" s="23"/>
-      <c r="F77" s="23"/>
-      <c r="G77" s="23"/>
-      <c r="H77" s="23"/>
-    </row>
-    <row r="78" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B69" s="136" t="s">
+        <v>33</v>
+      </c>
+      <c r="C69" s="136"/>
+      <c r="D69" s="136"/>
+      <c r="E69" s="136"/>
+      <c r="F69" s="136"/>
+      <c r="G69" s="136"/>
+      <c r="H69" s="136"/>
+    </row>
+    <row r="70" spans="1:8" s="42" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B70" s="47"/>
+      <c r="C70" s="127" t="s">
+        <v>65</v>
+      </c>
+      <c r="D70" s="128"/>
+      <c r="E70" s="128"/>
+      <c r="F70" s="128"/>
+      <c r="G70" s="128"/>
+      <c r="H70" s="129"/>
+    </row>
+    <row r="71" spans="1:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="32"/>
+      <c r="C71" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="D71" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="E71" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="F71" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="G71" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="H71" s="16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="130" t="s">
+        <v>11</v>
+      </c>
+      <c r="B72" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="C72" s="23">
+        <f>'Land cover'!C26</f>
+        <v>0</v>
+      </c>
+      <c r="D72" s="23">
+        <f>'Land cover'!D26</f>
+        <v>0</v>
+      </c>
+      <c r="E72" s="23">
+        <f>'Land cover'!E26</f>
+        <v>0</v>
+      </c>
+      <c r="F72" s="23">
+        <f>'Land cover'!F26</f>
+        <v>0</v>
+      </c>
+      <c r="G72" s="23">
+        <f>'Land cover'!G26</f>
+        <v>0</v>
+      </c>
+      <c r="H72" s="23">
+        <f>'Land cover'!H26</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="131"/>
+      <c r="B73" s="68" t="s">
+        <v>5</v>
+      </c>
+      <c r="C73" s="23">
+        <f>'Land cover'!C27</f>
+        <v>0</v>
+      </c>
+      <c r="D73" s="23">
+        <f>'Land cover'!D27</f>
+        <v>0</v>
+      </c>
+      <c r="E73" s="23">
+        <f>'Land cover'!E27</f>
+        <v>0</v>
+      </c>
+      <c r="F73" s="23">
+        <f>'Land cover'!F27</f>
+        <v>0</v>
+      </c>
+      <c r="G73" s="23">
+        <f>'Land cover'!G27</f>
+        <v>0</v>
+      </c>
+      <c r="H73" s="23">
+        <f>'Land cover'!H27</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="131"/>
+      <c r="B74" s="68" t="s">
+        <v>6</v>
+      </c>
+      <c r="C74" s="23">
+        <f>'Land cover'!C28</f>
+        <v>0</v>
+      </c>
+      <c r="D74" s="23">
+        <f>'Land cover'!D28</f>
+        <v>0</v>
+      </c>
+      <c r="E74" s="23">
+        <f>'Land cover'!E28</f>
+        <v>0</v>
+      </c>
+      <c r="F74" s="23">
+        <f>'Land cover'!F28</f>
+        <v>0</v>
+      </c>
+      <c r="G74" s="23">
+        <f>'Land cover'!G28</f>
+        <v>0</v>
+      </c>
+      <c r="H74" s="23">
+        <f>'Land cover'!H28</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="131"/>
+      <c r="B75" s="68" t="s">
+        <v>7</v>
+      </c>
+      <c r="C75" s="23">
+        <f>'Land cover'!C29</f>
+        <v>0</v>
+      </c>
+      <c r="D75" s="23">
+        <f>'Land cover'!D29</f>
+        <v>0</v>
+      </c>
+      <c r="E75" s="23">
+        <f>'Land cover'!E29</f>
+        <v>0</v>
+      </c>
+      <c r="F75" s="23">
+        <f>'Land cover'!F29</f>
+        <v>0</v>
+      </c>
+      <c r="G75" s="23">
+        <f>'Land cover'!G29</f>
+        <v>0</v>
+      </c>
+      <c r="H75" s="23">
+        <f>'Land cover'!H29</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="131"/>
+      <c r="B76" s="68" t="s">
+        <v>8</v>
+      </c>
+      <c r="C76" s="23">
+        <f>'Land cover'!C30</f>
+        <v>0</v>
+      </c>
+      <c r="D76" s="23">
+        <f>'Land cover'!D30</f>
+        <v>0</v>
+      </c>
+      <c r="E76" s="23">
+        <f>'Land cover'!E30</f>
+        <v>0</v>
+      </c>
+      <c r="F76" s="23">
+        <f>'Land cover'!F30</f>
+        <v>0</v>
+      </c>
+      <c r="G76" s="23">
+        <f>'Land cover'!G30</f>
+        <v>0</v>
+      </c>
+      <c r="H76" s="23">
+        <f>'Land cover'!H30</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="131"/>
+      <c r="B77" s="68" t="s">
+        <v>32</v>
+      </c>
+      <c r="C77" s="23">
+        <f>'Land cover'!C31</f>
+        <v>0</v>
+      </c>
+      <c r="D77" s="23">
+        <f>'Land cover'!D31</f>
+        <v>0</v>
+      </c>
+      <c r="E77" s="23">
+        <f>'Land cover'!E31</f>
+        <v>0</v>
+      </c>
+      <c r="F77" s="23">
+        <f>'Land cover'!F31</f>
+        <v>0</v>
+      </c>
+      <c r="G77" s="23">
+        <f>'Land cover'!G31</f>
+        <v>0</v>
+      </c>
+      <c r="H77" s="23">
+        <f>'Land cover'!H31</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78"/>
-      <c r="B78" s="16"/>
-      <c r="C78" s="23"/>
-      <c r="D78" s="23"/>
-      <c r="E78" s="23"/>
-      <c r="F78" s="23"/>
-      <c r="G78" s="23"/>
-      <c r="H78" s="23"/>
-    </row>
-    <row r="79" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A79"/>
-      <c r="B79" s="16"/>
-      <c r="C79" s="23"/>
-      <c r="D79" s="23"/>
-      <c r="E79" s="23"/>
-      <c r="F79" s="23"/>
-      <c r="G79" s="23"/>
-      <c r="H79" s="23"/>
-    </row>
-    <row r="80" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A80"/>
-      <c r="B80" s="67"/>
-      <c r="C80"/>
-      <c r="D80"/>
-      <c r="E80"/>
-      <c r="F80"/>
-      <c r="G80"/>
-      <c r="H80"/>
-    </row>
-    <row r="81" spans="1:9" s="32" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B81" s="67"/>
-    </row>
-    <row r="82" spans="1:9" s="64" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="86" t="s">
+      <c r="B78" s="66"/>
+      <c r="C78"/>
+      <c r="D78"/>
+      <c r="E78"/>
+      <c r="F78"/>
+      <c r="G78"/>
+      <c r="H78"/>
+    </row>
+    <row r="79" spans="1:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="58"/>
+      <c r="B79" s="136" t="s">
+        <v>79</v>
+      </c>
+      <c r="C79" s="136"/>
+      <c r="D79" s="136"/>
+      <c r="E79" s="136"/>
+      <c r="F79" s="136"/>
+      <c r="G79" s="136"/>
+      <c r="H79" s="136"/>
+    </row>
+    <row r="80" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B80" s="69"/>
+      <c r="C80" s="127" t="s">
+        <v>40</v>
+      </c>
+      <c r="D80" s="128"/>
+      <c r="E80" s="128"/>
+      <c r="F80" s="128"/>
+      <c r="G80" s="128"/>
+      <c r="H80" s="129"/>
+    </row>
+    <row r="81" spans="1:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="32"/>
+      <c r="B81" s="38" t="s">
+        <v>41</v>
+      </c>
+      <c r="C81" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D81" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="E81" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="F81" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="G81" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="H81" s="16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="130" t="s">
+        <v>78</v>
+      </c>
+      <c r="B82" s="40" t="s">
+        <v>27</v>
+      </c>
+      <c r="C82" s="23"/>
+      <c r="D82" s="23"/>
+      <c r="E82" s="23"/>
+      <c r="F82" s="23"/>
+      <c r="G82" s="23"/>
+      <c r="H82" s="23"/>
+    </row>
+    <row r="83" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="131"/>
+      <c r="B83" s="68" t="s">
+        <v>5</v>
+      </c>
+      <c r="C83" s="23"/>
+      <c r="D83" s="23"/>
+      <c r="E83" s="23"/>
+      <c r="F83" s="23"/>
+      <c r="G83" s="23"/>
+      <c r="H83" s="23"/>
+    </row>
+    <row r="84" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="131"/>
+      <c r="B84" s="68" t="s">
+        <v>6</v>
+      </c>
+      <c r="C84" s="23"/>
+      <c r="D84" s="23"/>
+      <c r="E84" s="23"/>
+      <c r="F84" s="23"/>
+      <c r="G84" s="23"/>
+      <c r="H84" s="23"/>
+    </row>
+    <row r="85" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="131"/>
+      <c r="B85" s="68" t="s">
+        <v>7</v>
+      </c>
+      <c r="C85" s="23"/>
+      <c r="D85" s="23"/>
+      <c r="E85" s="23"/>
+      <c r="F85" s="23"/>
+      <c r="G85" s="23"/>
+      <c r="H85" s="23"/>
+    </row>
+    <row r="86" spans="1:8" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="131"/>
+      <c r="B86" s="68" t="s">
+        <v>8</v>
+      </c>
+      <c r="C86" s="23"/>
+      <c r="D86" s="23"/>
+      <c r="E86" s="23"/>
+      <c r="F86" s="23"/>
+      <c r="G86" s="23"/>
+      <c r="H86" s="23"/>
+    </row>
+    <row r="87" spans="1:8" s="32" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="131"/>
+      <c r="B87" s="68" t="s">
+        <v>32</v>
+      </c>
+      <c r="C87" s="23"/>
+      <c r="D87" s="23"/>
+      <c r="E87" s="23"/>
+      <c r="F87" s="23"/>
+      <c r="G87" s="23"/>
+      <c r="H87" s="23"/>
+    </row>
+    <row r="88" spans="1:8" s="58" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B88" s="70"/>
+      <c r="C88" s="71"/>
+      <c r="D88" s="71"/>
+      <c r="E88" s="71"/>
+      <c r="F88" s="71"/>
+      <c r="G88" s="71"/>
+      <c r="H88" s="71"/>
+    </row>
+    <row r="89" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="B89" s="132" t="s">
+        <v>42</v>
+      </c>
+      <c r="C89" s="132"/>
+      <c r="D89" s="132"/>
+      <c r="E89" s="132"/>
+      <c r="F89" s="132"/>
+      <c r="G89" s="132"/>
+      <c r="H89" s="132"/>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" s="32"/>
+      <c r="B90" s="133" t="s">
+        <v>77</v>
+      </c>
+      <c r="C90" s="134"/>
+      <c r="D90" s="134"/>
+      <c r="E90" s="134"/>
+      <c r="F90" s="134"/>
+      <c r="G90" s="134"/>
+      <c r="H90" s="135"/>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B91" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="C91" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D91" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="E91" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="F91" s="36" t="s">
+        <v>30</v>
+      </c>
+      <c r="G91" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="H91" s="37" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" s="84" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B92" s="16"/>
+      <c r="C92" s="137"/>
+      <c r="D92" s="137"/>
+      <c r="E92" s="137"/>
+      <c r="F92" s="137"/>
+      <c r="G92" s="138"/>
+      <c r="H92" s="138"/>
+    </row>
+    <row r="93" spans="1:8" s="84" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B93" s="16"/>
+      <c r="C93" s="137"/>
+      <c r="D93" s="137"/>
+      <c r="E93" s="137"/>
+      <c r="F93" s="137"/>
+      <c r="G93" s="138"/>
+      <c r="H93" s="138"/>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B94" s="16"/>
+      <c r="C94" s="83"/>
+      <c r="D94" s="83"/>
+      <c r="E94" s="83"/>
+      <c r="F94" s="83"/>
+      <c r="G94" s="83"/>
+      <c r="H94" s="83"/>
+    </row>
+    <row r="95" spans="1:8" s="84" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B95" s="16"/>
+      <c r="C95" s="83"/>
+      <c r="D95" s="83"/>
+      <c r="E95" s="83"/>
+      <c r="F95" s="83"/>
+      <c r="G95" s="83"/>
+      <c r="H95" s="83"/>
+    </row>
+    <row r="96" spans="1:8" s="84" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B96" s="16"/>
+      <c r="C96" s="83"/>
+      <c r="D96" s="83"/>
+      <c r="E96" s="83"/>
+      <c r="F96" s="83"/>
+      <c r="G96" s="83"/>
+      <c r="H96" s="83"/>
+    </row>
+    <row r="97" spans="2:8" s="84" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B97" s="16"/>
+      <c r="C97" s="83"/>
+      <c r="D97" s="83"/>
+      <c r="E97" s="83"/>
+      <c r="F97" s="83"/>
+      <c r="G97" s="83"/>
+      <c r="H97" s="83"/>
+    </row>
+    <row r="98" spans="2:8" s="84" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B98" s="16"/>
+      <c r="C98" s="83"/>
+      <c r="D98" s="83"/>
+      <c r="E98" s="83"/>
+      <c r="F98" s="83"/>
+      <c r="G98" s="83"/>
+      <c r="H98" s="83"/>
+    </row>
+    <row r="99" spans="2:8" s="84" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B99" s="16"/>
+      <c r="C99" s="83"/>
+      <c r="D99" s="83"/>
+      <c r="E99" s="83"/>
+      <c r="F99" s="83"/>
+      <c r="G99" s="83"/>
+      <c r="H99" s="83"/>
+    </row>
+    <row r="100" spans="2:8" s="84" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B100" s="16"/>
+      <c r="C100" s="83"/>
+      <c r="D100" s="83"/>
+      <c r="E100" s="83"/>
+      <c r="F100" s="83"/>
+      <c r="G100" s="83"/>
+      <c r="H100" s="83"/>
+    </row>
+    <row r="101" spans="2:8" s="84" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B101" s="16"/>
+      <c r="C101" s="83"/>
+      <c r="D101" s="83"/>
+      <c r="E101" s="83"/>
+      <c r="F101" s="83"/>
+      <c r="G101" s="83"/>
+      <c r="H101" s="83"/>
+    </row>
+    <row r="102" spans="2:8" s="84" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B102" s="16"/>
+      <c r="C102" s="137"/>
+      <c r="D102" s="137"/>
+      <c r="E102" s="137"/>
+      <c r="F102" s="137"/>
+      <c r="G102" s="138"/>
+      <c r="H102" s="138"/>
+    </row>
+    <row r="103" spans="2:8" s="84" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B103" s="16"/>
+      <c r="C103" s="137"/>
+      <c r="D103" s="137"/>
+      <c r="E103" s="137"/>
+      <c r="F103" s="137"/>
+      <c r="G103" s="138"/>
+      <c r="H103" s="138"/>
+    </row>
+    <row r="104" spans="2:8" s="84" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B104" s="16"/>
+      <c r="C104" s="83"/>
+      <c r="D104" s="83"/>
+      <c r="E104" s="83"/>
+      <c r="F104" s="83"/>
+      <c r="G104" s="83"/>
+      <c r="H104" s="83"/>
+    </row>
+    <row r="105" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B105" s="16"/>
+      <c r="C105" s="83"/>
+      <c r="D105" s="83"/>
+      <c r="E105" s="83"/>
+      <c r="F105" s="83"/>
+      <c r="G105" s="83"/>
+      <c r="H105" s="83"/>
+    </row>
+    <row r="106" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B106" s="16"/>
+      <c r="C106" s="83"/>
+      <c r="D106" s="83"/>
+      <c r="E106" s="83"/>
+      <c r="F106" s="83"/>
+      <c r="G106" s="83"/>
+      <c r="H106" s="83"/>
+    </row>
+    <row r="107" spans="2:8" s="84" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B107" s="16"/>
+      <c r="C107" s="83"/>
+      <c r="D107" s="83"/>
+      <c r="E107" s="83"/>
+      <c r="F107" s="83"/>
+      <c r="G107" s="83"/>
+      <c r="H107" s="83"/>
+    </row>
+    <row r="108" spans="2:8" s="84" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B108" s="16"/>
+      <c r="C108" s="83"/>
+      <c r="D108" s="83"/>
+      <c r="E108" s="83"/>
+      <c r="F108" s="83"/>
+      <c r="G108" s="83"/>
+      <c r="H108" s="83"/>
+    </row>
+    <row r="109" spans="2:8" s="84" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B109" s="16"/>
+      <c r="C109" s="83"/>
+      <c r="D109" s="83"/>
+      <c r="E109" s="83"/>
+      <c r="F109" s="83"/>
+      <c r="G109" s="83"/>
+      <c r="H109" s="83"/>
+    </row>
+    <row r="110" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B110" s="16"/>
+      <c r="C110" s="83"/>
+      <c r="D110" s="83"/>
+      <c r="E110" s="83"/>
+      <c r="F110" s="83"/>
+      <c r="G110" s="83"/>
+      <c r="H110" s="83"/>
+    </row>
+    <row r="111" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B111" s="16"/>
+      <c r="C111" s="83"/>
+      <c r="D111" s="83"/>
+      <c r="E111" s="83"/>
+      <c r="F111" s="83"/>
+      <c r="G111" s="83"/>
+      <c r="H111" s="83"/>
+    </row>
+    <row r="112" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B112" s="16"/>
+      <c r="C112" s="83"/>
+      <c r="D112" s="83"/>
+      <c r="E112" s="83"/>
+      <c r="F112" s="83"/>
+      <c r="G112" s="83"/>
+      <c r="H112" s="83"/>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B113" s="16"/>
+      <c r="C113" s="83"/>
+      <c r="D113" s="83"/>
+      <c r="E113" s="83"/>
+      <c r="F113" s="83"/>
+      <c r="G113" s="83"/>
+      <c r="H113" s="83"/>
+    </row>
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B114" s="16"/>
+      <c r="C114" s="83"/>
+      <c r="D114" s="83"/>
+      <c r="E114" s="83"/>
+      <c r="F114" s="83"/>
+      <c r="G114" s="83"/>
+      <c r="H114" s="83"/>
+    </row>
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B115" s="16"/>
+      <c r="C115" s="83"/>
+      <c r="D115" s="83"/>
+      <c r="E115" s="83"/>
+      <c r="F115" s="83"/>
+      <c r="G115" s="83"/>
+      <c r="H115" s="83"/>
+    </row>
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B116" s="16"/>
+      <c r="C116" s="83"/>
+      <c r="D116" s="83"/>
+      <c r="E116" s="83"/>
+      <c r="F116" s="83"/>
+      <c r="G116" s="83"/>
+      <c r="H116" s="83"/>
+    </row>
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B117" s="16"/>
+      <c r="C117" s="83"/>
+      <c r="D117" s="83"/>
+      <c r="E117" s="83"/>
+      <c r="F117" s="83"/>
+      <c r="G117" s="83"/>
+      <c r="H117" s="83"/>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B118" s="16"/>
+      <c r="C118" s="83"/>
+      <c r="D118" s="83"/>
+      <c r="E118" s="83"/>
+      <c r="F118" s="83"/>
+      <c r="G118" s="83"/>
+      <c r="H118" s="83"/>
+    </row>
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B119" s="16"/>
+      <c r="C119" s="83"/>
+      <c r="D119" s="83"/>
+      <c r="E119" s="83"/>
+      <c r="F119" s="83"/>
+      <c r="G119" s="83"/>
+      <c r="H119" s="83"/>
+    </row>
+    <row r="120" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A120"/>
+      <c r="B120" s="16"/>
+      <c r="C120" s="83"/>
+      <c r="D120" s="83"/>
+      <c r="E120" s="83"/>
+      <c r="F120" s="83"/>
+      <c r="G120" s="83"/>
+      <c r="H120" s="83"/>
+    </row>
+    <row r="121" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A121"/>
+      <c r="B121" s="16"/>
+      <c r="C121" s="83"/>
+      <c r="D121" s="83"/>
+      <c r="E121" s="83"/>
+      <c r="F121" s="83"/>
+      <c r="G121" s="83"/>
+      <c r="H121" s="83"/>
+    </row>
+    <row r="122" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A122"/>
+      <c r="B122" s="66"/>
+      <c r="C122"/>
+      <c r="D122"/>
+      <c r="E122"/>
+      <c r="F122"/>
+      <c r="G122"/>
+      <c r="H122"/>
+    </row>
+    <row r="123" spans="1:8" s="32" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B123" s="66"/>
+    </row>
+    <row r="124" spans="1:8" s="63" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="B82" s="86"/>
-      <c r="C82" s="86"/>
-      <c r="D82" s="86"/>
-      <c r="E82" s="86"/>
-      <c r="F82" s="86"/>
-      <c r="G82" s="86"/>
-      <c r="H82" s="86"/>
-      <c r="I82" s="86"/>
-    </row>
-    <row r="83" spans="1:9" s="63" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="B83" s="67"/>
-      <c r="C83" s="65"/>
-      <c r="D83" s="65"/>
-      <c r="E83" s="65"/>
-      <c r="F83" s="65"/>
-      <c r="G83" s="65"/>
-      <c r="H83" s="65"/>
-      <c r="I83" s="65"/>
-    </row>
-    <row r="84" spans="1:9" s="63" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="66" t="s">
+      <c r="B124" s="90"/>
+      <c r="C124" s="90"/>
+      <c r="D124" s="90"/>
+      <c r="E124" s="90"/>
+      <c r="F124" s="90"/>
+      <c r="G124" s="90"/>
+      <c r="H124" s="90"/>
+    </row>
+    <row r="125" spans="1:8" s="62" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B125" s="66"/>
+      <c r="C125" s="64"/>
+      <c r="D125" s="64"/>
+      <c r="E125" s="64"/>
+      <c r="F125" s="64"/>
+      <c r="G125" s="64"/>
+      <c r="H125" s="64"/>
+    </row>
+    <row r="126" spans="1:8" s="62" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="65" t="s">
         <v>50</v>
       </c>
-      <c r="B84" s="67"/>
-      <c r="C84" s="65"/>
-      <c r="D84" s="65"/>
-      <c r="E84" s="65"/>
-      <c r="F84" s="65"/>
-      <c r="G84" s="65"/>
-      <c r="H84" s="65"/>
-      <c r="I84" s="65"/>
+      <c r="B126" s="66"/>
+      <c r="C126" s="64"/>
+      <c r="D126" s="64"/>
+      <c r="E126" s="64"/>
+      <c r="F126" s="64"/>
+      <c r="G126" s="64"/>
+      <c r="H126" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A82:I82"/>
-    <mergeCell ref="C42:H42"/>
-    <mergeCell ref="A44:A49"/>
-    <mergeCell ref="A54:A59"/>
+    <mergeCell ref="A124:H124"/>
+    <mergeCell ref="C70:H70"/>
+    <mergeCell ref="A72:A77"/>
+    <mergeCell ref="A82:A87"/>
     <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B22:H22"/>
-    <mergeCell ref="B61:H61"/>
-    <mergeCell ref="B62:H62"/>
-    <mergeCell ref="B41:H41"/>
-    <mergeCell ref="B51:H51"/>
-    <mergeCell ref="C52:H52"/>
+    <mergeCell ref="B36:H36"/>
+    <mergeCell ref="B89:H89"/>
+    <mergeCell ref="B90:H90"/>
+    <mergeCell ref="B69:H69"/>
+    <mergeCell ref="B79:H79"/>
+    <mergeCell ref="C80:H80"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/LDMP/data/summary_table_ldn_sdg.xlsx
+++ b/LDMP/data/summary_table_ldn_sdg.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\LandDegradation\trends.earth\LDMP\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C42D91FD-FCE4-42AC-ADD1-228C0CDEA39D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D16B68D9-C4AD-4388-963F-E34F3CD63FA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1125" yWindow="1125" windowWidth="28800" windowHeight="15420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SDG 15.3.1" sheetId="5" r:id="rId1"/>
     <sheet name="Productivity" sheetId="6" r:id="rId2"/>
     <sheet name="Soil organic carbon" sheetId="7" r:id="rId3"/>
     <sheet name="Land cover" sheetId="8" r:id="rId4"/>
+    <sheet name="Population" sheetId="9" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="71">
   <si>
     <t>Land area with improved productivity:</t>
   </si>
@@ -219,6 +220,33 @@
   </si>
   <si>
     <t>Summary of change in productivity</t>
+  </si>
+  <si>
+    <t>Trends.Earth population affected by degradation summary table</t>
+  </si>
+  <si>
+    <t>Summary of population by land degradation class</t>
+  </si>
+  <si>
+    <t>Land Area (sq km)</t>
+  </si>
+  <si>
+    <t>Population</t>
+  </si>
+  <si>
+    <t>Percent of total population</t>
+  </si>
+  <si>
+    <t>Improved land:</t>
+  </si>
+  <si>
+    <t>Stable land:</t>
+  </si>
+  <si>
+    <t>No data:</t>
+  </si>
+  <si>
+    <t>Degraded land:</t>
   </si>
 </sst>
 </file>
@@ -454,7 +482,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -650,13 +678,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="8" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="101">
+  <cellXfs count="134">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -828,6 +865,57 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="9" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="13" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="9" fillId="8" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="9" fillId="13" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="9" fillId="9" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -923,6 +1011,42 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="9" fillId="8" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="8" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="9" fillId="13" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="13" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="9" fillId="9" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="9" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1254,18 +1378,18 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="34"/>
-    <col min="2" max="2" width="14.54296875" style="34" customWidth="1"/>
-    <col min="3" max="5" width="15.54296875" style="35" customWidth="1"/>
-    <col min="6" max="6" width="16.81640625" style="35" customWidth="1"/>
-    <col min="7" max="9" width="15.54296875" style="35" customWidth="1"/>
-    <col min="10" max="10" width="15.54296875" style="36" customWidth="1"/>
-    <col min="11" max="16384" width="9.1796875" style="34"/>
+    <col min="1" max="1" width="9.140625" style="34"/>
+    <col min="2" max="2" width="14.5703125" style="34" customWidth="1"/>
+    <col min="3" max="5" width="15.5703125" style="35" customWidth="1"/>
+    <col min="6" max="6" width="16.85546875" style="35" customWidth="1"/>
+    <col min="7" max="9" width="15.5703125" style="35" customWidth="1"/>
+    <col min="10" max="10" width="15.5703125" style="36" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="34"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>22</v>
       </c>
@@ -1279,24 +1403,24 @@
       <c r="I1" s="12"/>
       <c r="J1" s="13"/>
     </row>
-    <row r="2" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
     </row>
-    <row r="3" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
-      <c r="A3" s="63" t="s">
+    <row r="3" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="84" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="63"/>
-      <c r="F3" s="63"/>
-      <c r="G3" s="63"/>
-      <c r="H3" s="63"/>
-      <c r="I3" s="63"/>
-      <c r="J3" s="63"/>
-    </row>
-    <row r="4" spans="1:10" s="39" customFormat="1" ht="30" x14ac:dyDescent="0.45">
+      <c r="B3" s="84"/>
+      <c r="C3" s="84"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
+    </row>
+    <row r="4" spans="1:10" s="39" customFormat="1" ht="30.75" x14ac:dyDescent="0.3">
       <c r="A4" s="41"/>
       <c r="C4" s="42"/>
       <c r="D4" s="42"/>
@@ -1311,7 +1435,7 @@
       <c r="I4" s="42"/>
       <c r="J4" s="43"/>
     </row>
-    <row r="5" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
       <c r="E5" s="28" t="s">
         <v>43</v>
@@ -1325,7 +1449,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="E6" s="28" t="s">
         <v>24</v>
@@ -1337,7 +1461,7 @@
       </c>
       <c r="H6" s="40"/>
     </row>
-    <row r="7" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="E7" s="28" t="s">
         <v>25</v>
@@ -1349,7 +1473,7 @@
       </c>
       <c r="H7" s="40"/>
     </row>
-    <row r="8" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
       <c r="E8" s="28" t="s">
         <v>26</v>
@@ -1361,7 +1485,7 @@
       </c>
       <c r="H8" s="40"/>
     </row>
-    <row r="9" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
       <c r="E9" s="28" t="s">
         <v>27</v>
@@ -1373,24 +1497,24 @@
       </c>
       <c r="H9" s="40"/>
     </row>
-    <row r="10" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
     </row>
-    <row r="11" spans="1:10" s="37" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="64" t="s">
+    <row r="11" spans="1:10" s="37" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="64"/>
-      <c r="C11" s="64"/>
-      <c r="D11" s="64"/>
-      <c r="E11" s="64"/>
-      <c r="F11" s="64"/>
-      <c r="G11" s="64"/>
-      <c r="H11" s="64"/>
-      <c r="I11" s="64"/>
-      <c r="J11" s="64"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B11" s="85"/>
+      <c r="C11" s="85"/>
+      <c r="D11" s="85"/>
+      <c r="E11" s="85"/>
+      <c r="F11" s="85"/>
+      <c r="G11" s="85"/>
+      <c r="H11" s="85"/>
+      <c r="I11" s="85"/>
+      <c r="J11" s="85"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="33" t="s">
         <v>28</v>
       </c>
@@ -1409,42 +1533,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J87"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="34" customWidth="1"/>
-    <col min="2" max="2" width="14.54296875" style="34" customWidth="1"/>
-    <col min="3" max="9" width="15.54296875" style="35" customWidth="1"/>
-    <col min="10" max="10" width="15.54296875" style="36" customWidth="1"/>
-    <col min="11" max="16384" width="9.1796875" style="34"/>
+    <col min="1" max="1" width="8.7109375" style="34" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" style="34" customWidth="1"/>
+    <col min="3" max="9" width="15.5703125" style="35" customWidth="1"/>
+    <col min="10" max="10" width="15.5703125" style="36" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="34"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="52" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:10" s="52" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="52" customFormat="1" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:10" s="52" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
     </row>
-    <row r="3" spans="1:10" s="52" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="63" t="s">
+    <row r="3" spans="1:10" s="52" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="84" t="s">
         <v>61</v>
       </c>
-      <c r="B3" s="66"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66"/>
-    </row>
-    <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.45">
+      <c r="B3" s="87"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+    </row>
+    <row r="4" spans="1:10" ht="30.75" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
       <c r="F4" s="46" t="s">
         <v>44</v>
@@ -1453,7 +1575,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
       <c r="E5" s="28" t="s">
         <v>43</v>
@@ -1467,7 +1589,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="E6" s="28" t="s">
         <v>0</v>
@@ -1478,7 +1600,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="E7" s="28" t="s">
         <v>1</v>
@@ -1489,7 +1611,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
       <c r="E8" s="28" t="s">
         <v>2</v>
@@ -1500,7 +1622,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
       <c r="E9" s="28" t="s">
         <v>3</v>
@@ -1511,7 +1633,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="52" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:10" s="52" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="C10" s="50"/>
       <c r="D10" s="50"/>
@@ -1522,21 +1644,21 @@
       <c r="I10" s="50"/>
       <c r="J10" s="51"/>
     </row>
-    <row r="11" spans="1:10" s="52" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="64" t="s">
+    <row r="11" spans="1:10" s="52" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="85" t="s">
         <v>54</v>
       </c>
-      <c r="B11" s="67"/>
-      <c r="C11" s="67"/>
-      <c r="D11" s="67"/>
-      <c r="E11" s="67"/>
-      <c r="F11" s="67"/>
-      <c r="G11" s="67"/>
-      <c r="H11" s="67"/>
-      <c r="I11" s="67"/>
-      <c r="J11" s="67"/>
-    </row>
-    <row r="12" spans="1:10" s="52" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B11" s="88"/>
+      <c r="C11" s="88"/>
+      <c r="D11" s="88"/>
+      <c r="E11" s="88"/>
+      <c r="F11" s="88"/>
+      <c r="G11" s="88"/>
+      <c r="H11" s="88"/>
+      <c r="I11" s="88"/>
+      <c r="J11" s="88"/>
+    </row>
+    <row r="12" spans="1:10" s="52" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
       <c r="C12" s="50"/>
       <c r="D12" s="50"/>
@@ -1547,33 +1669,33 @@
       <c r="I12" s="50"/>
       <c r="J12" s="51"/>
     </row>
-    <row r="13" spans="1:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="65" t="s">
+    <row r="13" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="86" t="s">
         <v>58</v>
       </c>
-      <c r="B13" s="65"/>
-      <c r="C13" s="65"/>
-      <c r="D13" s="65"/>
-      <c r="E13" s="65"/>
-      <c r="F13" s="65"/>
-      <c r="G13" s="65"/>
-      <c r="H13" s="65"/>
-      <c r="I13" s="65"/>
-      <c r="J13" s="65"/>
-    </row>
-    <row r="14" spans="1:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B13" s="86"/>
+      <c r="C13" s="86"/>
+      <c r="D13" s="86"/>
+      <c r="E13" s="86"/>
+      <c r="F13" s="86"/>
+      <c r="G13" s="86"/>
+      <c r="H13" s="86"/>
+      <c r="I13" s="86"/>
+      <c r="J13" s="86"/>
+    </row>
+    <row r="14" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="1"/>
-      <c r="C14" s="68" t="s">
+      <c r="C14" s="89" t="s">
         <v>4</v>
       </c>
-      <c r="D14" s="69"/>
-      <c r="E14" s="69"/>
-      <c r="F14" s="69"/>
-      <c r="G14" s="69"/>
-      <c r="H14" s="69"/>
-      <c r="I14" s="69"/>
-    </row>
-    <row r="15" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="D14" s="90"/>
+      <c r="E14" s="90"/>
+      <c r="F14" s="90"/>
+      <c r="G14" s="90"/>
+      <c r="H14" s="90"/>
+      <c r="I14" s="90"/>
+    </row>
+    <row r="15" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="C15" s="62" t="s">
         <v>21</v>
       </c>
@@ -1599,8 +1721,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="A16" s="70" t="s">
+    <row r="16" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="91" t="s">
         <v>11</v>
       </c>
       <c r="B16" s="59" t="s">
@@ -1618,8 +1740,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="66"/>
+    <row r="17" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="87"/>
       <c r="B17" s="2" t="s">
         <v>5</v>
       </c>
@@ -1635,8 +1757,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="66"/>
+    <row r="18" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="87"/>
       <c r="B18" s="2" t="s">
         <v>6</v>
       </c>
@@ -1652,8 +1774,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="66"/>
+    <row r="19" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="87"/>
       <c r="B19" s="2" t="s">
         <v>7</v>
       </c>
@@ -1669,8 +1791,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="66"/>
+    <row r="20" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="87"/>
       <c r="B20" s="2" t="s">
         <v>8</v>
       </c>
@@ -1686,8 +1808,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="66"/>
+    <row r="21" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="87"/>
       <c r="B21" s="2" t="s">
         <v>48</v>
       </c>
@@ -1703,8 +1825,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="66"/>
+    <row r="22" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="87"/>
       <c r="B22" s="2" t="s">
         <v>9</v>
       </c>
@@ -1720,7 +1842,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="5"/>
       <c r="B23" s="6" t="s">
         <v>10</v>
@@ -1758,33 +1880,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A25" s="71" t="s">
+    <row r="25" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="92" t="s">
         <v>57</v>
       </c>
-      <c r="B25" s="71"/>
-      <c r="C25" s="71"/>
-      <c r="D25" s="71"/>
-      <c r="E25" s="71"/>
-      <c r="F25" s="71"/>
-      <c r="G25" s="71"/>
-      <c r="H25" s="71"/>
-      <c r="I25" s="71"/>
-      <c r="J25" s="71"/>
-    </row>
-    <row r="26" spans="1:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B25" s="92"/>
+      <c r="C25" s="92"/>
+      <c r="D25" s="92"/>
+      <c r="E25" s="92"/>
+      <c r="F25" s="92"/>
+      <c r="G25" s="92"/>
+      <c r="H25" s="92"/>
+      <c r="I25" s="92"/>
+      <c r="J25" s="92"/>
+    </row>
+    <row r="26" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
-      <c r="C26" s="68" t="s">
+      <c r="C26" s="89" t="s">
         <v>4</v>
       </c>
-      <c r="D26" s="69"/>
-      <c r="E26" s="69"/>
-      <c r="F26" s="69"/>
-      <c r="G26" s="69"/>
-      <c r="H26" s="69"/>
-      <c r="I26" s="69"/>
-    </row>
-    <row r="27" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="D26" s="90"/>
+      <c r="E26" s="90"/>
+      <c r="F26" s="90"/>
+      <c r="G26" s="90"/>
+      <c r="H26" s="90"/>
+      <c r="I26" s="90"/>
+    </row>
+    <row r="27" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="C27" s="61" t="s">
         <v>21</v>
       </c>
@@ -1810,8 +1932,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="A28" s="70" t="s">
+    <row r="28" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="91" t="s">
         <v>11</v>
       </c>
       <c r="B28" s="59" t="s">
@@ -1829,8 +1951,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="66"/>
+    <row r="29" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="87"/>
       <c r="B29" s="2" t="s">
         <v>5</v>
       </c>
@@ -1846,8 +1968,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="66"/>
+    <row r="30" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="87"/>
       <c r="B30" s="2" t="s">
         <v>6</v>
       </c>
@@ -1863,8 +1985,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="66"/>
+    <row r="31" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="87"/>
       <c r="B31" s="2" t="s">
         <v>7</v>
       </c>
@@ -1880,8 +2002,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="66"/>
+    <row r="32" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="87"/>
       <c r="B32" s="2" t="s">
         <v>8</v>
       </c>
@@ -1897,8 +2019,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="66"/>
+    <row r="33" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="87"/>
       <c r="B33" s="2" t="s">
         <v>48</v>
       </c>
@@ -1914,8 +2036,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="66"/>
+    <row r="34" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="87"/>
       <c r="B34" s="2" t="s">
         <v>9</v>
       </c>
@@ -1931,7 +2053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="5"/>
       <c r="B35" s="6" t="s">
         <v>10</v>
@@ -1969,33 +2091,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A37" s="73" t="s">
+    <row r="37" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="94" t="s">
         <v>56</v>
       </c>
-      <c r="B37" s="74"/>
-      <c r="C37" s="75"/>
-      <c r="D37" s="75"/>
-      <c r="E37" s="75"/>
-      <c r="F37" s="75"/>
-      <c r="G37" s="75"/>
-      <c r="H37" s="75"/>
-      <c r="I37" s="75"/>
-      <c r="J37" s="76"/>
-    </row>
-    <row r="38" spans="1:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B37" s="95"/>
+      <c r="C37" s="96"/>
+      <c r="D37" s="96"/>
+      <c r="E37" s="96"/>
+      <c r="F37" s="96"/>
+      <c r="G37" s="96"/>
+      <c r="H37" s="96"/>
+      <c r="I37" s="96"/>
+      <c r="J37" s="97"/>
+    </row>
+    <row r="38" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="1"/>
-      <c r="C38" s="68" t="s">
+      <c r="C38" s="89" t="s">
         <v>4</v>
       </c>
-      <c r="D38" s="69"/>
-      <c r="E38" s="69"/>
-      <c r="F38" s="69"/>
-      <c r="G38" s="69"/>
-      <c r="H38" s="69"/>
-      <c r="I38" s="69"/>
-    </row>
-    <row r="39" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="D38" s="90"/>
+      <c r="E38" s="90"/>
+      <c r="F38" s="90"/>
+      <c r="G38" s="90"/>
+      <c r="H38" s="90"/>
+      <c r="I38" s="90"/>
+    </row>
+    <row r="39" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="C39" s="61" t="s">
         <v>21</v>
       </c>
@@ -2021,8 +2143,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="A40" s="70" t="s">
+    <row r="40" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="91" t="s">
         <v>11</v>
       </c>
       <c r="B40" s="59" t="s">
@@ -2040,8 +2162,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="66"/>
+    <row r="41" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="87"/>
       <c r="B41" s="2" t="s">
         <v>5</v>
       </c>
@@ -2057,8 +2179,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="66"/>
+    <row r="42" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="87"/>
       <c r="B42" s="2" t="s">
         <v>6</v>
       </c>
@@ -2074,8 +2196,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="66"/>
+    <row r="43" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="87"/>
       <c r="B43" s="2" t="s">
         <v>7</v>
       </c>
@@ -2091,8 +2213,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="66"/>
+    <row r="44" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="87"/>
       <c r="B44" s="2" t="s">
         <v>8</v>
       </c>
@@ -2108,8 +2230,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="66"/>
+    <row r="45" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="87"/>
       <c r="B45" s="2" t="s">
         <v>48</v>
       </c>
@@ -2125,8 +2247,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="66"/>
+    <row r="46" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="87"/>
       <c r="B46" s="2" t="s">
         <v>9</v>
       </c>
@@ -2142,7 +2264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="5"/>
       <c r="B47" s="6" t="s">
         <v>10</v>
@@ -2180,33 +2302,33 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A49" s="77" t="s">
+    <row r="49" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="98" t="s">
         <v>59</v>
       </c>
-      <c r="B49" s="78"/>
-      <c r="C49" s="79"/>
-      <c r="D49" s="79"/>
-      <c r="E49" s="79"/>
-      <c r="F49" s="79"/>
-      <c r="G49" s="79"/>
-      <c r="H49" s="79"/>
-      <c r="I49" s="79"/>
-      <c r="J49" s="80"/>
-    </row>
-    <row r="50" spans="1:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B49" s="99"/>
+      <c r="C49" s="100"/>
+      <c r="D49" s="100"/>
+      <c r="E49" s="100"/>
+      <c r="F49" s="100"/>
+      <c r="G49" s="100"/>
+      <c r="H49" s="100"/>
+      <c r="I49" s="100"/>
+      <c r="J49" s="101"/>
+    </row>
+    <row r="50" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B50" s="1"/>
-      <c r="C50" s="68" t="s">
+      <c r="C50" s="89" t="s">
         <v>4</v>
       </c>
-      <c r="D50" s="69"/>
-      <c r="E50" s="69"/>
-      <c r="F50" s="69"/>
-      <c r="G50" s="69"/>
-      <c r="H50" s="69"/>
-      <c r="I50" s="69"/>
-    </row>
-    <row r="51" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="D50" s="90"/>
+      <c r="E50" s="90"/>
+      <c r="F50" s="90"/>
+      <c r="G50" s="90"/>
+      <c r="H50" s="90"/>
+      <c r="I50" s="90"/>
+    </row>
+    <row r="51" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="C51" s="61" t="s">
         <v>21</v>
       </c>
@@ -2232,8 +2354,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="A52" s="70" t="s">
+    <row r="52" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A52" s="91" t="s">
         <v>11</v>
       </c>
       <c r="B52" s="59" t="s">
@@ -2251,8 +2373,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="66"/>
+    <row r="53" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="87"/>
       <c r="B53" s="2" t="s">
         <v>5</v>
       </c>
@@ -2268,8 +2390,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A54" s="66"/>
+    <row r="54" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="87"/>
       <c r="B54" s="2" t="s">
         <v>6</v>
       </c>
@@ -2285,8 +2407,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A55" s="66"/>
+    <row r="55" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="87"/>
       <c r="B55" s="2" t="s">
         <v>7</v>
       </c>
@@ -2302,8 +2424,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="66"/>
+    <row r="56" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="87"/>
       <c r="B56" s="2" t="s">
         <v>8</v>
       </c>
@@ -2319,8 +2441,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="66"/>
+    <row r="57" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="87"/>
       <c r="B57" s="2" t="s">
         <v>48</v>
       </c>
@@ -2336,8 +2458,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="66"/>
+    <row r="58" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="87"/>
       <c r="B58" s="2" t="s">
         <v>9</v>
       </c>
@@ -2353,7 +2475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="5"/>
       <c r="B59" s="6" t="s">
         <v>10</v>
@@ -2391,34 +2513,34 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:10" s="52" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A61" s="81" t="s">
+    <row r="61" spans="1:10" s="52" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="102" t="s">
         <v>55</v>
       </c>
-      <c r="B61" s="82"/>
-      <c r="C61" s="83"/>
-      <c r="D61" s="83"/>
-      <c r="E61" s="83"/>
-      <c r="F61" s="83"/>
-      <c r="G61" s="83"/>
-      <c r="H61" s="83"/>
-      <c r="I61" s="83"/>
-      <c r="J61" s="84"/>
-    </row>
-    <row r="62" spans="1:10" s="52" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B61" s="103"/>
+      <c r="C61" s="104"/>
+      <c r="D61" s="104"/>
+      <c r="E61" s="104"/>
+      <c r="F61" s="104"/>
+      <c r="G61" s="104"/>
+      <c r="H61" s="104"/>
+      <c r="I61" s="104"/>
+      <c r="J61" s="105"/>
+    </row>
+    <row r="62" spans="1:10" s="52" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B62" s="1"/>
-      <c r="C62" s="68" t="s">
+      <c r="C62" s="89" t="s">
         <v>4</v>
       </c>
-      <c r="D62" s="69"/>
-      <c r="E62" s="69"/>
-      <c r="F62" s="69"/>
-      <c r="G62" s="69"/>
-      <c r="H62" s="69"/>
-      <c r="I62" s="69"/>
+      <c r="D62" s="90"/>
+      <c r="E62" s="90"/>
+      <c r="F62" s="90"/>
+      <c r="G62" s="90"/>
+      <c r="H62" s="90"/>
+      <c r="I62" s="90"/>
       <c r="J62" s="51"/>
     </row>
-    <row r="63" spans="1:10" s="52" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:10" s="52" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="C63" s="61" t="s">
         <v>21</v>
       </c>
@@ -2444,8 +2566,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="1:10" s="52" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A64" s="70" t="s">
+    <row r="64" spans="1:10" s="52" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A64" s="91" t="s">
         <v>11</v>
       </c>
       <c r="B64" s="59" t="s">
@@ -2463,8 +2585,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:10" s="52" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="66"/>
+    <row r="65" spans="1:10" s="52" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="87"/>
       <c r="B65" s="2" t="s">
         <v>5</v>
       </c>
@@ -2480,8 +2602,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:10" s="52" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="66"/>
+    <row r="66" spans="1:10" s="52" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="87"/>
       <c r="B66" s="2" t="s">
         <v>6</v>
       </c>
@@ -2497,8 +2619,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:10" s="52" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="66"/>
+    <row r="67" spans="1:10" s="52" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="87"/>
       <c r="B67" s="2" t="s">
         <v>7</v>
       </c>
@@ -2514,8 +2636,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:10" s="52" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="66"/>
+    <row r="68" spans="1:10" s="52" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="87"/>
       <c r="B68" s="2" t="s">
         <v>8</v>
       </c>
@@ -2531,8 +2653,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:10" s="52" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="66"/>
+    <row r="69" spans="1:10" s="52" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="87"/>
       <c r="B69" s="2" t="s">
         <v>48</v>
       </c>
@@ -2548,8 +2670,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:10" s="52" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="66"/>
+    <row r="70" spans="1:10" s="52" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="87"/>
       <c r="B70" s="2" t="s">
         <v>9</v>
       </c>
@@ -2565,7 +2687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:10" s="52" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:10" s="52" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="5"/>
       <c r="B71" s="6" t="s">
         <v>10</v>
@@ -2603,7 +2725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:10" s="52" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:10" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C72" s="50"/>
       <c r="D72" s="50"/>
       <c r="E72" s="50"/>
@@ -2613,34 +2735,34 @@
       <c r="I72" s="50"/>
       <c r="J72" s="51"/>
     </row>
-    <row r="73" spans="1:10" s="52" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A73" s="85" t="s">
+    <row r="73" spans="1:10" s="52" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="106" t="s">
         <v>60</v>
       </c>
-      <c r="B73" s="86"/>
-      <c r="C73" s="87"/>
-      <c r="D73" s="87"/>
-      <c r="E73" s="87"/>
-      <c r="F73" s="87"/>
-      <c r="G73" s="87"/>
-      <c r="H73" s="87"/>
-      <c r="I73" s="87"/>
-      <c r="J73" s="88"/>
-    </row>
-    <row r="74" spans="1:10" s="52" customFormat="1" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B73" s="107"/>
+      <c r="C73" s="108"/>
+      <c r="D73" s="108"/>
+      <c r="E73" s="108"/>
+      <c r="F73" s="108"/>
+      <c r="G73" s="108"/>
+      <c r="H73" s="108"/>
+      <c r="I73" s="108"/>
+      <c r="J73" s="109"/>
+    </row>
+    <row r="74" spans="1:10" s="52" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B74" s="1"/>
-      <c r="C74" s="68" t="s">
+      <c r="C74" s="89" t="s">
         <v>4</v>
       </c>
-      <c r="D74" s="69"/>
-      <c r="E74" s="69"/>
-      <c r="F74" s="69"/>
-      <c r="G74" s="69"/>
-      <c r="H74" s="69"/>
-      <c r="I74" s="69"/>
+      <c r="D74" s="90"/>
+      <c r="E74" s="90"/>
+      <c r="F74" s="90"/>
+      <c r="G74" s="90"/>
+      <c r="H74" s="90"/>
+      <c r="I74" s="90"/>
       <c r="J74" s="51"/>
     </row>
-    <row r="75" spans="1:10" s="52" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:10" s="52" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="C75" s="61" t="s">
         <v>21</v>
       </c>
@@ -2666,8 +2788,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="76" spans="1:10" s="52" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A76" s="70" t="s">
+    <row r="76" spans="1:10" s="52" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A76" s="91" t="s">
         <v>11</v>
       </c>
       <c r="B76" s="59" t="s">
@@ -2685,8 +2807,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:10" s="52" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="66"/>
+    <row r="77" spans="1:10" s="52" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="87"/>
       <c r="B77" s="2" t="s">
         <v>5</v>
       </c>
@@ -2702,8 +2824,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:10" s="52" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="66"/>
+    <row r="78" spans="1:10" s="52" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="87"/>
       <c r="B78" s="2" t="s">
         <v>6</v>
       </c>
@@ -2719,8 +2841,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:10" s="52" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="66"/>
+    <row r="79" spans="1:10" s="52" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="87"/>
       <c r="B79" s="2" t="s">
         <v>7</v>
       </c>
@@ -2736,8 +2858,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:10" s="52" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="66"/>
+    <row r="80" spans="1:10" s="52" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="87"/>
       <c r="B80" s="2" t="s">
         <v>8</v>
       </c>
@@ -2753,8 +2875,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:10" s="52" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="66"/>
+    <row r="81" spans="1:10" s="52" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="87"/>
       <c r="B81" s="2" t="s">
         <v>48</v>
       </c>
@@ -2770,8 +2892,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:10" s="52" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="66"/>
+    <row r="82" spans="1:10" s="52" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="87"/>
       <c r="B82" s="2" t="s">
         <v>9</v>
       </c>
@@ -2787,7 +2909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:10" s="52" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:10" s="52" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="5"/>
       <c r="B83" s="6" t="s">
         <v>10</v>
@@ -2825,7 +2947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:10" s="52" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:10" s="52" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C84" s="50"/>
       <c r="D84" s="50"/>
       <c r="E84" s="50"/>
@@ -2835,21 +2957,21 @@
       <c r="I84" s="50"/>
       <c r="J84" s="51"/>
     </row>
-    <row r="85" spans="1:10" s="37" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="64" t="s">
+    <row r="85" spans="1:10" s="37" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="B85" s="72"/>
-      <c r="C85" s="72"/>
-      <c r="D85" s="72"/>
-      <c r="E85" s="72"/>
-      <c r="F85" s="72"/>
-      <c r="G85" s="72"/>
-      <c r="H85" s="72"/>
-      <c r="I85" s="72"/>
-      <c r="J85" s="72"/>
-    </row>
-    <row r="87" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B85" s="93"/>
+      <c r="C85" s="93"/>
+      <c r="D85" s="93"/>
+      <c r="E85" s="93"/>
+      <c r="F85" s="93"/>
+      <c r="G85" s="93"/>
+      <c r="H85" s="93"/>
+      <c r="I85" s="93"/>
+      <c r="J85" s="93"/>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="33" t="s">
         <v>28</v>
       </c>
@@ -2887,41 +3009,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" style="34"/>
-    <col min="2" max="2" width="14.54296875" style="34" customWidth="1"/>
-    <col min="3" max="10" width="15.54296875" style="34" customWidth="1"/>
-    <col min="11" max="16384" width="9.1796875" style="34"/>
+    <col min="1" max="1" width="9.140625" style="34"/>
+    <col min="2" max="2" width="14.5703125" style="34" customWidth="1"/>
+    <col min="3" max="10" width="15.5703125" style="34" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="34"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
     </row>
-    <row r="3" spans="1:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="63" t="s">
+    <row r="3" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="84" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="66"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="66"/>
-    </row>
-    <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.45">
+      <c r="B3" s="87"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="87"/>
+    </row>
+    <row r="4" spans="1:10" ht="30.75" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
       <c r="F4" s="46" t="s">
         <v>44</v>
@@ -2930,7 +3050,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
       <c r="C5" s="35"/>
       <c r="D5" s="35"/>
@@ -2949,7 +3069,7 @@
       <c r="I5" s="35"/>
       <c r="J5" s="36"/>
     </row>
-    <row r="6" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="C6" s="35"/>
       <c r="D6" s="35"/>
@@ -2965,7 +3085,7 @@
       <c r="I6" s="35"/>
       <c r="J6" s="36"/>
     </row>
-    <row r="7" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="C7" s="35"/>
       <c r="D7" s="35"/>
@@ -2981,7 +3101,7 @@
       <c r="I7" s="35"/>
       <c r="J7" s="36"/>
     </row>
-    <row r="8" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
       <c r="C8" s="35"/>
       <c r="D8" s="35"/>
@@ -2997,7 +3117,7 @@
       <c r="I8" s="35"/>
       <c r="J8" s="36"/>
     </row>
-    <row r="9" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
       <c r="C9" s="35"/>
       <c r="D9" s="35"/>
@@ -3013,10 +3133,10 @@
       <c r="I9" s="35"/>
       <c r="J9" s="36"/>
     </row>
-    <row r="10" spans="1:10" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
     </row>
-    <row r="11" spans="1:10" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="F11" s="27" t="s">
         <v>35</v>
@@ -3026,27 +3146,27 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
     </row>
-    <row r="13" spans="1:10" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="91" t="s">
+    <row r="13" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="112" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="92"/>
-      <c r="C13" s="92"/>
-      <c r="D13" s="92"/>
-      <c r="E13" s="92"/>
-      <c r="F13" s="92"/>
-      <c r="G13" s="92"/>
-      <c r="H13" s="92"/>
-      <c r="I13" s="92"/>
-      <c r="J13" s="92"/>
-    </row>
-    <row r="14" spans="1:10" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B13" s="113"/>
+      <c r="C13" s="113"/>
+      <c r="D13" s="113"/>
+      <c r="E13" s="113"/>
+      <c r="F13" s="113"/>
+      <c r="G13" s="113"/>
+      <c r="H13" s="113"/>
+      <c r="I13" s="113"/>
+      <c r="J13" s="113"/>
+    </row>
+    <row r="14" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
     </row>
-    <row r="15" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C15" s="17" t="s">
         <v>49</v>
       </c>
@@ -3072,8 +3192,8 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="A16" s="93"/>
+    <row r="16" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="114"/>
       <c r="B16" s="59" t="s">
         <v>21</v>
       </c>
@@ -3098,8 +3218,8 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="66"/>
+    <row r="17" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="87"/>
       <c r="B17" s="2" t="s">
         <v>5</v>
       </c>
@@ -3124,8 +3244,8 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="66"/>
+    <row r="18" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="87"/>
       <c r="B18" s="2" t="s">
         <v>6</v>
       </c>
@@ -3150,8 +3270,8 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="66"/>
+    <row r="19" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="87"/>
       <c r="B19" s="2" t="s">
         <v>7</v>
       </c>
@@ -3176,8 +3296,8 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="66"/>
+    <row r="20" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="87"/>
       <c r="B20" s="2" t="s">
         <v>8</v>
       </c>
@@ -3202,8 +3322,8 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="66"/>
+    <row r="21" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="87"/>
       <c r="B21" s="2" t="s">
         <v>48</v>
       </c>
@@ -3228,7 +3348,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="22" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="9"/>
       <c r="C22" s="25"/>
       <c r="D22" s="6" t="s">
@@ -3255,34 +3375,34 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A24" s="94" t="s">
+    <row r="24" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="115" t="s">
         <v>47</v>
       </c>
-      <c r="B24" s="66"/>
-      <c r="C24" s="66"/>
-      <c r="D24" s="66"/>
-      <c r="E24" s="66"/>
-      <c r="F24" s="66"/>
-      <c r="G24" s="66"/>
-      <c r="H24" s="66"/>
-      <c r="I24" s="66"/>
-      <c r="J24" s="66"/>
-    </row>
-    <row r="25" spans="1:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B24" s="87"/>
+      <c r="C24" s="87"/>
+      <c r="D24" s="87"/>
+      <c r="E24" s="87"/>
+      <c r="F24" s="87"/>
+      <c r="G24" s="87"/>
+      <c r="H24" s="87"/>
+      <c r="I24" s="87"/>
+      <c r="J24" s="87"/>
+    </row>
+    <row r="25" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
-      <c r="C25" s="95" t="s">
+      <c r="C25" s="116" t="s">
         <v>4</v>
       </c>
-      <c r="D25" s="66"/>
-      <c r="E25" s="66"/>
-      <c r="F25" s="66"/>
-      <c r="G25" s="66"/>
-      <c r="H25" s="66"/>
-      <c r="I25" s="66"/>
-      <c r="J25" s="66"/>
-    </row>
-    <row r="26" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="D25" s="87"/>
+      <c r="E25" s="87"/>
+      <c r="F25" s="87"/>
+      <c r="G25" s="87"/>
+      <c r="H25" s="87"/>
+      <c r="I25" s="87"/>
+      <c r="J25" s="87"/>
+    </row>
+    <row r="26" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="C26" s="32" t="s">
         <v>21</v>
       </c>
@@ -3302,8 +3422,8 @@
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="A27" s="70" t="s">
+    <row r="27" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" s="91" t="s">
         <v>11</v>
       </c>
       <c r="B27" s="59" t="s">
@@ -3316,8 +3436,8 @@
       <c r="G27" s="48"/>
       <c r="H27" s="48"/>
     </row>
-    <row r="28" spans="1:10" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="66"/>
+    <row r="28" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="87"/>
       <c r="B28" s="2" t="s">
         <v>5</v>
       </c>
@@ -3328,8 +3448,8 @@
       <c r="G28" s="48"/>
       <c r="H28" s="48"/>
     </row>
-    <row r="29" spans="1:10" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="66"/>
+    <row r="29" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="87"/>
       <c r="B29" s="2" t="s">
         <v>6</v>
       </c>
@@ -3340,8 +3460,8 @@
       <c r="G29" s="48"/>
       <c r="H29" s="48"/>
     </row>
-    <row r="30" spans="1:10" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="66"/>
+    <row r="30" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="87"/>
       <c r="B30" s="2" t="s">
         <v>7</v>
       </c>
@@ -3352,8 +3472,8 @@
       <c r="G30" s="48"/>
       <c r="H30" s="48"/>
     </row>
-    <row r="31" spans="1:10" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="66"/>
+    <row r="31" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="87"/>
       <c r="B31" s="2" t="s">
         <v>8</v>
       </c>
@@ -3364,8 +3484,8 @@
       <c r="G31" s="48"/>
       <c r="H31" s="48"/>
     </row>
-    <row r="32" spans="1:10" ht="28" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="66"/>
+    <row r="32" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="87"/>
       <c r="B32" s="2" t="s">
         <v>48</v>
       </c>
@@ -3376,7 +3496,7 @@
       <c r="G32" s="48"/>
       <c r="H32" s="48"/>
     </row>
-    <row r="33" spans="1:10" s="38" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" s="38" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="8"/>
       <c r="B33" s="6"/>
       <c r="C33" s="49"/>
@@ -3388,35 +3508,35 @@
       <c r="I33" s="36"/>
       <c r="J33" s="36"/>
     </row>
-    <row r="34" spans="1:10" s="38" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="89" t="s">
+    <row r="34" spans="1:10" s="38" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="110" t="s">
         <v>46</v>
       </c>
-      <c r="B34" s="90"/>
-      <c r="C34" s="90"/>
-      <c r="D34" s="90"/>
-      <c r="E34" s="90"/>
-      <c r="F34" s="90"/>
-      <c r="G34" s="90"/>
-      <c r="H34" s="90"/>
-      <c r="I34" s="90"/>
-      <c r="J34" s="90"/>
-    </row>
-    <row r="36" spans="1:10" s="37" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="64" t="s">
+      <c r="B34" s="111"/>
+      <c r="C34" s="111"/>
+      <c r="D34" s="111"/>
+      <c r="E34" s="111"/>
+      <c r="F34" s="111"/>
+      <c r="G34" s="111"/>
+      <c r="H34" s="111"/>
+      <c r="I34" s="111"/>
+      <c r="J34" s="111"/>
+    </row>
+    <row r="36" spans="1:10" s="37" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="B36" s="72"/>
-      <c r="C36" s="72"/>
-      <c r="D36" s="72"/>
-      <c r="E36" s="72"/>
-      <c r="F36" s="72"/>
-      <c r="G36" s="72"/>
-      <c r="H36" s="72"/>
-      <c r="I36" s="72"/>
-      <c r="J36" s="72"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B36" s="93"/>
+      <c r="C36" s="93"/>
+      <c r="D36" s="93"/>
+      <c r="E36" s="93"/>
+      <c r="F36" s="93"/>
+      <c r="G36" s="93"/>
+      <c r="H36" s="93"/>
+      <c r="I36" s="93"/>
+      <c r="J36" s="93"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="33" t="s">
         <v>28</v>
       </c>
@@ -3449,43 +3569,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.7265625" style="34" customWidth="1"/>
-    <col min="2" max="2" width="14.54296875" style="34" customWidth="1"/>
-    <col min="3" max="9" width="15.54296875" style="34" customWidth="1"/>
-    <col min="10" max="10" width="15.54296875" style="36" customWidth="1"/>
-    <col min="11" max="16384" width="9.1796875" style="34"/>
+    <col min="1" max="1" width="8.7109375" style="34" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" style="34" customWidth="1"/>
+    <col min="3" max="9" width="15.5703125" style="34" customWidth="1"/>
+    <col min="10" max="10" width="15.5703125" style="36" customWidth="1"/>
+    <col min="11" max="16384" width="9.140625" style="34"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:10" s="11" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="10" t="s">
         <v>37</v>
       </c>
       <c r="J1" s="13"/>
     </row>
-    <row r="2" spans="1:10" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
     </row>
-    <row r="3" spans="1:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A3" s="63" t="s">
+    <row r="3" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="84" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="66"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="66"/>
-      <c r="H3" s="66"/>
-      <c r="I3" s="66"/>
-      <c r="J3" s="96"/>
-    </row>
-    <row r="4" spans="1:10" ht="30" x14ac:dyDescent="0.45">
+      <c r="B3" s="87"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="117"/>
+    </row>
+    <row r="4" spans="1:10" ht="30.75" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
       <c r="F4" s="46" t="s">
         <v>44</v>
@@ -3494,7 +3612,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A5" s="4"/>
       <c r="C5" s="35"/>
       <c r="D5" s="35"/>
@@ -3512,7 +3630,7 @@
       <c r="H5" s="35"/>
       <c r="I5" s="35"/>
     </row>
-    <row r="6" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A6" s="4"/>
       <c r="C6" s="35"/>
       <c r="D6" s="35"/>
@@ -3527,7 +3645,7 @@
       <c r="H6" s="35"/>
       <c r="I6" s="35"/>
     </row>
-    <row r="7" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="C7" s="35"/>
       <c r="D7" s="35"/>
@@ -3542,7 +3660,7 @@
       <c r="H7" s="35"/>
       <c r="I7" s="35"/>
     </row>
-    <row r="8" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
       <c r="C8" s="35"/>
       <c r="D8" s="35"/>
@@ -3557,7 +3675,7 @@
       <c r="H8" s="35"/>
       <c r="I8" s="35"/>
     </row>
-    <row r="9" spans="1:10" ht="18.5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
       <c r="C9" s="35"/>
       <c r="D9" s="35"/>
@@ -3572,29 +3690,29 @@
       <c r="H9" s="35"/>
       <c r="I9" s="35"/>
     </row>
-    <row r="10" spans="1:10" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="J10" s="34"/>
     </row>
-    <row r="11" spans="1:10" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A11" s="97" t="s">
+    <row r="11" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="118" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="98"/>
-      <c r="C11" s="98"/>
-      <c r="D11" s="98"/>
-      <c r="E11" s="98"/>
-      <c r="F11" s="98"/>
-      <c r="G11" s="98"/>
-      <c r="H11" s="98"/>
-      <c r="I11" s="98"/>
-      <c r="J11" s="99"/>
-    </row>
-    <row r="12" spans="1:10" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B11" s="119"/>
+      <c r="C11" s="119"/>
+      <c r="D11" s="119"/>
+      <c r="E11" s="119"/>
+      <c r="F11" s="119"/>
+      <c r="G11" s="119"/>
+      <c r="H11" s="119"/>
+      <c r="I11" s="119"/>
+      <c r="J11" s="120"/>
+    </row>
+    <row r="12" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
       <c r="J12" s="34"/>
     </row>
-    <row r="13" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C13" s="17" t="s">
         <v>16</v>
       </c>
@@ -3608,8 +3726,8 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="A14" s="93"/>
+    <row r="14" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="114"/>
       <c r="B14" s="59" t="s">
         <v>21</v>
       </c>
@@ -3630,8 +3748,8 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="66"/>
+    <row r="15" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="87"/>
       <c r="B15" s="2" t="s">
         <v>5</v>
       </c>
@@ -3652,8 +3770,8 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="66"/>
+    <row r="16" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="87"/>
       <c r="B16" s="2" t="s">
         <v>6</v>
       </c>
@@ -3674,8 +3792,8 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="66"/>
+    <row r="17" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="87"/>
       <c r="B17" s="2" t="s">
         <v>7</v>
       </c>
@@ -3696,8 +3814,8 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="66"/>
+    <row r="18" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="87"/>
       <c r="B18" s="2" t="s">
         <v>8</v>
       </c>
@@ -3718,8 +3836,8 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="66"/>
+    <row r="19" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="87"/>
       <c r="B19" s="2" t="s">
         <v>48</v>
       </c>
@@ -3740,8 +3858,8 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="66"/>
+    <row r="20" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="87"/>
       <c r="B20" s="2" t="s">
         <v>9</v>
       </c>
@@ -3762,7 +3880,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="21" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="9"/>
       <c r="B21" s="6" t="s">
         <v>10</v>
@@ -3781,39 +3899,39 @@
       </c>
       <c r="F21" s="22"/>
     </row>
-    <row r="22" spans="1:10" ht="18.649999999999999" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4"/>
       <c r="B22" s="6"/>
       <c r="C22" s="19"/>
       <c r="D22" s="19"/>
     </row>
-    <row r="23" spans="1:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="100" t="s">
+    <row r="23" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="121" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="66"/>
-      <c r="C23" s="66"/>
-      <c r="D23" s="66"/>
-      <c r="E23" s="66"/>
-      <c r="F23" s="66"/>
-      <c r="G23" s="66"/>
-      <c r="H23" s="66"/>
-      <c r="I23" s="66"/>
-      <c r="J23" s="96"/>
-    </row>
-    <row r="24" spans="1:10" ht="20.149999999999999" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="B23" s="87"/>
+      <c r="C23" s="87"/>
+      <c r="D23" s="87"/>
+      <c r="E23" s="87"/>
+      <c r="F23" s="87"/>
+      <c r="G23" s="87"/>
+      <c r="H23" s="87"/>
+      <c r="I23" s="87"/>
+      <c r="J23" s="117"/>
+    </row>
+    <row r="24" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
-      <c r="C24" s="68" t="s">
+      <c r="C24" s="89" t="s">
         <v>4</v>
       </c>
-      <c r="D24" s="66"/>
-      <c r="E24" s="66"/>
-      <c r="F24" s="66"/>
-      <c r="G24" s="66"/>
-      <c r="H24" s="66"/>
-      <c r="I24" s="66"/>
-    </row>
-    <row r="25" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+      <c r="D24" s="87"/>
+      <c r="E24" s="87"/>
+      <c r="F24" s="87"/>
+      <c r="G24" s="87"/>
+      <c r="H24" s="87"/>
+      <c r="I24" s="87"/>
+    </row>
+    <row r="25" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="C25" s="60" t="s">
         <v>21</v>
       </c>
@@ -3839,8 +3957,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:10" ht="29" x14ac:dyDescent="0.35">
-      <c r="A26" s="70" t="s">
+    <row r="26" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="91" t="s">
         <v>11</v>
       </c>
       <c r="B26" s="59" t="s">
@@ -3858,8 +3976,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="66"/>
+    <row r="27" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="87"/>
       <c r="B27" s="2" t="s">
         <v>5</v>
       </c>
@@ -3875,8 +3993,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="66"/>
+    <row r="28" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="87"/>
       <c r="B28" s="2" t="s">
         <v>6</v>
       </c>
@@ -3892,8 +4010,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="66"/>
+    <row r="29" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="87"/>
       <c r="B29" s="2" t="s">
         <v>7</v>
       </c>
@@ -3909,8 +4027,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="66"/>
+    <row r="30" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="87"/>
       <c r="B30" s="2" t="s">
         <v>8</v>
       </c>
@@ -3926,8 +4044,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="66"/>
+    <row r="31" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="87"/>
       <c r="B31" s="2" t="s">
         <v>48</v>
       </c>
@@ -3943,8 +4061,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:10" ht="25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="66"/>
+    <row r="32" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="87"/>
       <c r="B32" s="2" t="s">
         <v>9</v>
       </c>
@@ -3960,7 +4078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:10" s="38" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:10" s="38" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="8"/>
       <c r="B33" s="6" t="s">
         <v>10</v>
@@ -3998,21 +4116,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:10" s="37" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="64" t="s">
+    <row r="35" spans="1:10" s="37" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="B35" s="72"/>
-      <c r="C35" s="72"/>
-      <c r="D35" s="72"/>
-      <c r="E35" s="72"/>
-      <c r="F35" s="72"/>
-      <c r="G35" s="72"/>
-      <c r="H35" s="72"/>
-      <c r="I35" s="72"/>
-      <c r="J35" s="72"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="B35" s="93"/>
+      <c r="C35" s="93"/>
+      <c r="D35" s="93"/>
+      <c r="E35" s="93"/>
+      <c r="F35" s="93"/>
+      <c r="G35" s="93"/>
+      <c r="H35" s="93"/>
+      <c r="I35" s="93"/>
+      <c r="J35" s="93"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="33" t="s">
         <v>28</v>
       </c>
@@ -4037,4 +4155,266 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{418A0AC8-B454-4329-A17B-534BF9D05BAA}">
+  <dimension ref="A1:J14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="3" width="12.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" customWidth="1"/>
+    <col min="8" max="10" width="12.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A1" s="67" t="s">
+        <v>62</v>
+      </c>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="69"/>
+    </row>
+    <row r="2" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="66"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="65"/>
+    </row>
+    <row r="3" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="84" t="s">
+        <v>63</v>
+      </c>
+      <c r="B3" s="87"/>
+      <c r="C3" s="87"/>
+      <c r="D3" s="87"/>
+      <c r="E3" s="87"/>
+      <c r="F3" s="87"/>
+      <c r="G3" s="87"/>
+      <c r="H3" s="87"/>
+      <c r="I3" s="87"/>
+      <c r="J3" s="117"/>
+    </row>
+    <row r="4" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="66"/>
+      <c r="B4" s="65"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="75" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4" s="132" t="s">
+        <v>45</v>
+      </c>
+      <c r="F4" s="133" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" s="63" t="s">
+        <v>66</v>
+      </c>
+      <c r="I4" s="65"/>
+      <c r="J4" s="65"/>
+    </row>
+    <row r="5" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="66"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="70" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="73">
+        <f>'SDG 15.3.1'!F5</f>
+        <v>0</v>
+      </c>
+      <c r="E5" s="122" t="e">
+        <f>'SDG 15.3.1'!G5</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F5" s="123">
+        <f>SUM(F6:F9)</f>
+        <v>0</v>
+      </c>
+      <c r="G5" s="79" t="e">
+        <f>SUM(G6:G9)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I5" s="72"/>
+      <c r="J5" s="65"/>
+    </row>
+    <row r="6" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="66"/>
+      <c r="B6" s="65"/>
+      <c r="C6" s="70" t="s">
+        <v>67</v>
+      </c>
+      <c r="D6" s="76">
+        <f>'SDG 15.3.1'!F6</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="124" t="e">
+        <f>'SDG 15.3.1'!G6</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F6" s="125"/>
+      <c r="G6" s="80" t="e">
+        <f>F6/F$5</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I6" s="72"/>
+      <c r="J6" s="65"/>
+    </row>
+    <row r="7" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="66"/>
+      <c r="B7" s="65"/>
+      <c r="C7" s="70" t="s">
+        <v>68</v>
+      </c>
+      <c r="D7" s="74">
+        <f>'SDG 15.3.1'!F8</f>
+        <v>0</v>
+      </c>
+      <c r="E7" s="126" t="e">
+        <f>'SDG 15.3.1'!G7</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F7" s="127"/>
+      <c r="G7" s="81" t="e">
+        <f>F7/F$5</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I7" s="72"/>
+      <c r="J7" s="65"/>
+    </row>
+    <row r="8" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A8" s="66"/>
+      <c r="B8" s="65"/>
+      <c r="C8" s="70" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" s="78">
+        <f>'SDG 15.3.1'!F8</f>
+        <v>0</v>
+      </c>
+      <c r="E8" s="128" t="e">
+        <f>'SDG 15.3.1'!G8</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F8" s="129"/>
+      <c r="G8" s="82" t="e">
+        <f>F8/F$5</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I8" s="72"/>
+      <c r="J8" s="65"/>
+    </row>
+    <row r="9" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A9" s="66"/>
+      <c r="B9" s="65"/>
+      <c r="C9" s="70" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" s="77">
+        <f>'SDG 15.3.1'!F9</f>
+        <v>0</v>
+      </c>
+      <c r="E9" s="130" t="e">
+        <f>'SDG 15.3.1'!G9</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F9" s="131"/>
+      <c r="G9" s="83" t="e">
+        <f>F9/F$5</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="I9" s="72"/>
+      <c r="J9" s="65"/>
+    </row>
+    <row r="10" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A10" s="66"/>
+      <c r="B10" s="65"/>
+      <c r="C10" s="65"/>
+      <c r="D10" s="70"/>
+      <c r="E10" s="65"/>
+      <c r="F10" s="65"/>
+      <c r="G10" s="65"/>
+      <c r="H10" s="65"/>
+      <c r="I10" s="65"/>
+      <c r="J10" s="65"/>
+    </row>
+    <row r="11" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A11" s="66"/>
+      <c r="B11" s="65"/>
+      <c r="C11" s="65"/>
+      <c r="D11" s="70"/>
+      <c r="E11" s="65"/>
+      <c r="F11" s="65"/>
+      <c r="G11" s="65"/>
+      <c r="H11" s="65"/>
+      <c r="I11" s="65"/>
+      <c r="J11" s="65"/>
+    </row>
+    <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="85" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="93"/>
+      <c r="C12" s="93"/>
+      <c r="D12" s="93"/>
+      <c r="E12" s="93"/>
+      <c r="F12" s="93"/>
+      <c r="G12" s="93"/>
+      <c r="H12" s="93"/>
+      <c r="I12" s="93"/>
+      <c r="J12" s="93"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="64"/>
+      <c r="B13" s="64"/>
+      <c r="C13" s="64"/>
+      <c r="D13" s="64"/>
+      <c r="E13" s="64"/>
+      <c r="F13" s="64"/>
+      <c r="G13" s="64"/>
+      <c r="H13" s="64"/>
+      <c r="I13" s="64"/>
+      <c r="J13" s="64"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="71" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="65"/>
+      <c r="C14" s="72"/>
+      <c r="D14" s="72"/>
+      <c r="E14" s="72"/>
+      <c r="F14" s="72"/>
+      <c r="G14" s="72"/>
+      <c r="H14" s="72"/>
+      <c r="I14" s="72"/>
+      <c r="J14" s="65"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="A3:J3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/LDMP/data/summary_table_ldn_sdg.xlsx
+++ b/LDMP/data/summary_table_ldn_sdg.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\LandDegradation\trends.earth\LDMP\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D16B68D9-C4AD-4388-963F-E34F3CD63FA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE48CE29-C227-4B0F-BE88-099FA336E023}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="1125" windowWidth="28800" windowHeight="15420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SDG 15.3.1" sheetId="5" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="Soil organic carbon" sheetId="7" r:id="rId3"/>
     <sheet name="Land cover" sheetId="8" r:id="rId4"/>
     <sheet name="Population" sheetId="9" r:id="rId5"/>
+    <sheet name="UNCCD SO1-1" sheetId="10" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="98">
   <si>
     <t>Land area with improved productivity:</t>
   </si>
@@ -247,17 +248,100 @@
   </si>
   <si>
     <t>Degraded land:</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Artificial surfaces</t>
+  </si>
+  <si>
+    <t>Other Lands</t>
+  </si>
+  <si>
+    <t>Percent of total land area (%)</t>
+  </si>
+  <si>
+    <t>Land area with degraded land cover</t>
+  </si>
+  <si>
+    <t>Land area with no land cover data</t>
+  </si>
+  <si>
+    <t>Land area with stable land cover</t>
+  </si>
+  <si>
+    <t>Land area with improved land cover</t>
+  </si>
+  <si>
+    <t>Land area with non-degraded land cover</t>
+  </si>
+  <si>
+    <t>Total area</t>
+  </si>
+  <si>
+    <t>Estimates of land cover change (in sq km) for the baseline period (form SO1-1.T6 on UNCCD Prais system)</t>
+  </si>
+  <si>
+    <t>Estimates of land cover change (in sq km) for the progress period (UNCCD form SO1-1.T7 on Prais)</t>
+  </si>
+  <si>
+    <t>Estimates of land cover degradation (sq km) in the baseline period (form SO1-1.T8 on UNCCD Prais system)</t>
+  </si>
+  <si>
+    <t>Area</t>
+  </si>
+  <si>
+    <t>Estimates of land cover degradation (sq km) in the progress period (form SO1-1.T8 on UNCCD Prais system)</t>
+  </si>
+  <si>
+    <t>Trends.Earth summary table (aligned with UNCCD reporting for Strategic Objective 1)</t>
+  </si>
+  <si>
+    <t>Estimates of land cover (sq km) for the baseline period</t>
+  </si>
+  <si>
+    <t>Tree-covered areas (sq km)</t>
+  </si>
+  <si>
+    <t>Grasslands (sq km)</t>
+  </si>
+  <si>
+    <t>Croplands (sq km)</t>
+  </si>
+  <si>
+    <t>Wetlands (sq km)</t>
+  </si>
+  <si>
+    <t>Other Lands (sq km)</t>
+  </si>
+  <si>
+    <t>Water bodies (sq km)</t>
+  </si>
+  <si>
+    <t>No data (sq km)</t>
+  </si>
+  <si>
+    <t>Estimates of land cover (sq km) for the progress period</t>
+  </si>
+  <si>
+    <t>Artificial surfaces
+(sq km)</t>
+  </si>
+  <si>
+    <t>Trends in land cover (UNCCD SO1-1)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -401,6 +485,48 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF27272A"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF27272A"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="14">
     <fill>
@@ -482,7 +608,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -687,13 +813,51 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="134">
+  <cellXfs count="162">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -916,29 +1080,52 @@
     <xf numFmtId="10" fontId="9" fillId="9" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="9" fillId="8" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="8" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="4" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="9" fillId="13" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="13" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="9" fillId="9" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="9" fillId="9" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -952,6 +1139,12 @@
     <xf numFmtId="0" fontId="18" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -980,6 +1173,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1012,49 +1212,557 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="9" fillId="8" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="8" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="4" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="4" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="9" fillId="13" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="13" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="9" fillId="9" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="9" fillId="9" borderId="15" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="4">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="3" xr:uid="{1B5C13A4-9274-4736-9A1E-C99559450C60}"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="54">
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFC71BC7"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFC71BC7"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFC71BC7"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFC71BC7"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFC71BC7"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFC71BC7"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFC71BC7"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFC71BC7"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFC71BC7"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFC71BC7"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFC71BC7"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFC71BC7"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFC71BC7"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFC71BC7"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFC71BC7"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFC71BC7"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFC71BC7"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFC71BC7"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFC71BC7"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFC71BC7"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFC71BC7"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFC71BC7"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFC71BC7"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFC71BC7"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFC71BC7"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFC71BC7"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFC71BC7"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFC71BC7"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFC71BC7"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFC71BC7"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFC71BC7"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFC71BC7"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFC71BC7"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFC71BC7"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFC71BC7"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFC71BC7"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFC71BC7"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFC71BC7"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFC71BC7"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFC71BC7"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFC71BC7"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFC71BC7"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFC71BC7"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFC71BC7"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFC71BC7"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFC71BC7"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFC71BC7"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFC71BC7"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFC71BC7"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFC71BC7"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFC71BC7"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFC71BC7"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFC71BC7"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFC71BC7"/>
+      </font>
+      <fill>
+        <patternFill patternType="none"/>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -1407,18 +2115,18 @@
       <c r="A2" s="4"/>
     </row>
     <row r="3" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="96" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="84"/>
-      <c r="C3" s="84"/>
-      <c r="D3" s="84"/>
-      <c r="E3" s="84"/>
-      <c r="F3" s="84"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="84"/>
-      <c r="J3" s="84"/>
+      <c r="B3" s="96"/>
+      <c r="C3" s="96"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="96"/>
+      <c r="F3" s="96"/>
+      <c r="G3" s="96"/>
+      <c r="H3" s="96"/>
+      <c r="I3" s="96"/>
+      <c r="J3" s="96"/>
     </row>
     <row r="4" spans="1:10" s="39" customFormat="1" ht="30.75" x14ac:dyDescent="0.3">
       <c r="A4" s="41"/>
@@ -1501,18 +2209,18 @@
       <c r="A10" s="4"/>
     </row>
     <row r="11" spans="1:10" s="37" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="85" t="s">
+      <c r="A11" s="97" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="85"/>
-      <c r="C11" s="85"/>
-      <c r="D11" s="85"/>
-      <c r="E11" s="85"/>
-      <c r="F11" s="85"/>
-      <c r="G11" s="85"/>
-      <c r="H11" s="85"/>
-      <c r="I11" s="85"/>
-      <c r="J11" s="85"/>
+      <c r="B11" s="97"/>
+      <c r="C11" s="97"/>
+      <c r="D11" s="97"/>
+      <c r="E11" s="97"/>
+      <c r="F11" s="97"/>
+      <c r="G11" s="97"/>
+      <c r="H11" s="97"/>
+      <c r="I11" s="97"/>
+      <c r="J11" s="97"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="33" t="s">
@@ -1553,18 +2261,18 @@
       <c r="A2" s="4"/>
     </row>
     <row r="3" spans="1:10" s="52" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="96" t="s">
         <v>61</v>
       </c>
-      <c r="B3" s="87"/>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="87"/>
+      <c r="B3" s="99"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="99"/>
+      <c r="I3" s="99"/>
+      <c r="J3" s="99"/>
     </row>
     <row r="4" spans="1:10" ht="30.75" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
@@ -1645,18 +2353,18 @@
       <c r="J10" s="51"/>
     </row>
     <row r="11" spans="1:10" s="52" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="85" t="s">
+      <c r="A11" s="97" t="s">
         <v>54</v>
       </c>
-      <c r="B11" s="88"/>
-      <c r="C11" s="88"/>
-      <c r="D11" s="88"/>
-      <c r="E11" s="88"/>
-      <c r="F11" s="88"/>
-      <c r="G11" s="88"/>
-      <c r="H11" s="88"/>
-      <c r="I11" s="88"/>
-      <c r="J11" s="88"/>
+      <c r="B11" s="120"/>
+      <c r="C11" s="120"/>
+      <c r="D11" s="120"/>
+      <c r="E11" s="120"/>
+      <c r="F11" s="120"/>
+      <c r="G11" s="120"/>
+      <c r="H11" s="120"/>
+      <c r="I11" s="120"/>
+      <c r="J11" s="120"/>
     </row>
     <row r="12" spans="1:10" s="52" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
@@ -1670,30 +2378,30 @@
       <c r="J12" s="51"/>
     </row>
     <row r="13" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="86" t="s">
+      <c r="A13" s="119" t="s">
         <v>58</v>
       </c>
-      <c r="B13" s="86"/>
-      <c r="C13" s="86"/>
-      <c r="D13" s="86"/>
-      <c r="E13" s="86"/>
-      <c r="F13" s="86"/>
-      <c r="G13" s="86"/>
-      <c r="H13" s="86"/>
-      <c r="I13" s="86"/>
-      <c r="J13" s="86"/>
+      <c r="B13" s="119"/>
+      <c r="C13" s="119"/>
+      <c r="D13" s="119"/>
+      <c r="E13" s="119"/>
+      <c r="F13" s="119"/>
+      <c r="G13" s="119"/>
+      <c r="H13" s="119"/>
+      <c r="I13" s="119"/>
+      <c r="J13" s="119"/>
     </row>
     <row r="14" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="1"/>
-      <c r="C14" s="89" t="s">
+      <c r="C14" s="105" t="s">
         <v>4</v>
       </c>
-      <c r="D14" s="90"/>
-      <c r="E14" s="90"/>
-      <c r="F14" s="90"/>
-      <c r="G14" s="90"/>
-      <c r="H14" s="90"/>
-      <c r="I14" s="90"/>
+      <c r="D14" s="106"/>
+      <c r="E14" s="106"/>
+      <c r="F14" s="106"/>
+      <c r="G14" s="106"/>
+      <c r="H14" s="106"/>
+      <c r="I14" s="106"/>
     </row>
     <row r="15" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="C15" s="62" t="s">
@@ -1722,7 +2430,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="91" t="s">
+      <c r="A16" s="98" t="s">
         <v>11</v>
       </c>
       <c r="B16" s="59" t="s">
@@ -1741,7 +2449,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="87"/>
+      <c r="A17" s="99"/>
       <c r="B17" s="2" t="s">
         <v>5</v>
       </c>
@@ -1758,7 +2466,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="87"/>
+      <c r="A18" s="99"/>
       <c r="B18" s="2" t="s">
         <v>6</v>
       </c>
@@ -1775,7 +2483,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="87"/>
+      <c r="A19" s="99"/>
       <c r="B19" s="2" t="s">
         <v>7</v>
       </c>
@@ -1792,7 +2500,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="87"/>
+      <c r="A20" s="99"/>
       <c r="B20" s="2" t="s">
         <v>8</v>
       </c>
@@ -1809,7 +2517,7 @@
       </c>
     </row>
     <row r="21" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="87"/>
+      <c r="A21" s="99"/>
       <c r="B21" s="2" t="s">
         <v>48</v>
       </c>
@@ -1826,7 +2534,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="87"/>
+      <c r="A22" s="99"/>
       <c r="B22" s="2" t="s">
         <v>9</v>
       </c>
@@ -1881,30 +2589,30 @@
       </c>
     </row>
     <row r="25" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="92" t="s">
+      <c r="A25" s="121" t="s">
         <v>57</v>
       </c>
-      <c r="B25" s="92"/>
-      <c r="C25" s="92"/>
-      <c r="D25" s="92"/>
-      <c r="E25" s="92"/>
-      <c r="F25" s="92"/>
-      <c r="G25" s="92"/>
-      <c r="H25" s="92"/>
-      <c r="I25" s="92"/>
-      <c r="J25" s="92"/>
+      <c r="B25" s="121"/>
+      <c r="C25" s="121"/>
+      <c r="D25" s="121"/>
+      <c r="E25" s="121"/>
+      <c r="F25" s="121"/>
+      <c r="G25" s="121"/>
+      <c r="H25" s="121"/>
+      <c r="I25" s="121"/>
+      <c r="J25" s="121"/>
     </row>
     <row r="26" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
-      <c r="C26" s="89" t="s">
+      <c r="C26" s="105" t="s">
         <v>4</v>
       </c>
-      <c r="D26" s="90"/>
-      <c r="E26" s="90"/>
-      <c r="F26" s="90"/>
-      <c r="G26" s="90"/>
-      <c r="H26" s="90"/>
-      <c r="I26" s="90"/>
+      <c r="D26" s="106"/>
+      <c r="E26" s="106"/>
+      <c r="F26" s="106"/>
+      <c r="G26" s="106"/>
+      <c r="H26" s="106"/>
+      <c r="I26" s="106"/>
     </row>
     <row r="27" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="C27" s="61" t="s">
@@ -1933,7 +2641,7 @@
       </c>
     </row>
     <row r="28" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="91" t="s">
+      <c r="A28" s="98" t="s">
         <v>11</v>
       </c>
       <c r="B28" s="59" t="s">
@@ -1952,7 +2660,7 @@
       </c>
     </row>
     <row r="29" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="87"/>
+      <c r="A29" s="99"/>
       <c r="B29" s="2" t="s">
         <v>5</v>
       </c>
@@ -1969,7 +2677,7 @@
       </c>
     </row>
     <row r="30" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="87"/>
+      <c r="A30" s="99"/>
       <c r="B30" s="2" t="s">
         <v>6</v>
       </c>
@@ -1986,7 +2694,7 @@
       </c>
     </row>
     <row r="31" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="87"/>
+      <c r="A31" s="99"/>
       <c r="B31" s="2" t="s">
         <v>7</v>
       </c>
@@ -2003,7 +2711,7 @@
       </c>
     </row>
     <row r="32" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="87"/>
+      <c r="A32" s="99"/>
       <c r="B32" s="2" t="s">
         <v>8</v>
       </c>
@@ -2020,7 +2728,7 @@
       </c>
     </row>
     <row r="33" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="87"/>
+      <c r="A33" s="99"/>
       <c r="B33" s="2" t="s">
         <v>48</v>
       </c>
@@ -2037,7 +2745,7 @@
       </c>
     </row>
     <row r="34" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="87"/>
+      <c r="A34" s="99"/>
       <c r="B34" s="2" t="s">
         <v>9</v>
       </c>
@@ -2092,30 +2800,30 @@
       </c>
     </row>
     <row r="37" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="94" t="s">
+      <c r="A37" s="101" t="s">
         <v>56</v>
       </c>
-      <c r="B37" s="95"/>
-      <c r="C37" s="96"/>
-      <c r="D37" s="96"/>
-      <c r="E37" s="96"/>
-      <c r="F37" s="96"/>
-      <c r="G37" s="96"/>
-      <c r="H37" s="96"/>
-      <c r="I37" s="96"/>
-      <c r="J37" s="97"/>
+      <c r="B37" s="102"/>
+      <c r="C37" s="103"/>
+      <c r="D37" s="103"/>
+      <c r="E37" s="103"/>
+      <c r="F37" s="103"/>
+      <c r="G37" s="103"/>
+      <c r="H37" s="103"/>
+      <c r="I37" s="103"/>
+      <c r="J37" s="104"/>
     </row>
     <row r="38" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="1"/>
-      <c r="C38" s="89" t="s">
+      <c r="C38" s="105" t="s">
         <v>4</v>
       </c>
-      <c r="D38" s="90"/>
-      <c r="E38" s="90"/>
-      <c r="F38" s="90"/>
-      <c r="G38" s="90"/>
-      <c r="H38" s="90"/>
-      <c r="I38" s="90"/>
+      <c r="D38" s="106"/>
+      <c r="E38" s="106"/>
+      <c r="F38" s="106"/>
+      <c r="G38" s="106"/>
+      <c r="H38" s="106"/>
+      <c r="I38" s="106"/>
     </row>
     <row r="39" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="C39" s="61" t="s">
@@ -2144,7 +2852,7 @@
       </c>
     </row>
     <row r="40" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="91" t="s">
+      <c r="A40" s="98" t="s">
         <v>11</v>
       </c>
       <c r="B40" s="59" t="s">
@@ -2163,7 +2871,7 @@
       </c>
     </row>
     <row r="41" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="87"/>
+      <c r="A41" s="99"/>
       <c r="B41" s="2" t="s">
         <v>5</v>
       </c>
@@ -2180,7 +2888,7 @@
       </c>
     </row>
     <row r="42" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="87"/>
+      <c r="A42" s="99"/>
       <c r="B42" s="2" t="s">
         <v>6</v>
       </c>
@@ -2197,7 +2905,7 @@
       </c>
     </row>
     <row r="43" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="87"/>
+      <c r="A43" s="99"/>
       <c r="B43" s="2" t="s">
         <v>7</v>
       </c>
@@ -2214,7 +2922,7 @@
       </c>
     </row>
     <row r="44" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="87"/>
+      <c r="A44" s="99"/>
       <c r="B44" s="2" t="s">
         <v>8</v>
       </c>
@@ -2231,7 +2939,7 @@
       </c>
     </row>
     <row r="45" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="87"/>
+      <c r="A45" s="99"/>
       <c r="B45" s="2" t="s">
         <v>48</v>
       </c>
@@ -2248,7 +2956,7 @@
       </c>
     </row>
     <row r="46" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="87"/>
+      <c r="A46" s="99"/>
       <c r="B46" s="2" t="s">
         <v>9</v>
       </c>
@@ -2303,30 +3011,30 @@
       </c>
     </row>
     <row r="49" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="98" t="s">
+      <c r="A49" s="107" t="s">
         <v>59</v>
       </c>
-      <c r="B49" s="99"/>
-      <c r="C49" s="100"/>
-      <c r="D49" s="100"/>
-      <c r="E49" s="100"/>
-      <c r="F49" s="100"/>
-      <c r="G49" s="100"/>
-      <c r="H49" s="100"/>
-      <c r="I49" s="100"/>
-      <c r="J49" s="101"/>
+      <c r="B49" s="108"/>
+      <c r="C49" s="109"/>
+      <c r="D49" s="109"/>
+      <c r="E49" s="109"/>
+      <c r="F49" s="109"/>
+      <c r="G49" s="109"/>
+      <c r="H49" s="109"/>
+      <c r="I49" s="109"/>
+      <c r="J49" s="110"/>
     </row>
     <row r="50" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B50" s="1"/>
-      <c r="C50" s="89" t="s">
+      <c r="C50" s="105" t="s">
         <v>4</v>
       </c>
-      <c r="D50" s="90"/>
-      <c r="E50" s="90"/>
-      <c r="F50" s="90"/>
-      <c r="G50" s="90"/>
-      <c r="H50" s="90"/>
-      <c r="I50" s="90"/>
+      <c r="D50" s="106"/>
+      <c r="E50" s="106"/>
+      <c r="F50" s="106"/>
+      <c r="G50" s="106"/>
+      <c r="H50" s="106"/>
+      <c r="I50" s="106"/>
     </row>
     <row r="51" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="C51" s="61" t="s">
@@ -2355,7 +3063,7 @@
       </c>
     </row>
     <row r="52" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A52" s="91" t="s">
+      <c r="A52" s="98" t="s">
         <v>11</v>
       </c>
       <c r="B52" s="59" t="s">
@@ -2374,7 +3082,7 @@
       </c>
     </row>
     <row r="53" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="87"/>
+      <c r="A53" s="99"/>
       <c r="B53" s="2" t="s">
         <v>5</v>
       </c>
@@ -2391,7 +3099,7 @@
       </c>
     </row>
     <row r="54" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="87"/>
+      <c r="A54" s="99"/>
       <c r="B54" s="2" t="s">
         <v>6</v>
       </c>
@@ -2408,7 +3116,7 @@
       </c>
     </row>
     <row r="55" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="87"/>
+      <c r="A55" s="99"/>
       <c r="B55" s="2" t="s">
         <v>7</v>
       </c>
@@ -2425,7 +3133,7 @@
       </c>
     </row>
     <row r="56" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="87"/>
+      <c r="A56" s="99"/>
       <c r="B56" s="2" t="s">
         <v>8</v>
       </c>
@@ -2442,7 +3150,7 @@
       </c>
     </row>
     <row r="57" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="87"/>
+      <c r="A57" s="99"/>
       <c r="B57" s="2" t="s">
         <v>48</v>
       </c>
@@ -2459,7 +3167,7 @@
       </c>
     </row>
     <row r="58" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="87"/>
+      <c r="A58" s="99"/>
       <c r="B58" s="2" t="s">
         <v>9</v>
       </c>
@@ -2514,30 +3222,30 @@
       </c>
     </row>
     <row r="61" spans="1:10" s="52" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="102" t="s">
+      <c r="A61" s="111" t="s">
         <v>55</v>
       </c>
-      <c r="B61" s="103"/>
-      <c r="C61" s="104"/>
-      <c r="D61" s="104"/>
-      <c r="E61" s="104"/>
-      <c r="F61" s="104"/>
-      <c r="G61" s="104"/>
-      <c r="H61" s="104"/>
-      <c r="I61" s="104"/>
-      <c r="J61" s="105"/>
+      <c r="B61" s="112"/>
+      <c r="C61" s="113"/>
+      <c r="D61" s="113"/>
+      <c r="E61" s="113"/>
+      <c r="F61" s="113"/>
+      <c r="G61" s="113"/>
+      <c r="H61" s="113"/>
+      <c r="I61" s="113"/>
+      <c r="J61" s="114"/>
     </row>
     <row r="62" spans="1:10" s="52" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B62" s="1"/>
-      <c r="C62" s="89" t="s">
+      <c r="C62" s="105" t="s">
         <v>4</v>
       </c>
-      <c r="D62" s="90"/>
-      <c r="E62" s="90"/>
-      <c r="F62" s="90"/>
-      <c r="G62" s="90"/>
-      <c r="H62" s="90"/>
-      <c r="I62" s="90"/>
+      <c r="D62" s="106"/>
+      <c r="E62" s="106"/>
+      <c r="F62" s="106"/>
+      <c r="G62" s="106"/>
+      <c r="H62" s="106"/>
+      <c r="I62" s="106"/>
       <c r="J62" s="51"/>
     </row>
     <row r="63" spans="1:10" s="52" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -2567,7 +3275,7 @@
       </c>
     </row>
     <row r="64" spans="1:10" s="52" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A64" s="91" t="s">
+      <c r="A64" s="98" t="s">
         <v>11</v>
       </c>
       <c r="B64" s="59" t="s">
@@ -2586,7 +3294,7 @@
       </c>
     </row>
     <row r="65" spans="1:10" s="52" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="87"/>
+      <c r="A65" s="99"/>
       <c r="B65" s="2" t="s">
         <v>5</v>
       </c>
@@ -2603,7 +3311,7 @@
       </c>
     </row>
     <row r="66" spans="1:10" s="52" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="87"/>
+      <c r="A66" s="99"/>
       <c r="B66" s="2" t="s">
         <v>6</v>
       </c>
@@ -2620,7 +3328,7 @@
       </c>
     </row>
     <row r="67" spans="1:10" s="52" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="87"/>
+      <c r="A67" s="99"/>
       <c r="B67" s="2" t="s">
         <v>7</v>
       </c>
@@ -2637,7 +3345,7 @@
       </c>
     </row>
     <row r="68" spans="1:10" s="52" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="87"/>
+      <c r="A68" s="99"/>
       <c r="B68" s="2" t="s">
         <v>8</v>
       </c>
@@ -2654,7 +3362,7 @@
       </c>
     </row>
     <row r="69" spans="1:10" s="52" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="87"/>
+      <c r="A69" s="99"/>
       <c r="B69" s="2" t="s">
         <v>48</v>
       </c>
@@ -2671,7 +3379,7 @@
       </c>
     </row>
     <row r="70" spans="1:10" s="52" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="87"/>
+      <c r="A70" s="99"/>
       <c r="B70" s="2" t="s">
         <v>9</v>
       </c>
@@ -2736,30 +3444,30 @@
       <c r="J72" s="51"/>
     </row>
     <row r="73" spans="1:10" s="52" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="106" t="s">
+      <c r="A73" s="115" t="s">
         <v>60</v>
       </c>
-      <c r="B73" s="107"/>
-      <c r="C73" s="108"/>
-      <c r="D73" s="108"/>
-      <c r="E73" s="108"/>
-      <c r="F73" s="108"/>
-      <c r="G73" s="108"/>
-      <c r="H73" s="108"/>
-      <c r="I73" s="108"/>
-      <c r="J73" s="109"/>
+      <c r="B73" s="116"/>
+      <c r="C73" s="117"/>
+      <c r="D73" s="117"/>
+      <c r="E73" s="117"/>
+      <c r="F73" s="117"/>
+      <c r="G73" s="117"/>
+      <c r="H73" s="117"/>
+      <c r="I73" s="117"/>
+      <c r="J73" s="118"/>
     </row>
     <row r="74" spans="1:10" s="52" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B74" s="1"/>
-      <c r="C74" s="89" t="s">
+      <c r="C74" s="105" t="s">
         <v>4</v>
       </c>
-      <c r="D74" s="90"/>
-      <c r="E74" s="90"/>
-      <c r="F74" s="90"/>
-      <c r="G74" s="90"/>
-      <c r="H74" s="90"/>
-      <c r="I74" s="90"/>
+      <c r="D74" s="106"/>
+      <c r="E74" s="106"/>
+      <c r="F74" s="106"/>
+      <c r="G74" s="106"/>
+      <c r="H74" s="106"/>
+      <c r="I74" s="106"/>
       <c r="J74" s="51"/>
     </row>
     <row r="75" spans="1:10" s="52" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -2789,7 +3497,7 @@
       </c>
     </row>
     <row r="76" spans="1:10" s="52" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A76" s="91" t="s">
+      <c r="A76" s="98" t="s">
         <v>11</v>
       </c>
       <c r="B76" s="59" t="s">
@@ -2808,7 +3516,7 @@
       </c>
     </row>
     <row r="77" spans="1:10" s="52" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="87"/>
+      <c r="A77" s="99"/>
       <c r="B77" s="2" t="s">
         <v>5</v>
       </c>
@@ -2825,7 +3533,7 @@
       </c>
     </row>
     <row r="78" spans="1:10" s="52" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="87"/>
+      <c r="A78" s="99"/>
       <c r="B78" s="2" t="s">
         <v>6</v>
       </c>
@@ -2842,7 +3550,7 @@
       </c>
     </row>
     <row r="79" spans="1:10" s="52" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="87"/>
+      <c r="A79" s="99"/>
       <c r="B79" s="2" t="s">
         <v>7</v>
       </c>
@@ -2859,7 +3567,7 @@
       </c>
     </row>
     <row r="80" spans="1:10" s="52" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="87"/>
+      <c r="A80" s="99"/>
       <c r="B80" s="2" t="s">
         <v>8</v>
       </c>
@@ -2876,7 +3584,7 @@
       </c>
     </row>
     <row r="81" spans="1:10" s="52" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="87"/>
+      <c r="A81" s="99"/>
       <c r="B81" s="2" t="s">
         <v>48</v>
       </c>
@@ -2893,7 +3601,7 @@
       </c>
     </row>
     <row r="82" spans="1:10" s="52" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="87"/>
+      <c r="A82" s="99"/>
       <c r="B82" s="2" t="s">
         <v>9</v>
       </c>
@@ -2958,18 +3666,18 @@
       <c r="J84" s="51"/>
     </row>
     <row r="85" spans="1:10" s="37" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="85" t="s">
+      <c r="A85" s="97" t="s">
         <v>12</v>
       </c>
-      <c r="B85" s="93"/>
-      <c r="C85" s="93"/>
-      <c r="D85" s="93"/>
-      <c r="E85" s="93"/>
-      <c r="F85" s="93"/>
-      <c r="G85" s="93"/>
-      <c r="H85" s="93"/>
-      <c r="I85" s="93"/>
-      <c r="J85" s="93"/>
+      <c r="B85" s="100"/>
+      <c r="C85" s="100"/>
+      <c r="D85" s="100"/>
+      <c r="E85" s="100"/>
+      <c r="F85" s="100"/>
+      <c r="G85" s="100"/>
+      <c r="H85" s="100"/>
+      <c r="I85" s="100"/>
+      <c r="J85" s="100"/>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="33" t="s">
@@ -2978,6 +3686,13 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A13:J13"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="C26:I26"/>
+    <mergeCell ref="C14:I14"/>
+    <mergeCell ref="A16:A22"/>
+    <mergeCell ref="A25:J25"/>
     <mergeCell ref="A52:A58"/>
     <mergeCell ref="A85:J85"/>
     <mergeCell ref="A28:A34"/>
@@ -2992,13 +3707,6 @@
     <mergeCell ref="A73:J73"/>
     <mergeCell ref="C74:I74"/>
     <mergeCell ref="A76:A82"/>
-    <mergeCell ref="A13:J13"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="C26:I26"/>
-    <mergeCell ref="C14:I14"/>
-    <mergeCell ref="A16:A22"/>
-    <mergeCell ref="A25:J25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3028,18 +3736,18 @@
       <c r="A2" s="4"/>
     </row>
     <row r="3" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="96" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="87"/>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="87"/>
+      <c r="B3" s="99"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="99"/>
+      <c r="I3" s="99"/>
+      <c r="J3" s="99"/>
     </row>
     <row r="4" spans="1:10" ht="30.75" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
@@ -3150,18 +3858,18 @@
       <c r="A12" s="4"/>
     </row>
     <row r="13" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="112" t="s">
+      <c r="A13" s="124" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="113"/>
-      <c r="C13" s="113"/>
-      <c r="D13" s="113"/>
-      <c r="E13" s="113"/>
-      <c r="F13" s="113"/>
-      <c r="G13" s="113"/>
-      <c r="H13" s="113"/>
-      <c r="I13" s="113"/>
-      <c r="J13" s="113"/>
+      <c r="B13" s="125"/>
+      <c r="C13" s="125"/>
+      <c r="D13" s="125"/>
+      <c r="E13" s="125"/>
+      <c r="F13" s="125"/>
+      <c r="G13" s="125"/>
+      <c r="H13" s="125"/>
+      <c r="I13" s="125"/>
+      <c r="J13" s="125"/>
     </row>
     <row r="14" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
@@ -3193,7 +3901,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="114"/>
+      <c r="A16" s="126"/>
       <c r="B16" s="59" t="s">
         <v>21</v>
       </c>
@@ -3219,7 +3927,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="87"/>
+      <c r="A17" s="99"/>
       <c r="B17" s="2" t="s">
         <v>5</v>
       </c>
@@ -3245,7 +3953,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="87"/>
+      <c r="A18" s="99"/>
       <c r="B18" s="2" t="s">
         <v>6</v>
       </c>
@@ -3271,7 +3979,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="87"/>
+      <c r="A19" s="99"/>
       <c r="B19" s="2" t="s">
         <v>7</v>
       </c>
@@ -3297,7 +4005,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="87"/>
+      <c r="A20" s="99"/>
       <c r="B20" s="2" t="s">
         <v>8</v>
       </c>
@@ -3323,7 +4031,7 @@
       </c>
     </row>
     <row r="21" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="87"/>
+      <c r="A21" s="99"/>
       <c r="B21" s="2" t="s">
         <v>48</v>
       </c>
@@ -3376,31 +4084,31 @@
       </c>
     </row>
     <row r="24" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="115" t="s">
+      <c r="A24" s="127" t="s">
         <v>47</v>
       </c>
-      <c r="B24" s="87"/>
-      <c r="C24" s="87"/>
-      <c r="D24" s="87"/>
-      <c r="E24" s="87"/>
-      <c r="F24" s="87"/>
-      <c r="G24" s="87"/>
-      <c r="H24" s="87"/>
-      <c r="I24" s="87"/>
-      <c r="J24" s="87"/>
+      <c r="B24" s="99"/>
+      <c r="C24" s="99"/>
+      <c r="D24" s="99"/>
+      <c r="E24" s="99"/>
+      <c r="F24" s="99"/>
+      <c r="G24" s="99"/>
+      <c r="H24" s="99"/>
+      <c r="I24" s="99"/>
+      <c r="J24" s="99"/>
     </row>
     <row r="25" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
-      <c r="C25" s="116" t="s">
+      <c r="C25" s="128" t="s">
         <v>4</v>
       </c>
-      <c r="D25" s="87"/>
-      <c r="E25" s="87"/>
-      <c r="F25" s="87"/>
-      <c r="G25" s="87"/>
-      <c r="H25" s="87"/>
-      <c r="I25" s="87"/>
-      <c r="J25" s="87"/>
+      <c r="D25" s="99"/>
+      <c r="E25" s="99"/>
+      <c r="F25" s="99"/>
+      <c r="G25" s="99"/>
+      <c r="H25" s="99"/>
+      <c r="I25" s="99"/>
+      <c r="J25" s="99"/>
     </row>
     <row r="26" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="C26" s="32" t="s">
@@ -3423,7 +4131,7 @@
       </c>
     </row>
     <row r="27" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="91" t="s">
+      <c r="A27" s="98" t="s">
         <v>11</v>
       </c>
       <c r="B27" s="59" t="s">
@@ -3437,7 +4145,7 @@
       <c r="H27" s="48"/>
     </row>
     <row r="28" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="87"/>
+      <c r="A28" s="99"/>
       <c r="B28" s="2" t="s">
         <v>5</v>
       </c>
@@ -3449,7 +4157,7 @@
       <c r="H28" s="48"/>
     </row>
     <row r="29" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="87"/>
+      <c r="A29" s="99"/>
       <c r="B29" s="2" t="s">
         <v>6</v>
       </c>
@@ -3461,7 +4169,7 @@
       <c r="H29" s="48"/>
     </row>
     <row r="30" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="87"/>
+      <c r="A30" s="99"/>
       <c r="B30" s="2" t="s">
         <v>7</v>
       </c>
@@ -3473,7 +4181,7 @@
       <c r="H30" s="48"/>
     </row>
     <row r="31" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="87"/>
+      <c r="A31" s="99"/>
       <c r="B31" s="2" t="s">
         <v>8</v>
       </c>
@@ -3485,7 +4193,7 @@
       <c r="H31" s="48"/>
     </row>
     <row r="32" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="87"/>
+      <c r="A32" s="99"/>
       <c r="B32" s="2" t="s">
         <v>48</v>
       </c>
@@ -3509,32 +4217,32 @@
       <c r="J33" s="36"/>
     </row>
     <row r="34" spans="1:10" s="38" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="110" t="s">
+      <c r="A34" s="122" t="s">
         <v>46</v>
       </c>
-      <c r="B34" s="111"/>
-      <c r="C34" s="111"/>
-      <c r="D34" s="111"/>
-      <c r="E34" s="111"/>
-      <c r="F34" s="111"/>
-      <c r="G34" s="111"/>
-      <c r="H34" s="111"/>
-      <c r="I34" s="111"/>
-      <c r="J34" s="111"/>
+      <c r="B34" s="123"/>
+      <c r="C34" s="123"/>
+      <c r="D34" s="123"/>
+      <c r="E34" s="123"/>
+      <c r="F34" s="123"/>
+      <c r="G34" s="123"/>
+      <c r="H34" s="123"/>
+      <c r="I34" s="123"/>
+      <c r="J34" s="123"/>
     </row>
     <row r="36" spans="1:10" s="37" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="85" t="s">
+      <c r="A36" s="97" t="s">
         <v>12</v>
       </c>
-      <c r="B36" s="93"/>
-      <c r="C36" s="93"/>
-      <c r="D36" s="93"/>
-      <c r="E36" s="93"/>
-      <c r="F36" s="93"/>
-      <c r="G36" s="93"/>
-      <c r="H36" s="93"/>
-      <c r="I36" s="93"/>
-      <c r="J36" s="93"/>
+      <c r="B36" s="100"/>
+      <c r="C36" s="100"/>
+      <c r="D36" s="100"/>
+      <c r="E36" s="100"/>
+      <c r="F36" s="100"/>
+      <c r="G36" s="100"/>
+      <c r="H36" s="100"/>
+      <c r="I36" s="100"/>
+      <c r="J36" s="100"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="33" t="s">
@@ -3590,18 +4298,18 @@
       <c r="A2" s="4"/>
     </row>
     <row r="3" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="96" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="87"/>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="117"/>
+      <c r="B3" s="99"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="99"/>
+      <c r="I3" s="99"/>
+      <c r="J3" s="129"/>
     </row>
     <row r="4" spans="1:10" ht="30.75" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
@@ -3695,18 +4403,18 @@
       <c r="J10" s="34"/>
     </row>
     <row r="11" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="118" t="s">
+      <c r="A11" s="130" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="119"/>
-      <c r="C11" s="119"/>
-      <c r="D11" s="119"/>
-      <c r="E11" s="119"/>
-      <c r="F11" s="119"/>
-      <c r="G11" s="119"/>
-      <c r="H11" s="119"/>
-      <c r="I11" s="119"/>
-      <c r="J11" s="120"/>
+      <c r="B11" s="131"/>
+      <c r="C11" s="131"/>
+      <c r="D11" s="131"/>
+      <c r="E11" s="131"/>
+      <c r="F11" s="131"/>
+      <c r="G11" s="131"/>
+      <c r="H11" s="131"/>
+      <c r="I11" s="131"/>
+      <c r="J11" s="132"/>
     </row>
     <row r="12" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
@@ -3727,7 +4435,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="114"/>
+      <c r="A14" s="126"/>
       <c r="B14" s="59" t="s">
         <v>21</v>
       </c>
@@ -3749,7 +4457,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="87"/>
+      <c r="A15" s="99"/>
       <c r="B15" s="2" t="s">
         <v>5</v>
       </c>
@@ -3771,7 +4479,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="87"/>
+      <c r="A16" s="99"/>
       <c r="B16" s="2" t="s">
         <v>6</v>
       </c>
@@ -3793,7 +4501,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="87"/>
+      <c r="A17" s="99"/>
       <c r="B17" s="2" t="s">
         <v>7</v>
       </c>
@@ -3815,7 +4523,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="87"/>
+      <c r="A18" s="99"/>
       <c r="B18" s="2" t="s">
         <v>8</v>
       </c>
@@ -3837,7 +4545,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="87"/>
+      <c r="A19" s="99"/>
       <c r="B19" s="2" t="s">
         <v>48</v>
       </c>
@@ -3859,7 +4567,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="87"/>
+      <c r="A20" s="99"/>
       <c r="B20" s="2" t="s">
         <v>9</v>
       </c>
@@ -3906,30 +4614,30 @@
       <c r="D22" s="19"/>
     </row>
     <row r="23" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="121" t="s">
+      <c r="A23" s="133" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="87"/>
-      <c r="C23" s="87"/>
-      <c r="D23" s="87"/>
-      <c r="E23" s="87"/>
-      <c r="F23" s="87"/>
-      <c r="G23" s="87"/>
-      <c r="H23" s="87"/>
-      <c r="I23" s="87"/>
-      <c r="J23" s="117"/>
+      <c r="B23" s="99"/>
+      <c r="C23" s="99"/>
+      <c r="D23" s="99"/>
+      <c r="E23" s="99"/>
+      <c r="F23" s="99"/>
+      <c r="G23" s="99"/>
+      <c r="H23" s="99"/>
+      <c r="I23" s="99"/>
+      <c r="J23" s="129"/>
     </row>
     <row r="24" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
-      <c r="C24" s="89" t="s">
+      <c r="C24" s="105" t="s">
         <v>4</v>
       </c>
-      <c r="D24" s="87"/>
-      <c r="E24" s="87"/>
-      <c r="F24" s="87"/>
-      <c r="G24" s="87"/>
-      <c r="H24" s="87"/>
-      <c r="I24" s="87"/>
+      <c r="D24" s="99"/>
+      <c r="E24" s="99"/>
+      <c r="F24" s="99"/>
+      <c r="G24" s="99"/>
+      <c r="H24" s="99"/>
+      <c r="I24" s="99"/>
     </row>
     <row r="25" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="C25" s="60" t="s">
@@ -3958,7 +4666,7 @@
       </c>
     </row>
     <row r="26" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="91" t="s">
+      <c r="A26" s="98" t="s">
         <v>11</v>
       </c>
       <c r="B26" s="59" t="s">
@@ -3977,7 +4685,7 @@
       </c>
     </row>
     <row r="27" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="87"/>
+      <c r="A27" s="99"/>
       <c r="B27" s="2" t="s">
         <v>5</v>
       </c>
@@ -3994,7 +4702,7 @@
       </c>
     </row>
     <row r="28" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="87"/>
+      <c r="A28" s="99"/>
       <c r="B28" s="2" t="s">
         <v>6</v>
       </c>
@@ -4011,7 +4719,7 @@
       </c>
     </row>
     <row r="29" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="87"/>
+      <c r="A29" s="99"/>
       <c r="B29" s="2" t="s">
         <v>7</v>
       </c>
@@ -4028,7 +4736,7 @@
       </c>
     </row>
     <row r="30" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="87"/>
+      <c r="A30" s="99"/>
       <c r="B30" s="2" t="s">
         <v>8</v>
       </c>
@@ -4045,7 +4753,7 @@
       </c>
     </row>
     <row r="31" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="87"/>
+      <c r="A31" s="99"/>
       <c r="B31" s="2" t="s">
         <v>48</v>
       </c>
@@ -4062,7 +4770,7 @@
       </c>
     </row>
     <row r="32" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="87"/>
+      <c r="A32" s="99"/>
       <c r="B32" s="2" t="s">
         <v>9</v>
       </c>
@@ -4117,18 +4825,18 @@
       </c>
     </row>
     <row r="35" spans="1:10" s="37" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="85" t="s">
+      <c r="A35" s="97" t="s">
         <v>12</v>
       </c>
-      <c r="B35" s="93"/>
-      <c r="C35" s="93"/>
-      <c r="D35" s="93"/>
-      <c r="E35" s="93"/>
-      <c r="F35" s="93"/>
-      <c r="G35" s="93"/>
-      <c r="H35" s="93"/>
-      <c r="I35" s="93"/>
-      <c r="J35" s="93"/>
+      <c r="B35" s="100"/>
+      <c r="C35" s="100"/>
+      <c r="D35" s="100"/>
+      <c r="E35" s="100"/>
+      <c r="F35" s="100"/>
+      <c r="G35" s="100"/>
+      <c r="H35" s="100"/>
+      <c r="I35" s="100"/>
+      <c r="J35" s="100"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="33" t="s">
@@ -4200,18 +4908,18 @@
       <c r="J2" s="65"/>
     </row>
     <row r="3" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="84" t="s">
+      <c r="A3" s="96" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="87"/>
-      <c r="C3" s="87"/>
-      <c r="D3" s="87"/>
-      <c r="E3" s="87"/>
-      <c r="F3" s="87"/>
-      <c r="G3" s="87"/>
-      <c r="H3" s="87"/>
-      <c r="I3" s="87"/>
-      <c r="J3" s="117"/>
+      <c r="B3" s="99"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="99"/>
+      <c r="I3" s="99"/>
+      <c r="J3" s="129"/>
     </row>
     <row r="4" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="66"/>
@@ -4220,10 +4928,10 @@
       <c r="D4" s="75" t="s">
         <v>64</v>
       </c>
-      <c r="E4" s="132" t="s">
+      <c r="E4" s="94" t="s">
         <v>45</v>
       </c>
-      <c r="F4" s="133" t="s">
+      <c r="F4" s="95" t="s">
         <v>65</v>
       </c>
       <c r="G4" s="63" t="s">
@@ -4242,11 +4950,11 @@
         <f>'SDG 15.3.1'!F5</f>
         <v>0</v>
       </c>
-      <c r="E5" s="122" t="e">
+      <c r="E5" s="84" t="e">
         <f>'SDG 15.3.1'!G5</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F5" s="123">
+      <c r="F5" s="85">
         <f>SUM(F6:F9)</f>
         <v>0</v>
       </c>
@@ -4267,11 +4975,11 @@
         <f>'SDG 15.3.1'!F6</f>
         <v>0</v>
       </c>
-      <c r="E6" s="124" t="e">
+      <c r="E6" s="86" t="e">
         <f>'SDG 15.3.1'!G6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F6" s="125"/>
+      <c r="F6" s="87"/>
       <c r="G6" s="80" t="e">
         <f>F6/F$5</f>
         <v>#DIV/0!</v>
@@ -4289,11 +4997,11 @@
         <f>'SDG 15.3.1'!F8</f>
         <v>0</v>
       </c>
-      <c r="E7" s="126" t="e">
+      <c r="E7" s="88" t="e">
         <f>'SDG 15.3.1'!G7</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F7" s="127"/>
+      <c r="F7" s="89"/>
       <c r="G7" s="81" t="e">
         <f>F7/F$5</f>
         <v>#DIV/0!</v>
@@ -4311,11 +5019,11 @@
         <f>'SDG 15.3.1'!F8</f>
         <v>0</v>
       </c>
-      <c r="E8" s="128" t="e">
+      <c r="E8" s="90" t="e">
         <f>'SDG 15.3.1'!G8</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F8" s="129"/>
+      <c r="F8" s="91"/>
       <c r="G8" s="82" t="e">
         <f>F8/F$5</f>
         <v>#DIV/0!</v>
@@ -4333,11 +5041,11 @@
         <f>'SDG 15.3.1'!F9</f>
         <v>0</v>
       </c>
-      <c r="E9" s="130" t="e">
+      <c r="E9" s="92" t="e">
         <f>'SDG 15.3.1'!G9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F9" s="131"/>
+      <c r="F9" s="93"/>
       <c r="G9" s="83" t="e">
         <f>F9/F$5</f>
         <v>#DIV/0!</v>
@@ -4370,18 +5078,18 @@
       <c r="J11" s="65"/>
     </row>
     <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="85" t="s">
+      <c r="A12" s="97" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="93"/>
-      <c r="C12" s="93"/>
-      <c r="D12" s="93"/>
-      <c r="E12" s="93"/>
-      <c r="F12" s="93"/>
-      <c r="G12" s="93"/>
-      <c r="H12" s="93"/>
-      <c r="I12" s="93"/>
-      <c r="J12" s="93"/>
+      <c r="B12" s="100"/>
+      <c r="C12" s="100"/>
+      <c r="D12" s="100"/>
+      <c r="E12" s="100"/>
+      <c r="F12" s="100"/>
+      <c r="G12" s="100"/>
+      <c r="H12" s="100"/>
+      <c r="I12" s="100"/>
+      <c r="J12" s="100"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="64"/>
@@ -4417,4 +5125,1557 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84595693-2766-4438-88C6-66C4A1683268}">
+  <dimension ref="A1:Z107"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.7109375" style="134" customWidth="1"/>
+    <col min="2" max="10" width="20.7109375" style="134" customWidth="1"/>
+    <col min="11" max="16384" width="14.42578125" style="134"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A1" s="67" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="96" t="s">
+        <v>97</v>
+      </c>
+      <c r="B3" s="99"/>
+      <c r="C3" s="99"/>
+      <c r="D3" s="99"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="99"/>
+      <c r="H3" s="99"/>
+      <c r="I3" s="99"/>
+      <c r="J3" s="129"/>
+    </row>
+    <row r="4" spans="1:26" s="152" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="150"/>
+      <c r="B4" s="151"/>
+      <c r="C4" s="151"/>
+      <c r="D4" s="151"/>
+      <c r="E4" s="151"/>
+      <c r="F4" s="151"/>
+      <c r="G4" s="151"/>
+      <c r="H4" s="151"/>
+      <c r="I4" s="151"/>
+      <c r="J4" s="151"/>
+      <c r="K4" s="151"/>
+      <c r="L4" s="151"/>
+      <c r="M4" s="151"/>
+      <c r="N4" s="151"/>
+      <c r="O4" s="151"/>
+      <c r="P4" s="151"/>
+      <c r="Q4" s="151"/>
+      <c r="R4" s="151"/>
+      <c r="S4" s="151"/>
+      <c r="T4" s="151"/>
+      <c r="U4" s="151"/>
+      <c r="V4" s="151"/>
+      <c r="W4" s="151"/>
+      <c r="X4" s="151"/>
+      <c r="Y4" s="151"/>
+      <c r="Z4" s="151"/>
+    </row>
+    <row r="5" spans="1:26" s="154" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="71" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="135" t="s">
+        <v>71</v>
+      </c>
+      <c r="B6" s="138" t="s">
+        <v>88</v>
+      </c>
+      <c r="C6" s="138" t="s">
+        <v>89</v>
+      </c>
+      <c r="D6" s="138" t="s">
+        <v>90</v>
+      </c>
+      <c r="E6" s="138" t="s">
+        <v>91</v>
+      </c>
+      <c r="F6" s="138" t="s">
+        <v>96</v>
+      </c>
+      <c r="G6" s="138" t="s">
+        <v>92</v>
+      </c>
+      <c r="H6" s="139" t="s">
+        <v>93</v>
+      </c>
+      <c r="I6" s="138" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A7" s="141"/>
+      <c r="B7" s="141"/>
+      <c r="C7" s="142"/>
+      <c r="D7" s="142"/>
+      <c r="E7" s="142"/>
+      <c r="F7" s="142"/>
+      <c r="G7" s="142"/>
+      <c r="H7" s="143"/>
+      <c r="I7" s="142"/>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A8" s="141"/>
+      <c r="B8" s="141"/>
+      <c r="C8" s="142"/>
+      <c r="D8" s="142"/>
+      <c r="E8" s="142"/>
+      <c r="F8" s="142"/>
+      <c r="G8" s="142"/>
+      <c r="H8" s="143"/>
+      <c r="I8" s="142"/>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A9" s="141"/>
+      <c r="B9" s="141"/>
+      <c r="C9" s="142"/>
+      <c r="D9" s="142"/>
+      <c r="E9" s="142"/>
+      <c r="F9" s="142"/>
+      <c r="G9" s="142"/>
+      <c r="H9" s="143"/>
+      <c r="I9" s="142"/>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A10" s="141"/>
+      <c r="B10" s="141"/>
+      <c r="C10" s="142"/>
+      <c r="D10" s="142"/>
+      <c r="E10" s="142"/>
+      <c r="F10" s="142"/>
+      <c r="G10" s="142"/>
+      <c r="H10" s="143"/>
+      <c r="I10" s="142"/>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A11" s="141"/>
+      <c r="B11" s="141"/>
+      <c r="C11" s="142"/>
+      <c r="D11" s="142"/>
+      <c r="E11" s="142"/>
+      <c r="F11" s="142"/>
+      <c r="G11" s="142"/>
+      <c r="H11" s="143"/>
+      <c r="I11" s="142"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A12" s="141"/>
+      <c r="B12" s="141"/>
+      <c r="C12" s="142"/>
+      <c r="D12" s="142"/>
+      <c r="E12" s="142"/>
+      <c r="F12" s="142"/>
+      <c r="G12" s="142"/>
+      <c r="H12" s="143"/>
+      <c r="I12" s="142"/>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A13" s="141"/>
+      <c r="B13" s="141"/>
+      <c r="C13" s="142"/>
+      <c r="D13" s="142"/>
+      <c r="E13" s="142"/>
+      <c r="F13" s="142"/>
+      <c r="G13" s="142"/>
+      <c r="H13" s="143"/>
+      <c r="I13" s="142"/>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A14" s="141"/>
+      <c r="B14" s="141"/>
+      <c r="C14" s="142"/>
+      <c r="D14" s="142"/>
+      <c r="E14" s="142"/>
+      <c r="F14" s="142"/>
+      <c r="G14" s="142"/>
+      <c r="H14" s="143"/>
+      <c r="I14" s="142"/>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A15" s="141"/>
+      <c r="B15" s="141"/>
+      <c r="C15" s="142"/>
+      <c r="D15" s="142"/>
+      <c r="E15" s="142"/>
+      <c r="F15" s="142"/>
+      <c r="G15" s="142"/>
+      <c r="H15" s="143"/>
+      <c r="I15" s="142"/>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A16" s="141"/>
+      <c r="B16" s="141"/>
+      <c r="C16" s="142"/>
+      <c r="D16" s="142"/>
+      <c r="E16" s="142"/>
+      <c r="F16" s="142"/>
+      <c r="G16" s="142"/>
+      <c r="H16" s="143"/>
+      <c r="I16" s="142"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="141"/>
+      <c r="B17" s="141"/>
+      <c r="C17" s="142"/>
+      <c r="D17" s="142"/>
+      <c r="E17" s="142"/>
+      <c r="F17" s="142"/>
+      <c r="G17" s="142"/>
+      <c r="H17" s="143"/>
+      <c r="I17" s="142"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="141"/>
+      <c r="B18" s="141"/>
+      <c r="C18" s="142"/>
+      <c r="D18" s="142"/>
+      <c r="E18" s="142"/>
+      <c r="F18" s="142"/>
+      <c r="G18" s="142"/>
+      <c r="H18" s="143"/>
+      <c r="I18" s="142"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="141"/>
+      <c r="B19" s="141"/>
+      <c r="C19" s="142"/>
+      <c r="D19" s="142"/>
+      <c r="E19" s="142"/>
+      <c r="F19" s="142"/>
+      <c r="G19" s="142"/>
+      <c r="H19" s="143"/>
+      <c r="I19" s="142"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="141"/>
+      <c r="B20" s="141"/>
+      <c r="C20" s="142"/>
+      <c r="D20" s="142"/>
+      <c r="E20" s="142"/>
+      <c r="F20" s="142"/>
+      <c r="G20" s="142"/>
+      <c r="H20" s="143"/>
+      <c r="I20" s="142"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="141"/>
+      <c r="B21" s="141"/>
+      <c r="C21" s="142"/>
+      <c r="D21" s="142"/>
+      <c r="E21" s="142"/>
+      <c r="F21" s="142"/>
+      <c r="G21" s="142"/>
+      <c r="H21" s="143"/>
+      <c r="I21" s="142"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="141"/>
+      <c r="B22" s="141"/>
+      <c r="C22" s="142"/>
+      <c r="D22" s="142"/>
+      <c r="E22" s="142"/>
+      <c r="F22" s="142"/>
+      <c r="G22" s="142"/>
+      <c r="H22" s="143"/>
+      <c r="I22" s="142"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="141"/>
+      <c r="B23" s="141"/>
+      <c r="C23" s="142"/>
+      <c r="D23" s="142"/>
+      <c r="E23" s="142"/>
+      <c r="F23" s="142"/>
+      <c r="G23" s="142"/>
+      <c r="H23" s="143"/>
+      <c r="I23" s="142"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" s="141"/>
+      <c r="B24" s="141"/>
+      <c r="C24" s="142"/>
+      <c r="D24" s="142"/>
+      <c r="E24" s="142"/>
+      <c r="F24" s="142"/>
+      <c r="G24" s="142"/>
+      <c r="H24" s="143"/>
+      <c r="I24" s="142"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" s="141"/>
+      <c r="B25" s="141"/>
+      <c r="C25" s="142"/>
+      <c r="D25" s="142"/>
+      <c r="E25" s="142"/>
+      <c r="F25" s="142"/>
+      <c r="G25" s="142"/>
+      <c r="H25" s="143"/>
+      <c r="I25" s="142"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" s="141"/>
+      <c r="B26" s="141"/>
+      <c r="C26" s="142"/>
+      <c r="D26" s="142"/>
+      <c r="E26" s="142"/>
+      <c r="F26" s="142"/>
+      <c r="G26" s="142"/>
+      <c r="H26" s="143"/>
+      <c r="I26" s="142"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27" s="141"/>
+      <c r="B27" s="141"/>
+      <c r="C27" s="142"/>
+      <c r="D27" s="142"/>
+      <c r="E27" s="142"/>
+      <c r="F27" s="142"/>
+      <c r="G27" s="142"/>
+      <c r="H27" s="143"/>
+      <c r="I27" s="142"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" s="141"/>
+      <c r="B28" s="141"/>
+      <c r="C28" s="142"/>
+      <c r="D28" s="142"/>
+      <c r="E28" s="142"/>
+      <c r="F28" s="142"/>
+      <c r="G28" s="142"/>
+      <c r="H28" s="143"/>
+      <c r="I28" s="142"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29" s="141"/>
+      <c r="B29" s="141"/>
+      <c r="C29" s="142"/>
+      <c r="D29" s="142"/>
+      <c r="E29" s="142"/>
+      <c r="F29" s="142"/>
+      <c r="G29" s="142"/>
+      <c r="H29" s="143"/>
+      <c r="I29" s="142"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" s="141"/>
+      <c r="B30" s="141"/>
+      <c r="C30" s="142"/>
+      <c r="D30" s="142"/>
+      <c r="E30" s="142"/>
+      <c r="F30" s="142"/>
+      <c r="G30" s="142"/>
+      <c r="H30" s="143"/>
+      <c r="I30" s="142"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" s="141"/>
+      <c r="B31" s="141"/>
+      <c r="C31" s="142"/>
+      <c r="D31" s="142"/>
+      <c r="E31" s="142"/>
+      <c r="F31" s="142"/>
+      <c r="G31" s="142"/>
+      <c r="H31" s="143"/>
+      <c r="I31" s="142"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" s="141"/>
+      <c r="B32" s="141"/>
+      <c r="C32" s="142"/>
+      <c r="D32" s="142"/>
+      <c r="E32" s="142"/>
+      <c r="F32" s="142"/>
+      <c r="G32" s="142"/>
+      <c r="H32" s="143"/>
+      <c r="I32" s="142"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="141"/>
+      <c r="B33" s="141"/>
+      <c r="C33" s="142"/>
+      <c r="D33" s="142"/>
+      <c r="E33" s="142"/>
+      <c r="F33" s="142"/>
+      <c r="G33" s="142"/>
+      <c r="H33" s="143"/>
+      <c r="I33" s="142"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" s="141"/>
+      <c r="B34" s="141"/>
+      <c r="C34" s="142"/>
+      <c r="D34" s="142"/>
+      <c r="E34" s="142"/>
+      <c r="F34" s="142"/>
+      <c r="G34" s="142"/>
+      <c r="H34" s="143"/>
+      <c r="I34" s="142"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" s="141"/>
+      <c r="B35" s="141"/>
+      <c r="C35" s="142"/>
+      <c r="D35" s="142"/>
+      <c r="E35" s="142"/>
+      <c r="F35" s="142"/>
+      <c r="G35" s="142"/>
+      <c r="H35" s="143"/>
+      <c r="I35" s="142"/>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="141"/>
+      <c r="B36" s="141"/>
+      <c r="C36" s="142"/>
+      <c r="D36" s="142"/>
+      <c r="E36" s="142"/>
+      <c r="F36" s="142"/>
+      <c r="G36" s="142"/>
+      <c r="H36" s="143"/>
+      <c r="I36" s="142"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" s="155"/>
+      <c r="B37" s="155"/>
+      <c r="C37" s="156"/>
+      <c r="D37" s="156"/>
+      <c r="E37" s="156"/>
+      <c r="F37" s="156"/>
+      <c r="G37" s="156"/>
+      <c r="H37" s="156"/>
+      <c r="I37" s="156"/>
+    </row>
+    <row r="38" spans="1:9" s="154" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="71" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A39" s="135" t="s">
+        <v>71</v>
+      </c>
+      <c r="B39" s="138" t="s">
+        <v>88</v>
+      </c>
+      <c r="C39" s="138" t="s">
+        <v>89</v>
+      </c>
+      <c r="D39" s="138" t="s">
+        <v>90</v>
+      </c>
+      <c r="E39" s="138" t="s">
+        <v>91</v>
+      </c>
+      <c r="F39" s="138" t="s">
+        <v>96</v>
+      </c>
+      <c r="G39" s="138" t="s">
+        <v>92</v>
+      </c>
+      <c r="H39" s="139" t="s">
+        <v>93</v>
+      </c>
+      <c r="I39" s="138" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" s="141"/>
+      <c r="B40" s="141"/>
+      <c r="C40" s="142"/>
+      <c r="D40" s="142"/>
+      <c r="E40" s="142"/>
+      <c r="F40" s="142"/>
+      <c r="G40" s="142"/>
+      <c r="H40" s="143"/>
+      <c r="I40" s="142"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" s="141"/>
+      <c r="B41" s="141"/>
+      <c r="C41" s="142"/>
+      <c r="D41" s="142"/>
+      <c r="E41" s="142"/>
+      <c r="F41" s="142"/>
+      <c r="G41" s="142"/>
+      <c r="H41" s="143"/>
+      <c r="I41" s="142"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" s="141"/>
+      <c r="B42" s="141"/>
+      <c r="C42" s="142"/>
+      <c r="D42" s="142"/>
+      <c r="E42" s="142"/>
+      <c r="F42" s="142"/>
+      <c r="G42" s="142"/>
+      <c r="H42" s="143"/>
+      <c r="I42" s="142"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" s="141"/>
+      <c r="B43" s="141"/>
+      <c r="C43" s="142"/>
+      <c r="D43" s="142"/>
+      <c r="E43" s="142"/>
+      <c r="F43" s="142"/>
+      <c r="G43" s="142"/>
+      <c r="H43" s="143"/>
+      <c r="I43" s="142"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" s="141"/>
+      <c r="B44" s="141"/>
+      <c r="C44" s="142"/>
+      <c r="D44" s="142"/>
+      <c r="E44" s="142"/>
+      <c r="F44" s="142"/>
+      <c r="G44" s="142"/>
+      <c r="H44" s="143"/>
+      <c r="I44" s="142"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45" s="141"/>
+      <c r="B45" s="141"/>
+      <c r="C45" s="142"/>
+      <c r="D45" s="142"/>
+      <c r="E45" s="142"/>
+      <c r="F45" s="142"/>
+      <c r="G45" s="142"/>
+      <c r="H45" s="143"/>
+      <c r="I45" s="142"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="141"/>
+      <c r="B46" s="141"/>
+      <c r="C46" s="142"/>
+      <c r="D46" s="142"/>
+      <c r="E46" s="142"/>
+      <c r="F46" s="142"/>
+      <c r="G46" s="142"/>
+      <c r="H46" s="143"/>
+      <c r="I46" s="142"/>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" s="141"/>
+      <c r="B47" s="141"/>
+      <c r="C47" s="142"/>
+      <c r="D47" s="142"/>
+      <c r="E47" s="142"/>
+      <c r="F47" s="142"/>
+      <c r="G47" s="142"/>
+      <c r="H47" s="143"/>
+      <c r="I47" s="142"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="141"/>
+      <c r="B48" s="141"/>
+      <c r="C48" s="142"/>
+      <c r="D48" s="142"/>
+      <c r="E48" s="142"/>
+      <c r="F48" s="142"/>
+      <c r="G48" s="142"/>
+      <c r="H48" s="143"/>
+      <c r="I48" s="142"/>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A49" s="141"/>
+      <c r="B49" s="141"/>
+      <c r="C49" s="142"/>
+      <c r="D49" s="142"/>
+      <c r="E49" s="142"/>
+      <c r="F49" s="142"/>
+      <c r="G49" s="142"/>
+      <c r="H49" s="143"/>
+      <c r="I49" s="142"/>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A50" s="141"/>
+      <c r="B50" s="141"/>
+      <c r="C50" s="142"/>
+      <c r="D50" s="142"/>
+      <c r="E50" s="142"/>
+      <c r="F50" s="142"/>
+      <c r="G50" s="142"/>
+      <c r="H50" s="143"/>
+      <c r="I50" s="142"/>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A51" s="141"/>
+      <c r="B51" s="141"/>
+      <c r="C51" s="142"/>
+      <c r="D51" s="142"/>
+      <c r="E51" s="142"/>
+      <c r="F51" s="142"/>
+      <c r="G51" s="142"/>
+      <c r="H51" s="143"/>
+      <c r="I51" s="142"/>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A52" s="141"/>
+      <c r="B52" s="141"/>
+      <c r="C52" s="142"/>
+      <c r="D52" s="142"/>
+      <c r="E52" s="142"/>
+      <c r="F52" s="142"/>
+      <c r="G52" s="142"/>
+      <c r="H52" s="143"/>
+      <c r="I52" s="142"/>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" s="141"/>
+      <c r="B53" s="141"/>
+      <c r="C53" s="142"/>
+      <c r="D53" s="142"/>
+      <c r="E53" s="142"/>
+      <c r="F53" s="142"/>
+      <c r="G53" s="142"/>
+      <c r="H53" s="143"/>
+      <c r="I53" s="142"/>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A54" s="141"/>
+      <c r="B54" s="141"/>
+      <c r="C54" s="142"/>
+      <c r="D54" s="142"/>
+      <c r="E54" s="142"/>
+      <c r="F54" s="142"/>
+      <c r="G54" s="142"/>
+      <c r="H54" s="143"/>
+      <c r="I54" s="142"/>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" s="141"/>
+      <c r="B55" s="141"/>
+      <c r="C55" s="142"/>
+      <c r="D55" s="142"/>
+      <c r="E55" s="142"/>
+      <c r="F55" s="142"/>
+      <c r="G55" s="142"/>
+      <c r="H55" s="143"/>
+      <c r="I55" s="142"/>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A56" s="141"/>
+      <c r="B56" s="141"/>
+      <c r="C56" s="142"/>
+      <c r="D56" s="142"/>
+      <c r="E56" s="142"/>
+      <c r="F56" s="142"/>
+      <c r="G56" s="142"/>
+      <c r="H56" s="143"/>
+      <c r="I56" s="142"/>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A57" s="141"/>
+      <c r="B57" s="141"/>
+      <c r="C57" s="142"/>
+      <c r="D57" s="142"/>
+      <c r="E57" s="142"/>
+      <c r="F57" s="142"/>
+      <c r="G57" s="142"/>
+      <c r="H57" s="143"/>
+      <c r="I57" s="142"/>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A58" s="141"/>
+      <c r="B58" s="141"/>
+      <c r="C58" s="142"/>
+      <c r="D58" s="142"/>
+      <c r="E58" s="142"/>
+      <c r="F58" s="142"/>
+      <c r="G58" s="142"/>
+      <c r="H58" s="143"/>
+      <c r="I58" s="142"/>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A59" s="141"/>
+      <c r="B59" s="141"/>
+      <c r="C59" s="142"/>
+      <c r="D59" s="142"/>
+      <c r="E59" s="142"/>
+      <c r="F59" s="142"/>
+      <c r="G59" s="142"/>
+      <c r="H59" s="143"/>
+      <c r="I59" s="142"/>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60" s="141"/>
+      <c r="B60" s="141"/>
+      <c r="C60" s="142"/>
+      <c r="D60" s="142"/>
+      <c r="E60" s="142"/>
+      <c r="F60" s="142"/>
+      <c r="G60" s="142"/>
+      <c r="H60" s="143"/>
+      <c r="I60" s="142"/>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61" s="141"/>
+      <c r="B61" s="141"/>
+      <c r="C61" s="142"/>
+      <c r="D61" s="142"/>
+      <c r="E61" s="142"/>
+      <c r="F61" s="142"/>
+      <c r="G61" s="142"/>
+      <c r="H61" s="143"/>
+      <c r="I61" s="142"/>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62" s="141"/>
+      <c r="B62" s="141"/>
+      <c r="C62" s="142"/>
+      <c r="D62" s="142"/>
+      <c r="E62" s="142"/>
+      <c r="F62" s="142"/>
+      <c r="G62" s="142"/>
+      <c r="H62" s="143"/>
+      <c r="I62" s="142"/>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63" s="141"/>
+      <c r="B63" s="141"/>
+      <c r="C63" s="142"/>
+      <c r="D63" s="142"/>
+      <c r="E63" s="142"/>
+      <c r="F63" s="142"/>
+      <c r="G63" s="142"/>
+      <c r="H63" s="143"/>
+      <c r="I63" s="142"/>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64" s="141"/>
+      <c r="B64" s="141"/>
+      <c r="C64" s="142"/>
+      <c r="D64" s="142"/>
+      <c r="E64" s="142"/>
+      <c r="F64" s="142"/>
+      <c r="G64" s="142"/>
+      <c r="H64" s="143"/>
+      <c r="I64" s="142"/>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A65" s="141"/>
+      <c r="B65" s="141"/>
+      <c r="C65" s="142"/>
+      <c r="D65" s="142"/>
+      <c r="E65" s="142"/>
+      <c r="F65" s="142"/>
+      <c r="G65" s="142"/>
+      <c r="H65" s="143"/>
+      <c r="I65" s="142"/>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A66" s="141"/>
+      <c r="B66" s="141"/>
+      <c r="C66" s="142"/>
+      <c r="D66" s="142"/>
+      <c r="E66" s="142"/>
+      <c r="F66" s="142"/>
+      <c r="G66" s="142"/>
+      <c r="H66" s="143"/>
+      <c r="I66" s="142"/>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A67" s="141"/>
+      <c r="B67" s="141"/>
+      <c r="C67" s="142"/>
+      <c r="D67" s="142"/>
+      <c r="E67" s="142"/>
+      <c r="F67" s="142"/>
+      <c r="G67" s="142"/>
+      <c r="H67" s="143"/>
+      <c r="I67" s="142"/>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A68" s="141"/>
+      <c r="B68" s="141"/>
+      <c r="C68" s="142"/>
+      <c r="D68" s="142"/>
+      <c r="E68" s="142"/>
+      <c r="F68" s="142"/>
+      <c r="G68" s="142"/>
+      <c r="H68" s="143"/>
+      <c r="I68" s="142"/>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A69" s="141"/>
+      <c r="B69" s="141"/>
+      <c r="C69" s="142"/>
+      <c r="D69" s="142"/>
+      <c r="E69" s="142"/>
+      <c r="F69" s="142"/>
+      <c r="G69" s="142"/>
+      <c r="H69" s="143"/>
+      <c r="I69" s="142"/>
+    </row>
+    <row r="70" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" spans="1:10" s="154" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="71" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B72" s="141"/>
+      <c r="C72" s="138" t="s">
+        <v>21</v>
+      </c>
+      <c r="D72" s="138" t="s">
+        <v>5</v>
+      </c>
+      <c r="E72" s="138" t="s">
+        <v>6</v>
+      </c>
+      <c r="F72" s="138" t="s">
+        <v>7</v>
+      </c>
+      <c r="G72" s="138" t="s">
+        <v>72</v>
+      </c>
+      <c r="H72" s="138" t="s">
+        <v>73</v>
+      </c>
+      <c r="I72" s="138" t="s">
+        <v>9</v>
+      </c>
+      <c r="J72" s="138" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B73" s="138" t="s">
+        <v>21</v>
+      </c>
+      <c r="C73" s="142"/>
+      <c r="D73" s="142"/>
+      <c r="E73" s="142"/>
+      <c r="F73" s="142"/>
+      <c r="G73" s="142"/>
+      <c r="H73" s="142"/>
+      <c r="I73" s="142"/>
+      <c r="J73" s="141">
+        <f t="shared" ref="J73:J80" si="0">SUM(C73:I73)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B74" s="138" t="s">
+        <v>5</v>
+      </c>
+      <c r="C74" s="142"/>
+      <c r="D74" s="142"/>
+      <c r="E74" s="142"/>
+      <c r="F74" s="142"/>
+      <c r="G74" s="142"/>
+      <c r="H74" s="142"/>
+      <c r="I74" s="142"/>
+      <c r="J74" s="141">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B75" s="138" t="s">
+        <v>6</v>
+      </c>
+      <c r="C75" s="142"/>
+      <c r="D75" s="142"/>
+      <c r="E75" s="142"/>
+      <c r="F75" s="142"/>
+      <c r="G75" s="142"/>
+      <c r="H75" s="142"/>
+      <c r="I75" s="142"/>
+      <c r="J75" s="141">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B76" s="138" t="s">
+        <v>7</v>
+      </c>
+      <c r="C76" s="142"/>
+      <c r="D76" s="142"/>
+      <c r="E76" s="142"/>
+      <c r="F76" s="142"/>
+      <c r="G76" s="142"/>
+      <c r="H76" s="142"/>
+      <c r="I76" s="142"/>
+      <c r="J76" s="141">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B77" s="138" t="s">
+        <v>72</v>
+      </c>
+      <c r="C77" s="142"/>
+      <c r="D77" s="142"/>
+      <c r="E77" s="142"/>
+      <c r="F77" s="142"/>
+      <c r="G77" s="142"/>
+      <c r="H77" s="142"/>
+      <c r="I77" s="142"/>
+      <c r="J77" s="141">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B78" s="138" t="s">
+        <v>73</v>
+      </c>
+      <c r="C78" s="142"/>
+      <c r="D78" s="142"/>
+      <c r="E78" s="142"/>
+      <c r="F78" s="142"/>
+      <c r="G78" s="142"/>
+      <c r="H78" s="142"/>
+      <c r="I78" s="142"/>
+      <c r="J78" s="141">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B79" s="138" t="s">
+        <v>9</v>
+      </c>
+      <c r="C79" s="142"/>
+      <c r="D79" s="142"/>
+      <c r="E79" s="142"/>
+      <c r="F79" s="142"/>
+      <c r="G79" s="142"/>
+      <c r="H79" s="142"/>
+      <c r="I79" s="142"/>
+      <c r="J79" s="141">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B80" s="138" t="s">
+        <v>80</v>
+      </c>
+      <c r="C80" s="142">
+        <f t="shared" ref="C80:I80" si="1">SUM(C73:C79)</f>
+        <v>0</v>
+      </c>
+      <c r="D80" s="142">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="E80" s="142">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F80" s="142">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G80" s="142">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H80" s="142">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I80" s="142">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J80" s="141">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" spans="1:10" s="154" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="71" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="B83" s="141"/>
+      <c r="C83" s="138" t="s">
+        <v>21</v>
+      </c>
+      <c r="D83" s="138" t="s">
+        <v>5</v>
+      </c>
+      <c r="E83" s="138" t="s">
+        <v>6</v>
+      </c>
+      <c r="F83" s="138" t="s">
+        <v>7</v>
+      </c>
+      <c r="G83" s="138" t="s">
+        <v>72</v>
+      </c>
+      <c r="H83" s="138" t="s">
+        <v>73</v>
+      </c>
+      <c r="I83" s="138" t="s">
+        <v>9</v>
+      </c>
+      <c r="J83" s="138" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B84" s="138" t="s">
+        <v>21</v>
+      </c>
+      <c r="C84" s="142"/>
+      <c r="D84" s="142"/>
+      <c r="E84" s="142"/>
+      <c r="F84" s="142"/>
+      <c r="G84" s="142"/>
+      <c r="H84" s="142"/>
+      <c r="I84" s="142"/>
+      <c r="J84" s="141">
+        <f t="shared" ref="J84:J91" si="2">SUM(C84:I84)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B85" s="138" t="s">
+        <v>5</v>
+      </c>
+      <c r="C85" s="142"/>
+      <c r="D85" s="142"/>
+      <c r="E85" s="142"/>
+      <c r="F85" s="142"/>
+      <c r="G85" s="142"/>
+      <c r="H85" s="142"/>
+      <c r="I85" s="142"/>
+      <c r="J85" s="141">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B86" s="138" t="s">
+        <v>6</v>
+      </c>
+      <c r="C86" s="142"/>
+      <c r="D86" s="142"/>
+      <c r="E86" s="142"/>
+      <c r="F86" s="142"/>
+      <c r="G86" s="142"/>
+      <c r="H86" s="142"/>
+      <c r="I86" s="142"/>
+      <c r="J86" s="141">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B87" s="138" t="s">
+        <v>7</v>
+      </c>
+      <c r="C87" s="142"/>
+      <c r="D87" s="142"/>
+      <c r="E87" s="142"/>
+      <c r="F87" s="142"/>
+      <c r="G87" s="142"/>
+      <c r="H87" s="142"/>
+      <c r="I87" s="142"/>
+      <c r="J87" s="141">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B88" s="138" t="s">
+        <v>72</v>
+      </c>
+      <c r="C88" s="142"/>
+      <c r="D88" s="142"/>
+      <c r="E88" s="142"/>
+      <c r="F88" s="142"/>
+      <c r="G88" s="142"/>
+      <c r="H88" s="142"/>
+      <c r="I88" s="142"/>
+      <c r="J88" s="141">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B89" s="138" t="s">
+        <v>73</v>
+      </c>
+      <c r="C89" s="142"/>
+      <c r="D89" s="142"/>
+      <c r="E89" s="142"/>
+      <c r="F89" s="142"/>
+      <c r="G89" s="142"/>
+      <c r="H89" s="142"/>
+      <c r="I89" s="142"/>
+      <c r="J89" s="141">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B90" s="138" t="s">
+        <v>9</v>
+      </c>
+      <c r="C90" s="142"/>
+      <c r="D90" s="142"/>
+      <c r="E90" s="142"/>
+      <c r="F90" s="142"/>
+      <c r="G90" s="142"/>
+      <c r="H90" s="142"/>
+      <c r="I90" s="142"/>
+      <c r="J90" s="141">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B91" s="138" t="s">
+        <v>80</v>
+      </c>
+      <c r="C91" s="142">
+        <f t="shared" ref="C91:I91" si="3">SUM(C84:C90)</f>
+        <v>0</v>
+      </c>
+      <c r="D91" s="142">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="E91" s="142">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F91" s="142">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G91" s="142">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="H91" s="142">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I91" s="142">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="J91" s="141">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A92" s="137"/>
+    </row>
+    <row r="93" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" spans="1:10" s="154" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="154" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="145"/>
+      <c r="B95" s="135" t="s">
+        <v>84</v>
+      </c>
+      <c r="C95" s="135" t="s">
+        <v>74</v>
+      </c>
+      <c r="D95" s="146"/>
+    </row>
+    <row r="96" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="135" t="s">
+        <v>75</v>
+      </c>
+      <c r="B96" s="147"/>
+      <c r="C96" s="148" t="str">
+        <f>IFERROR((B96/#REF!)*100,"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D96" s="149"/>
+    </row>
+    <row r="97" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="135" t="s">
+        <v>79</v>
+      </c>
+      <c r="B97" s="147"/>
+      <c r="C97" s="148" t="str">
+        <f>IFERROR((B97/#REF!)*100,"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D97" s="149"/>
+    </row>
+    <row r="98" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="135" t="s">
+        <v>76</v>
+      </c>
+      <c r="B98" s="147"/>
+      <c r="C98" s="148" t="str">
+        <f>IFERROR((B98/#REF!)*100,"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D98" s="149"/>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="136"/>
+    </row>
+    <row r="100" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="101" spans="1:4" s="154" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="154" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="138"/>
+      <c r="B102" s="157" t="s">
+        <v>84</v>
+      </c>
+      <c r="C102" s="158" t="s">
+        <v>74</v>
+      </c>
+      <c r="D102" s="140"/>
+    </row>
+    <row r="103" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="138" t="s">
+        <v>78</v>
+      </c>
+      <c r="B103" s="159"/>
+      <c r="C103" s="160" t="str">
+        <f>IFERROR((B103/#REF!)*100,"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D103" s="144"/>
+    </row>
+    <row r="104" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A104" s="138" t="s">
+        <v>77</v>
+      </c>
+      <c r="B104" s="159"/>
+      <c r="C104" s="160" t="str">
+        <f>IFERROR((B104/#REF!)*100,"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D104" s="144"/>
+    </row>
+    <row r="105" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="138" t="s">
+        <v>75</v>
+      </c>
+      <c r="B105" s="159"/>
+      <c r="C105" s="160" t="str">
+        <f>IFERROR((B105/#REF!)*100,"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D105" s="144"/>
+    </row>
+    <row r="106" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="153" t="s">
+        <v>76</v>
+      </c>
+      <c r="B106" s="161"/>
+      <c r="C106" s="160" t="str">
+        <f>IFERROR((B106/#REF!)*100,"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D106" s="144"/>
+    </row>
+    <row r="107" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A3:J3"/>
+  </mergeCells>
+  <conditionalFormatting sqref="A107:Z107 A117:Z987">
+    <cfRule type="expression" dxfId="53" priority="33">
+      <formula>_xludf.isformula(A107:Z1127)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A102:Z106">
+    <cfRule type="expression" dxfId="52" priority="34">
+      <formula>_xludf.isformula(A102:Z1121)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B101:Z101 A99:Z100">
+    <cfRule type="expression" dxfId="51" priority="35">
+      <formula>_xludf.isformula(A99:Z1116)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A108:W116">
+    <cfRule type="expression" dxfId="50" priority="36">
+      <formula>_xludf.isformula(D108:AC1128)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A81:Z81 K72:Z80 K83:Z91 B82:Z82">
+    <cfRule type="expression" dxfId="49" priority="38">
+      <formula>_xludf.isformula(A72:Z1084)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A70:Z70">
+    <cfRule type="expression" dxfId="48" priority="39">
+      <formula>_xludf.isformula(A70:Z1078)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J25:Z25">
+    <cfRule type="expression" dxfId="46" priority="53">
+      <formula>_xludf.isformula(J25:AI1065)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J23:Z23 J50:Z55">
+    <cfRule type="expression" dxfId="45" priority="63">
+      <formula>_xludf.isformula(J23:AI1065)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J16:Z16">
+    <cfRule type="expression" dxfId="44" priority="73">
+      <formula>_xludf.isformula(J16:AI1060)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A6">
+    <cfRule type="expression" dxfId="43" priority="96">
+      <formula>_xludf.isformula(A6:Z1003)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B13:H13 B40:H45 I40:I69">
+    <cfRule type="expression" dxfId="42" priority="98">
+      <formula>_xludf.isformula(A13:Z1060)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B14:H14">
+    <cfRule type="expression" dxfId="41" priority="101">
+      <formula>_xludf.isformula(A14:Z1060)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B15:H15">
+    <cfRule type="expression" dxfId="40" priority="104">
+      <formula>_xludf.isformula(A15:Z1060)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B24:H24">
+    <cfRule type="expression" dxfId="39" priority="110">
+      <formula>_xludf.isformula(A24:Z1065)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B25:H25">
+    <cfRule type="expression" dxfId="38" priority="117">
+      <formula>_xludf.isformula(A25:Z1065)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B23:H23 B50:H55">
+    <cfRule type="expression" dxfId="37" priority="120">
+      <formula>_xludf.isformula(A23:Z1065)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6:I6 B7:H12 I7:I37">
+    <cfRule type="expression" dxfId="36" priority="127">
+      <formula>_xludf.isformula(A6:Z1054)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A93:Z93">
+    <cfRule type="expression" dxfId="35" priority="130">
+      <formula>_xludf.isformula(A93:Z1106)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A71:Z71">
+    <cfRule type="expression" dxfId="34" priority="131">
+      <formula>_xludf.isformula(A71:Z1081)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J14:Z14 J46:Z46">
+    <cfRule type="expression" dxfId="33" priority="149">
+      <formula>_xludf.isformula(J14:AI1060)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J15:Z15">
+    <cfRule type="expression" dxfId="32" priority="175">
+      <formula>_xludf.isformula(J15:AI1060)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A94:Z94">
+    <cfRule type="expression" dxfId="31" priority="185">
+      <formula>_xludf.isformula(A94:Z1109)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A92:Z92">
+    <cfRule type="expression" dxfId="30" priority="209">
+      <formula>_xludf.isformula(A92:Z1095)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4:Z4">
+    <cfRule type="expression" dxfId="29" priority="268">
+      <formula>_xludf.isformula(A4:Z988)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J24:Z24">
+    <cfRule type="expression" dxfId="28" priority="269">
+      <formula>_xludf.isformula(J24:AI1065)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B16:H16">
+    <cfRule type="expression" dxfId="27" priority="270">
+      <formula>_xludf.isformula(A16:Z1060)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B5:Z5 J13:Z13 J39:Z45">
+    <cfRule type="expression" dxfId="26" priority="274">
+      <formula>_xludf.isformula(B5:AA1052)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J58:Z58 J26:Z37">
+    <cfRule type="expression" dxfId="25" priority="5">
+      <formula>_xludf.isformula(J26:AI1065)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J56:Z56">
+    <cfRule type="expression" dxfId="24" priority="6">
+      <formula>_xludf.isformula(J56:AI1097)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J49:Z49 J17:Z22">
+    <cfRule type="expression" dxfId="23" priority="7">
+      <formula>_xludf.isformula(J17:AI1060)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A39">
+    <cfRule type="expression" dxfId="22" priority="8">
+      <formula>_xludf.isformula(A39:Z1035)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B46:H46">
+    <cfRule type="expression" dxfId="21" priority="9">
+      <formula>_xludf.isformula(A46:Z1092)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B47:H47">
+    <cfRule type="expression" dxfId="20" priority="10">
+      <formula>_xludf.isformula(A47:Z1092)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B48:H48">
+    <cfRule type="expression" dxfId="19" priority="11">
+      <formula>_xludf.isformula(A48:Z1092)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B57:H57">
+    <cfRule type="expression" dxfId="18" priority="12">
+      <formula>_xludf.isformula(A57:Z1097)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B58:H58 B26:H37">
+    <cfRule type="expression" dxfId="17" priority="13">
+      <formula>_xludf.isformula(A26:Z1065)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B56:H56">
+    <cfRule type="expression" dxfId="16" priority="14">
+      <formula>_xludf.isformula(A56:Z1097)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B39:I39">
+    <cfRule type="expression" dxfId="15" priority="15">
+      <formula>_xludf.isformula(A39:Z1086)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J47:Z47">
+    <cfRule type="expression" dxfId="14" priority="16">
+      <formula>_xludf.isformula(J47:AI1092)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J48:Z48">
+    <cfRule type="expression" dxfId="13" priority="17">
+      <formula>_xludf.isformula(J48:AI1092)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J57:Z57">
+    <cfRule type="expression" dxfId="12" priority="18">
+      <formula>_xludf.isformula(J57:AI1097)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B49:H49 B17:H22">
+    <cfRule type="expression" dxfId="11" priority="19">
+      <formula>_xludf.isformula(A17:Z1060)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A38:Z38">
+    <cfRule type="expression" dxfId="10" priority="21">
+      <formula>_xludf.isformula(A38:Z1084)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A5">
+    <cfRule type="expression" dxfId="9" priority="4">
+      <formula>_xludf.isformula(A5:Z1051)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A82">
+    <cfRule type="expression" dxfId="8" priority="3">
+      <formula>_xludf.isformula(A82:Z1093)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A95:Z98">
+    <cfRule type="expression" dxfId="7" priority="1">
+      <formula>_xludf.isformula(A95:Z1111)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A7:A37">
+    <cfRule type="expression" dxfId="6" priority="305">
+      <formula>_xludf.isformula(Y7:XFD1055)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A101">
+    <cfRule type="expression" dxfId="5" priority="1">
+      <formula>_xludf.isformula(A101:Z1116)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B83:J91 B72:J80">
+    <cfRule type="expression" dxfId="4" priority="315">
+      <formula>_xludf.isformula(A72:Z1084)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J6:Z12">
+    <cfRule type="expression" dxfId="3" priority="327">
+      <formula>_xludf.isformula(J6:AI1054)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J59:Z69">
+    <cfRule type="expression" dxfId="2" priority="329">
+      <formula>_xludf.isformula(J59:AI1097)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B59:H69">
+    <cfRule type="expression" dxfId="1" priority="330">
+      <formula>_xludf.isformula(A59:Z1097)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A40:A69">
+    <cfRule type="expression" dxfId="0" priority="331">
+      <formula>_xludf.isformula(Y40:XFD1087)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/LDMP/data/summary_table_ldn_sdg.xlsx
+++ b/LDMP/data/summary_table_ldn_sdg.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\LandDegradation\trends.earth\LDMP\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE48CE29-C227-4B0F-BE88-099FA336E023}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BD8C5C3-F23F-4DF2-BA8A-38FB94A44099}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="100">
   <si>
     <t>Land area with improved productivity:</t>
   </si>
@@ -330,6 +330,14 @@
   </si>
   <si>
     <t>Trends in land cover (UNCCD SO1-1)</t>
+  </si>
+  <si>
+    <t>Total area
+(excludes no data)</t>
+  </si>
+  <si>
+    <t>Total land area
+(excludes water bodies and no data)</t>
   </si>
 </sst>
 </file>
@@ -341,7 +349,7 @@
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -496,6 +504,7 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -527,8 +536,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -604,6 +621,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFAB2727"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.24994659260841701"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -857,7 +880,7 @@
     <xf numFmtId="43" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="162">
+  <cellXfs count="169">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1116,102 +1139,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -1230,19 +1157,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
@@ -1263,11 +1182,138 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="14" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="24" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="21" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="2" builtinId="3"/>
@@ -1275,61 +1321,7 @@
     <cellStyle name="Normal 2" xfId="3" xr:uid="{1B5C13A4-9274-4736-9A1E-C99559450C60}"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="54">
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFC71BC7"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFC71BC7"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFC71BC7"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFC71BC7"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFC71BC7"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFC71BC7"/>
-      </font>
-      <fill>
-        <patternFill patternType="none"/>
-      </fill>
-    </dxf>
+  <dxfs count="48">
     <dxf>
       <font>
         <b/>
@@ -2115,18 +2107,18 @@
       <c r="A2" s="4"/>
     </row>
     <row r="3" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="96" t="s">
+      <c r="A3" s="117" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="96"/>
-      <c r="C3" s="96"/>
-      <c r="D3" s="96"/>
-      <c r="E3" s="96"/>
-      <c r="F3" s="96"/>
-      <c r="G3" s="96"/>
-      <c r="H3" s="96"/>
-      <c r="I3" s="96"/>
-      <c r="J3" s="96"/>
+      <c r="B3" s="117"/>
+      <c r="C3" s="117"/>
+      <c r="D3" s="117"/>
+      <c r="E3" s="117"/>
+      <c r="F3" s="117"/>
+      <c r="G3" s="117"/>
+      <c r="H3" s="117"/>
+      <c r="I3" s="117"/>
+      <c r="J3" s="117"/>
     </row>
     <row r="4" spans="1:10" s="39" customFormat="1" ht="30.75" x14ac:dyDescent="0.3">
       <c r="A4" s="41"/>
@@ -2209,18 +2201,18 @@
       <c r="A10" s="4"/>
     </row>
     <row r="11" spans="1:10" s="37" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="97" t="s">
+      <c r="A11" s="118" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="97"/>
-      <c r="C11" s="97"/>
-      <c r="D11" s="97"/>
-      <c r="E11" s="97"/>
-      <c r="F11" s="97"/>
-      <c r="G11" s="97"/>
-      <c r="H11" s="97"/>
-      <c r="I11" s="97"/>
-      <c r="J11" s="97"/>
+      <c r="B11" s="118"/>
+      <c r="C11" s="118"/>
+      <c r="D11" s="118"/>
+      <c r="E11" s="118"/>
+      <c r="F11" s="118"/>
+      <c r="G11" s="118"/>
+      <c r="H11" s="118"/>
+      <c r="I11" s="118"/>
+      <c r="J11" s="118"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="33" t="s">
@@ -2261,18 +2253,18 @@
       <c r="A2" s="4"/>
     </row>
     <row r="3" spans="1:10" s="52" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="96" t="s">
+      <c r="A3" s="117" t="s">
         <v>61</v>
       </c>
-      <c r="B3" s="99"/>
-      <c r="C3" s="99"/>
-      <c r="D3" s="99"/>
-      <c r="E3" s="99"/>
-      <c r="F3" s="99"/>
-      <c r="G3" s="99"/>
-      <c r="H3" s="99"/>
-      <c r="I3" s="99"/>
-      <c r="J3" s="99"/>
+      <c r="B3" s="120"/>
+      <c r="C3" s="120"/>
+      <c r="D3" s="120"/>
+      <c r="E3" s="120"/>
+      <c r="F3" s="120"/>
+      <c r="G3" s="120"/>
+      <c r="H3" s="120"/>
+      <c r="I3" s="120"/>
+      <c r="J3" s="120"/>
     </row>
     <row r="4" spans="1:10" ht="30.75" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
@@ -2353,18 +2345,18 @@
       <c r="J10" s="51"/>
     </row>
     <row r="11" spans="1:10" s="52" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="97" t="s">
+      <c r="A11" s="118" t="s">
         <v>54</v>
       </c>
-      <c r="B11" s="120"/>
-      <c r="C11" s="120"/>
-      <c r="D11" s="120"/>
-      <c r="E11" s="120"/>
-      <c r="F11" s="120"/>
-      <c r="G11" s="120"/>
-      <c r="H11" s="120"/>
-      <c r="I11" s="120"/>
-      <c r="J11" s="120"/>
+      <c r="B11" s="121"/>
+      <c r="C11" s="121"/>
+      <c r="D11" s="121"/>
+      <c r="E11" s="121"/>
+      <c r="F11" s="121"/>
+      <c r="G11" s="121"/>
+      <c r="H11" s="121"/>
+      <c r="I11" s="121"/>
+      <c r="J11" s="121"/>
     </row>
     <row r="12" spans="1:10" s="52" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
@@ -2393,15 +2385,15 @@
     </row>
     <row r="14" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="1"/>
-      <c r="C14" s="105" t="s">
+      <c r="C14" s="122" t="s">
         <v>4</v>
       </c>
-      <c r="D14" s="106"/>
-      <c r="E14" s="106"/>
-      <c r="F14" s="106"/>
-      <c r="G14" s="106"/>
-      <c r="H14" s="106"/>
-      <c r="I14" s="106"/>
+      <c r="D14" s="123"/>
+      <c r="E14" s="123"/>
+      <c r="F14" s="123"/>
+      <c r="G14" s="123"/>
+      <c r="H14" s="123"/>
+      <c r="I14" s="123"/>
     </row>
     <row r="15" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="C15" s="62" t="s">
@@ -2430,7 +2422,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="98" t="s">
+      <c r="A16" s="124" t="s">
         <v>11</v>
       </c>
       <c r="B16" s="59" t="s">
@@ -2449,7 +2441,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="99"/>
+      <c r="A17" s="120"/>
       <c r="B17" s="2" t="s">
         <v>5</v>
       </c>
@@ -2466,7 +2458,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="99"/>
+      <c r="A18" s="120"/>
       <c r="B18" s="2" t="s">
         <v>6</v>
       </c>
@@ -2483,7 +2475,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="99"/>
+      <c r="A19" s="120"/>
       <c r="B19" s="2" t="s">
         <v>7</v>
       </c>
@@ -2500,7 +2492,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="99"/>
+      <c r="A20" s="120"/>
       <c r="B20" s="2" t="s">
         <v>8</v>
       </c>
@@ -2517,7 +2509,7 @@
       </c>
     </row>
     <row r="21" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="99"/>
+      <c r="A21" s="120"/>
       <c r="B21" s="2" t="s">
         <v>48</v>
       </c>
@@ -2534,7 +2526,7 @@
       </c>
     </row>
     <row r="22" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="99"/>
+      <c r="A22" s="120"/>
       <c r="B22" s="2" t="s">
         <v>9</v>
       </c>
@@ -2589,30 +2581,30 @@
       </c>
     </row>
     <row r="25" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="121" t="s">
+      <c r="A25" s="125" t="s">
         <v>57</v>
       </c>
-      <c r="B25" s="121"/>
-      <c r="C25" s="121"/>
-      <c r="D25" s="121"/>
-      <c r="E25" s="121"/>
-      <c r="F25" s="121"/>
-      <c r="G25" s="121"/>
-      <c r="H25" s="121"/>
-      <c r="I25" s="121"/>
-      <c r="J25" s="121"/>
+      <c r="B25" s="125"/>
+      <c r="C25" s="125"/>
+      <c r="D25" s="125"/>
+      <c r="E25" s="125"/>
+      <c r="F25" s="125"/>
+      <c r="G25" s="125"/>
+      <c r="H25" s="125"/>
+      <c r="I25" s="125"/>
+      <c r="J25" s="125"/>
     </row>
     <row r="26" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B26" s="1"/>
-      <c r="C26" s="105" t="s">
+      <c r="C26" s="122" t="s">
         <v>4</v>
       </c>
-      <c r="D26" s="106"/>
-      <c r="E26" s="106"/>
-      <c r="F26" s="106"/>
-      <c r="G26" s="106"/>
-      <c r="H26" s="106"/>
-      <c r="I26" s="106"/>
+      <c r="D26" s="123"/>
+      <c r="E26" s="123"/>
+      <c r="F26" s="123"/>
+      <c r="G26" s="123"/>
+      <c r="H26" s="123"/>
+      <c r="I26" s="123"/>
     </row>
     <row r="27" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="C27" s="61" t="s">
@@ -2641,7 +2633,7 @@
       </c>
     </row>
     <row r="28" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A28" s="98" t="s">
+      <c r="A28" s="124" t="s">
         <v>11</v>
       </c>
       <c r="B28" s="59" t="s">
@@ -2660,7 +2652,7 @@
       </c>
     </row>
     <row r="29" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="99"/>
+      <c r="A29" s="120"/>
       <c r="B29" s="2" t="s">
         <v>5</v>
       </c>
@@ -2677,7 +2669,7 @@
       </c>
     </row>
     <row r="30" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="99"/>
+      <c r="A30" s="120"/>
       <c r="B30" s="2" t="s">
         <v>6</v>
       </c>
@@ -2694,7 +2686,7 @@
       </c>
     </row>
     <row r="31" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="99"/>
+      <c r="A31" s="120"/>
       <c r="B31" s="2" t="s">
         <v>7</v>
       </c>
@@ -2711,7 +2703,7 @@
       </c>
     </row>
     <row r="32" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="99"/>
+      <c r="A32" s="120"/>
       <c r="B32" s="2" t="s">
         <v>8</v>
       </c>
@@ -2728,7 +2720,7 @@
       </c>
     </row>
     <row r="33" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="99"/>
+      <c r="A33" s="120"/>
       <c r="B33" s="2" t="s">
         <v>48</v>
       </c>
@@ -2745,7 +2737,7 @@
       </c>
     </row>
     <row r="34" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="99"/>
+      <c r="A34" s="120"/>
       <c r="B34" s="2" t="s">
         <v>9</v>
       </c>
@@ -2800,30 +2792,30 @@
       </c>
     </row>
     <row r="37" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="101" t="s">
+      <c r="A37" s="127" t="s">
         <v>56</v>
       </c>
-      <c r="B37" s="102"/>
-      <c r="C37" s="103"/>
-      <c r="D37" s="103"/>
-      <c r="E37" s="103"/>
-      <c r="F37" s="103"/>
-      <c r="G37" s="103"/>
-      <c r="H37" s="103"/>
-      <c r="I37" s="103"/>
-      <c r="J37" s="104"/>
+      <c r="B37" s="128"/>
+      <c r="C37" s="129"/>
+      <c r="D37" s="129"/>
+      <c r="E37" s="129"/>
+      <c r="F37" s="129"/>
+      <c r="G37" s="129"/>
+      <c r="H37" s="129"/>
+      <c r="I37" s="129"/>
+      <c r="J37" s="130"/>
     </row>
     <row r="38" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B38" s="1"/>
-      <c r="C38" s="105" t="s">
+      <c r="C38" s="122" t="s">
         <v>4</v>
       </c>
-      <c r="D38" s="106"/>
-      <c r="E38" s="106"/>
-      <c r="F38" s="106"/>
-      <c r="G38" s="106"/>
-      <c r="H38" s="106"/>
-      <c r="I38" s="106"/>
+      <c r="D38" s="123"/>
+      <c r="E38" s="123"/>
+      <c r="F38" s="123"/>
+      <c r="G38" s="123"/>
+      <c r="H38" s="123"/>
+      <c r="I38" s="123"/>
     </row>
     <row r="39" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="C39" s="61" t="s">
@@ -2852,7 +2844,7 @@
       </c>
     </row>
     <row r="40" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A40" s="98" t="s">
+      <c r="A40" s="124" t="s">
         <v>11</v>
       </c>
       <c r="B40" s="59" t="s">
@@ -2871,7 +2863,7 @@
       </c>
     </row>
     <row r="41" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="99"/>
+      <c r="A41" s="120"/>
       <c r="B41" s="2" t="s">
         <v>5</v>
       </c>
@@ -2888,7 +2880,7 @@
       </c>
     </row>
     <row r="42" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="99"/>
+      <c r="A42" s="120"/>
       <c r="B42" s="2" t="s">
         <v>6</v>
       </c>
@@ -2905,7 +2897,7 @@
       </c>
     </row>
     <row r="43" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="99"/>
+      <c r="A43" s="120"/>
       <c r="B43" s="2" t="s">
         <v>7</v>
       </c>
@@ -2922,7 +2914,7 @@
       </c>
     </row>
     <row r="44" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="99"/>
+      <c r="A44" s="120"/>
       <c r="B44" s="2" t="s">
         <v>8</v>
       </c>
@@ -2939,7 +2931,7 @@
       </c>
     </row>
     <row r="45" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="99"/>
+      <c r="A45" s="120"/>
       <c r="B45" s="2" t="s">
         <v>48</v>
       </c>
@@ -2956,7 +2948,7 @@
       </c>
     </row>
     <row r="46" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="99"/>
+      <c r="A46" s="120"/>
       <c r="B46" s="2" t="s">
         <v>9</v>
       </c>
@@ -3011,30 +3003,30 @@
       </c>
     </row>
     <row r="49" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="107" t="s">
+      <c r="A49" s="131" t="s">
         <v>59</v>
       </c>
-      <c r="B49" s="108"/>
-      <c r="C49" s="109"/>
-      <c r="D49" s="109"/>
-      <c r="E49" s="109"/>
-      <c r="F49" s="109"/>
-      <c r="G49" s="109"/>
-      <c r="H49" s="109"/>
-      <c r="I49" s="109"/>
-      <c r="J49" s="110"/>
+      <c r="B49" s="132"/>
+      <c r="C49" s="133"/>
+      <c r="D49" s="133"/>
+      <c r="E49" s="133"/>
+      <c r="F49" s="133"/>
+      <c r="G49" s="133"/>
+      <c r="H49" s="133"/>
+      <c r="I49" s="133"/>
+      <c r="J49" s="134"/>
     </row>
     <row r="50" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B50" s="1"/>
-      <c r="C50" s="105" t="s">
+      <c r="C50" s="122" t="s">
         <v>4</v>
       </c>
-      <c r="D50" s="106"/>
-      <c r="E50" s="106"/>
-      <c r="F50" s="106"/>
-      <c r="G50" s="106"/>
-      <c r="H50" s="106"/>
-      <c r="I50" s="106"/>
+      <c r="D50" s="123"/>
+      <c r="E50" s="123"/>
+      <c r="F50" s="123"/>
+      <c r="G50" s="123"/>
+      <c r="H50" s="123"/>
+      <c r="I50" s="123"/>
     </row>
     <row r="51" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="C51" s="61" t="s">
@@ -3063,7 +3055,7 @@
       </c>
     </row>
     <row r="52" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A52" s="98" t="s">
+      <c r="A52" s="124" t="s">
         <v>11</v>
       </c>
       <c r="B52" s="59" t="s">
@@ -3082,7 +3074,7 @@
       </c>
     </row>
     <row r="53" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="99"/>
+      <c r="A53" s="120"/>
       <c r="B53" s="2" t="s">
         <v>5</v>
       </c>
@@ -3099,7 +3091,7 @@
       </c>
     </row>
     <row r="54" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="99"/>
+      <c r="A54" s="120"/>
       <c r="B54" s="2" t="s">
         <v>6</v>
       </c>
@@ -3116,7 +3108,7 @@
       </c>
     </row>
     <row r="55" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="99"/>
+      <c r="A55" s="120"/>
       <c r="B55" s="2" t="s">
         <v>7</v>
       </c>
@@ -3133,7 +3125,7 @@
       </c>
     </row>
     <row r="56" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="99"/>
+      <c r="A56" s="120"/>
       <c r="B56" s="2" t="s">
         <v>8</v>
       </c>
@@ -3150,7 +3142,7 @@
       </c>
     </row>
     <row r="57" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="99"/>
+      <c r="A57" s="120"/>
       <c r="B57" s="2" t="s">
         <v>48</v>
       </c>
@@ -3167,7 +3159,7 @@
       </c>
     </row>
     <row r="58" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="99"/>
+      <c r="A58" s="120"/>
       <c r="B58" s="2" t="s">
         <v>9</v>
       </c>
@@ -3222,30 +3214,30 @@
       </c>
     </row>
     <row r="61" spans="1:10" s="52" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="111" t="s">
+      <c r="A61" s="135" t="s">
         <v>55</v>
       </c>
-      <c r="B61" s="112"/>
-      <c r="C61" s="113"/>
-      <c r="D61" s="113"/>
-      <c r="E61" s="113"/>
-      <c r="F61" s="113"/>
-      <c r="G61" s="113"/>
-      <c r="H61" s="113"/>
-      <c r="I61" s="113"/>
-      <c r="J61" s="114"/>
+      <c r="B61" s="136"/>
+      <c r="C61" s="137"/>
+      <c r="D61" s="137"/>
+      <c r="E61" s="137"/>
+      <c r="F61" s="137"/>
+      <c r="G61" s="137"/>
+      <c r="H61" s="137"/>
+      <c r="I61" s="137"/>
+      <c r="J61" s="138"/>
     </row>
     <row r="62" spans="1:10" s="52" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B62" s="1"/>
-      <c r="C62" s="105" t="s">
+      <c r="C62" s="122" t="s">
         <v>4</v>
       </c>
-      <c r="D62" s="106"/>
-      <c r="E62" s="106"/>
-      <c r="F62" s="106"/>
-      <c r="G62" s="106"/>
-      <c r="H62" s="106"/>
-      <c r="I62" s="106"/>
+      <c r="D62" s="123"/>
+      <c r="E62" s="123"/>
+      <c r="F62" s="123"/>
+      <c r="G62" s="123"/>
+      <c r="H62" s="123"/>
+      <c r="I62" s="123"/>
       <c r="J62" s="51"/>
     </row>
     <row r="63" spans="1:10" s="52" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -3275,7 +3267,7 @@
       </c>
     </row>
     <row r="64" spans="1:10" s="52" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A64" s="98" t="s">
+      <c r="A64" s="124" t="s">
         <v>11</v>
       </c>
       <c r="B64" s="59" t="s">
@@ -3294,7 +3286,7 @@
       </c>
     </row>
     <row r="65" spans="1:10" s="52" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="99"/>
+      <c r="A65" s="120"/>
       <c r="B65" s="2" t="s">
         <v>5</v>
       </c>
@@ -3311,7 +3303,7 @@
       </c>
     </row>
     <row r="66" spans="1:10" s="52" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A66" s="99"/>
+      <c r="A66" s="120"/>
       <c r="B66" s="2" t="s">
         <v>6</v>
       </c>
@@ -3328,7 +3320,7 @@
       </c>
     </row>
     <row r="67" spans="1:10" s="52" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="99"/>
+      <c r="A67" s="120"/>
       <c r="B67" s="2" t="s">
         <v>7</v>
       </c>
@@ -3345,7 +3337,7 @@
       </c>
     </row>
     <row r="68" spans="1:10" s="52" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="99"/>
+      <c r="A68" s="120"/>
       <c r="B68" s="2" t="s">
         <v>8</v>
       </c>
@@ -3362,7 +3354,7 @@
       </c>
     </row>
     <row r="69" spans="1:10" s="52" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="99"/>
+      <c r="A69" s="120"/>
       <c r="B69" s="2" t="s">
         <v>48</v>
       </c>
@@ -3379,7 +3371,7 @@
       </c>
     </row>
     <row r="70" spans="1:10" s="52" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="99"/>
+      <c r="A70" s="120"/>
       <c r="B70" s="2" t="s">
         <v>9</v>
       </c>
@@ -3444,30 +3436,30 @@
       <c r="J72" s="51"/>
     </row>
     <row r="73" spans="1:10" s="52" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="115" t="s">
+      <c r="A73" s="139" t="s">
         <v>60</v>
       </c>
-      <c r="B73" s="116"/>
-      <c r="C73" s="117"/>
-      <c r="D73" s="117"/>
-      <c r="E73" s="117"/>
-      <c r="F73" s="117"/>
-      <c r="G73" s="117"/>
-      <c r="H73" s="117"/>
-      <c r="I73" s="117"/>
-      <c r="J73" s="118"/>
+      <c r="B73" s="140"/>
+      <c r="C73" s="141"/>
+      <c r="D73" s="141"/>
+      <c r="E73" s="141"/>
+      <c r="F73" s="141"/>
+      <c r="G73" s="141"/>
+      <c r="H73" s="141"/>
+      <c r="I73" s="141"/>
+      <c r="J73" s="142"/>
     </row>
     <row r="74" spans="1:10" s="52" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B74" s="1"/>
-      <c r="C74" s="105" t="s">
+      <c r="C74" s="122" t="s">
         <v>4</v>
       </c>
-      <c r="D74" s="106"/>
-      <c r="E74" s="106"/>
-      <c r="F74" s="106"/>
-      <c r="G74" s="106"/>
-      <c r="H74" s="106"/>
-      <c r="I74" s="106"/>
+      <c r="D74" s="123"/>
+      <c r="E74" s="123"/>
+      <c r="F74" s="123"/>
+      <c r="G74" s="123"/>
+      <c r="H74" s="123"/>
+      <c r="I74" s="123"/>
       <c r="J74" s="51"/>
     </row>
     <row r="75" spans="1:10" s="52" customFormat="1" ht="30" x14ac:dyDescent="0.25">
@@ -3497,7 +3489,7 @@
       </c>
     </row>
     <row r="76" spans="1:10" s="52" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A76" s="98" t="s">
+      <c r="A76" s="124" t="s">
         <v>11</v>
       </c>
       <c r="B76" s="59" t="s">
@@ -3516,7 +3508,7 @@
       </c>
     </row>
     <row r="77" spans="1:10" s="52" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="99"/>
+      <c r="A77" s="120"/>
       <c r="B77" s="2" t="s">
         <v>5</v>
       </c>
@@ -3533,7 +3525,7 @@
       </c>
     </row>
     <row r="78" spans="1:10" s="52" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A78" s="99"/>
+      <c r="A78" s="120"/>
       <c r="B78" s="2" t="s">
         <v>6</v>
       </c>
@@ -3550,7 +3542,7 @@
       </c>
     </row>
     <row r="79" spans="1:10" s="52" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A79" s="99"/>
+      <c r="A79" s="120"/>
       <c r="B79" s="2" t="s">
         <v>7</v>
       </c>
@@ -3567,7 +3559,7 @@
       </c>
     </row>
     <row r="80" spans="1:10" s="52" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A80" s="99"/>
+      <c r="A80" s="120"/>
       <c r="B80" s="2" t="s">
         <v>8</v>
       </c>
@@ -3584,7 +3576,7 @@
       </c>
     </row>
     <row r="81" spans="1:10" s="52" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="99"/>
+      <c r="A81" s="120"/>
       <c r="B81" s="2" t="s">
         <v>48</v>
       </c>
@@ -3601,7 +3593,7 @@
       </c>
     </row>
     <row r="82" spans="1:10" s="52" customFormat="1" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="99"/>
+      <c r="A82" s="120"/>
       <c r="B82" s="2" t="s">
         <v>9</v>
       </c>
@@ -3666,18 +3658,18 @@
       <c r="J84" s="51"/>
     </row>
     <row r="85" spans="1:10" s="37" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="97" t="s">
+      <c r="A85" s="118" t="s">
         <v>12</v>
       </c>
-      <c r="B85" s="100"/>
-      <c r="C85" s="100"/>
-      <c r="D85" s="100"/>
-      <c r="E85" s="100"/>
-      <c r="F85" s="100"/>
-      <c r="G85" s="100"/>
-      <c r="H85" s="100"/>
-      <c r="I85" s="100"/>
-      <c r="J85" s="100"/>
+      <c r="B85" s="126"/>
+      <c r="C85" s="126"/>
+      <c r="D85" s="126"/>
+      <c r="E85" s="126"/>
+      <c r="F85" s="126"/>
+      <c r="G85" s="126"/>
+      <c r="H85" s="126"/>
+      <c r="I85" s="126"/>
+      <c r="J85" s="126"/>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87" s="33" t="s">
@@ -3686,13 +3678,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A13:J13"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="C26:I26"/>
-    <mergeCell ref="C14:I14"/>
-    <mergeCell ref="A16:A22"/>
-    <mergeCell ref="A25:J25"/>
     <mergeCell ref="A52:A58"/>
     <mergeCell ref="A85:J85"/>
     <mergeCell ref="A28:A34"/>
@@ -3707,6 +3692,13 @@
     <mergeCell ref="A73:J73"/>
     <mergeCell ref="C74:I74"/>
     <mergeCell ref="A76:A82"/>
+    <mergeCell ref="A13:J13"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="C26:I26"/>
+    <mergeCell ref="C14:I14"/>
+    <mergeCell ref="A16:A22"/>
+    <mergeCell ref="A25:J25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3736,18 +3728,18 @@
       <c r="A2" s="4"/>
     </row>
     <row r="3" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="96" t="s">
+      <c r="A3" s="117" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="99"/>
-      <c r="C3" s="99"/>
-      <c r="D3" s="99"/>
-      <c r="E3" s="99"/>
-      <c r="F3" s="99"/>
-      <c r="G3" s="99"/>
-      <c r="H3" s="99"/>
-      <c r="I3" s="99"/>
-      <c r="J3" s="99"/>
+      <c r="B3" s="120"/>
+      <c r="C3" s="120"/>
+      <c r="D3" s="120"/>
+      <c r="E3" s="120"/>
+      <c r="F3" s="120"/>
+      <c r="G3" s="120"/>
+      <c r="H3" s="120"/>
+      <c r="I3" s="120"/>
+      <c r="J3" s="120"/>
     </row>
     <row r="4" spans="1:10" ht="30.75" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
@@ -3858,18 +3850,18 @@
       <c r="A12" s="4"/>
     </row>
     <row r="13" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="124" t="s">
+      <c r="A13" s="145" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="125"/>
-      <c r="C13" s="125"/>
-      <c r="D13" s="125"/>
-      <c r="E13" s="125"/>
-      <c r="F13" s="125"/>
-      <c r="G13" s="125"/>
-      <c r="H13" s="125"/>
-      <c r="I13" s="125"/>
-      <c r="J13" s="125"/>
+      <c r="B13" s="146"/>
+      <c r="C13" s="146"/>
+      <c r="D13" s="146"/>
+      <c r="E13" s="146"/>
+      <c r="F13" s="146"/>
+      <c r="G13" s="146"/>
+      <c r="H13" s="146"/>
+      <c r="I13" s="146"/>
+      <c r="J13" s="146"/>
     </row>
     <row r="14" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="4"/>
@@ -3901,7 +3893,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="126"/>
+      <c r="A16" s="147"/>
       <c r="B16" s="59" t="s">
         <v>21</v>
       </c>
@@ -3927,7 +3919,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="99"/>
+      <c r="A17" s="120"/>
       <c r="B17" s="2" t="s">
         <v>5</v>
       </c>
@@ -3953,7 +3945,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="99"/>
+      <c r="A18" s="120"/>
       <c r="B18" s="2" t="s">
         <v>6</v>
       </c>
@@ -3979,7 +3971,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="99"/>
+      <c r="A19" s="120"/>
       <c r="B19" s="2" t="s">
         <v>7</v>
       </c>
@@ -4005,7 +3997,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="99"/>
+      <c r="A20" s="120"/>
       <c r="B20" s="2" t="s">
         <v>8</v>
       </c>
@@ -4031,7 +4023,7 @@
       </c>
     </row>
     <row r="21" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="99"/>
+      <c r="A21" s="120"/>
       <c r="B21" s="2" t="s">
         <v>48</v>
       </c>
@@ -4084,31 +4076,31 @@
       </c>
     </row>
     <row r="24" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="127" t="s">
+      <c r="A24" s="148" t="s">
         <v>47</v>
       </c>
-      <c r="B24" s="99"/>
-      <c r="C24" s="99"/>
-      <c r="D24" s="99"/>
-      <c r="E24" s="99"/>
-      <c r="F24" s="99"/>
-      <c r="G24" s="99"/>
-      <c r="H24" s="99"/>
-      <c r="I24" s="99"/>
-      <c r="J24" s="99"/>
+      <c r="B24" s="120"/>
+      <c r="C24" s="120"/>
+      <c r="D24" s="120"/>
+      <c r="E24" s="120"/>
+      <c r="F24" s="120"/>
+      <c r="G24" s="120"/>
+      <c r="H24" s="120"/>
+      <c r="I24" s="120"/>
+      <c r="J24" s="120"/>
     </row>
     <row r="25" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
-      <c r="C25" s="128" t="s">
+      <c r="C25" s="149" t="s">
         <v>4</v>
       </c>
-      <c r="D25" s="99"/>
-      <c r="E25" s="99"/>
-      <c r="F25" s="99"/>
-      <c r="G25" s="99"/>
-      <c r="H25" s="99"/>
-      <c r="I25" s="99"/>
-      <c r="J25" s="99"/>
+      <c r="D25" s="120"/>
+      <c r="E25" s="120"/>
+      <c r="F25" s="120"/>
+      <c r="G25" s="120"/>
+      <c r="H25" s="120"/>
+      <c r="I25" s="120"/>
+      <c r="J25" s="120"/>
     </row>
     <row r="26" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="C26" s="32" t="s">
@@ -4131,7 +4123,7 @@
       </c>
     </row>
     <row r="27" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="98" t="s">
+      <c r="A27" s="124" t="s">
         <v>11</v>
       </c>
       <c r="B27" s="59" t="s">
@@ -4145,7 +4137,7 @@
       <c r="H27" s="48"/>
     </row>
     <row r="28" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="99"/>
+      <c r="A28" s="120"/>
       <c r="B28" s="2" t="s">
         <v>5</v>
       </c>
@@ -4157,7 +4149,7 @@
       <c r="H28" s="48"/>
     </row>
     <row r="29" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="99"/>
+      <c r="A29" s="120"/>
       <c r="B29" s="2" t="s">
         <v>6</v>
       </c>
@@ -4169,7 +4161,7 @@
       <c r="H29" s="48"/>
     </row>
     <row r="30" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="99"/>
+      <c r="A30" s="120"/>
       <c r="B30" s="2" t="s">
         <v>7</v>
       </c>
@@ -4181,7 +4173,7 @@
       <c r="H30" s="48"/>
     </row>
     <row r="31" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="99"/>
+      <c r="A31" s="120"/>
       <c r="B31" s="2" t="s">
         <v>8</v>
       </c>
@@ -4193,7 +4185,7 @@
       <c r="H31" s="48"/>
     </row>
     <row r="32" spans="1:10" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="99"/>
+      <c r="A32" s="120"/>
       <c r="B32" s="2" t="s">
         <v>48</v>
       </c>
@@ -4217,32 +4209,32 @@
       <c r="J33" s="36"/>
     </row>
     <row r="34" spans="1:10" s="38" customFormat="1" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="122" t="s">
+      <c r="A34" s="143" t="s">
         <v>46</v>
       </c>
-      <c r="B34" s="123"/>
-      <c r="C34" s="123"/>
-      <c r="D34" s="123"/>
-      <c r="E34" s="123"/>
-      <c r="F34" s="123"/>
-      <c r="G34" s="123"/>
-      <c r="H34" s="123"/>
-      <c r="I34" s="123"/>
-      <c r="J34" s="123"/>
+      <c r="B34" s="144"/>
+      <c r="C34" s="144"/>
+      <c r="D34" s="144"/>
+      <c r="E34" s="144"/>
+      <c r="F34" s="144"/>
+      <c r="G34" s="144"/>
+      <c r="H34" s="144"/>
+      <c r="I34" s="144"/>
+      <c r="J34" s="144"/>
     </row>
     <row r="36" spans="1:10" s="37" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="97" t="s">
+      <c r="A36" s="118" t="s">
         <v>12</v>
       </c>
-      <c r="B36" s="100"/>
-      <c r="C36" s="100"/>
-      <c r="D36" s="100"/>
-      <c r="E36" s="100"/>
-      <c r="F36" s="100"/>
-      <c r="G36" s="100"/>
-      <c r="H36" s="100"/>
-      <c r="I36" s="100"/>
-      <c r="J36" s="100"/>
+      <c r="B36" s="126"/>
+      <c r="C36" s="126"/>
+      <c r="D36" s="126"/>
+      <c r="E36" s="126"/>
+      <c r="F36" s="126"/>
+      <c r="G36" s="126"/>
+      <c r="H36" s="126"/>
+      <c r="I36" s="126"/>
+      <c r="J36" s="126"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" s="33" t="s">
@@ -4277,7 +4269,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J37"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:J11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -4298,18 +4292,18 @@
       <c r="A2" s="4"/>
     </row>
     <row r="3" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="96" t="s">
+      <c r="A3" s="117" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="99"/>
-      <c r="C3" s="99"/>
-      <c r="D3" s="99"/>
-      <c r="E3" s="99"/>
-      <c r="F3" s="99"/>
-      <c r="G3" s="99"/>
-      <c r="H3" s="99"/>
-      <c r="I3" s="99"/>
-      <c r="J3" s="129"/>
+      <c r="B3" s="120"/>
+      <c r="C3" s="120"/>
+      <c r="D3" s="120"/>
+      <c r="E3" s="120"/>
+      <c r="F3" s="120"/>
+      <c r="G3" s="120"/>
+      <c r="H3" s="120"/>
+      <c r="I3" s="120"/>
+      <c r="J3" s="150"/>
     </row>
     <row r="4" spans="1:10" ht="30.75" x14ac:dyDescent="0.3">
       <c r="A4" s="4"/>
@@ -4403,18 +4397,18 @@
       <c r="J10" s="34"/>
     </row>
     <row r="11" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="130" t="s">
+      <c r="A11" s="151" t="s">
         <v>42</v>
       </c>
-      <c r="B11" s="131"/>
-      <c r="C11" s="131"/>
-      <c r="D11" s="131"/>
-      <c r="E11" s="131"/>
-      <c r="F11" s="131"/>
-      <c r="G11" s="131"/>
-      <c r="H11" s="131"/>
-      <c r="I11" s="131"/>
-      <c r="J11" s="132"/>
+      <c r="B11" s="152"/>
+      <c r="C11" s="152"/>
+      <c r="D11" s="152"/>
+      <c r="E11" s="152"/>
+      <c r="F11" s="152"/>
+      <c r="G11" s="152"/>
+      <c r="H11" s="152"/>
+      <c r="I11" s="152"/>
+      <c r="J11" s="153"/>
     </row>
     <row r="12" spans="1:10" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
@@ -4435,7 +4429,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="126"/>
+      <c r="A14" s="147"/>
       <c r="B14" s="59" t="s">
         <v>21</v>
       </c>
@@ -4457,7 +4451,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="99"/>
+      <c r="A15" s="120"/>
       <c r="B15" s="2" t="s">
         <v>5</v>
       </c>
@@ -4479,7 +4473,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="99"/>
+      <c r="A16" s="120"/>
       <c r="B16" s="2" t="s">
         <v>6</v>
       </c>
@@ -4501,7 +4495,7 @@
       </c>
     </row>
     <row r="17" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="99"/>
+      <c r="A17" s="120"/>
       <c r="B17" s="2" t="s">
         <v>7</v>
       </c>
@@ -4523,7 +4517,7 @@
       </c>
     </row>
     <row r="18" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="99"/>
+      <c r="A18" s="120"/>
       <c r="B18" s="2" t="s">
         <v>8</v>
       </c>
@@ -4545,7 +4539,7 @@
       </c>
     </row>
     <row r="19" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="99"/>
+      <c r="A19" s="120"/>
       <c r="B19" s="2" t="s">
         <v>48</v>
       </c>
@@ -4567,7 +4561,7 @@
       </c>
     </row>
     <row r="20" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="99"/>
+      <c r="A20" s="120"/>
       <c r="B20" s="2" t="s">
         <v>9</v>
       </c>
@@ -4614,30 +4608,30 @@
       <c r="D22" s="19"/>
     </row>
     <row r="23" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="133" t="s">
+      <c r="A23" s="154" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="99"/>
-      <c r="C23" s="99"/>
-      <c r="D23" s="99"/>
-      <c r="E23" s="99"/>
-      <c r="F23" s="99"/>
-      <c r="G23" s="99"/>
-      <c r="H23" s="99"/>
-      <c r="I23" s="99"/>
-      <c r="J23" s="129"/>
+      <c r="B23" s="120"/>
+      <c r="C23" s="120"/>
+      <c r="D23" s="120"/>
+      <c r="E23" s="120"/>
+      <c r="F23" s="120"/>
+      <c r="G23" s="120"/>
+      <c r="H23" s="120"/>
+      <c r="I23" s="120"/>
+      <c r="J23" s="150"/>
     </row>
     <row r="24" spans="1:10" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
-      <c r="C24" s="105" t="s">
+      <c r="C24" s="122" t="s">
         <v>4</v>
       </c>
-      <c r="D24" s="99"/>
-      <c r="E24" s="99"/>
-      <c r="F24" s="99"/>
-      <c r="G24" s="99"/>
-      <c r="H24" s="99"/>
-      <c r="I24" s="99"/>
+      <c r="D24" s="120"/>
+      <c r="E24" s="120"/>
+      <c r="F24" s="120"/>
+      <c r="G24" s="120"/>
+      <c r="H24" s="120"/>
+      <c r="I24" s="120"/>
     </row>
     <row r="25" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="C25" s="60" t="s">
@@ -4666,7 +4660,7 @@
       </c>
     </row>
     <row r="26" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="98" t="s">
+      <c r="A26" s="124" t="s">
         <v>11</v>
       </c>
       <c r="B26" s="59" t="s">
@@ -4685,7 +4679,7 @@
       </c>
     </row>
     <row r="27" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="99"/>
+      <c r="A27" s="120"/>
       <c r="B27" s="2" t="s">
         <v>5</v>
       </c>
@@ -4702,7 +4696,7 @@
       </c>
     </row>
     <row r="28" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="99"/>
+      <c r="A28" s="120"/>
       <c r="B28" s="2" t="s">
         <v>6</v>
       </c>
@@ -4719,7 +4713,7 @@
       </c>
     </row>
     <row r="29" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="99"/>
+      <c r="A29" s="120"/>
       <c r="B29" s="2" t="s">
         <v>7</v>
       </c>
@@ -4736,7 +4730,7 @@
       </c>
     </row>
     <row r="30" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="99"/>
+      <c r="A30" s="120"/>
       <c r="B30" s="2" t="s">
         <v>8</v>
       </c>
@@ -4753,7 +4747,7 @@
       </c>
     </row>
     <row r="31" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="99"/>
+      <c r="A31" s="120"/>
       <c r="B31" s="2" t="s">
         <v>48</v>
       </c>
@@ -4770,7 +4764,7 @@
       </c>
     </row>
     <row r="32" spans="1:10" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="99"/>
+      <c r="A32" s="120"/>
       <c r="B32" s="2" t="s">
         <v>9</v>
       </c>
@@ -4825,18 +4819,18 @@
       </c>
     </row>
     <row r="35" spans="1:10" s="37" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="97" t="s">
+      <c r="A35" s="118" t="s">
         <v>12</v>
       </c>
-      <c r="B35" s="100"/>
-      <c r="C35" s="100"/>
-      <c r="D35" s="100"/>
-      <c r="E35" s="100"/>
-      <c r="F35" s="100"/>
-      <c r="G35" s="100"/>
-      <c r="H35" s="100"/>
-      <c r="I35" s="100"/>
-      <c r="J35" s="100"/>
+      <c r="B35" s="126"/>
+      <c r="C35" s="126"/>
+      <c r="D35" s="126"/>
+      <c r="E35" s="126"/>
+      <c r="F35" s="126"/>
+      <c r="G35" s="126"/>
+      <c r="H35" s="126"/>
+      <c r="I35" s="126"/>
+      <c r="J35" s="126"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" s="33" t="s">
@@ -4908,18 +4902,18 @@
       <c r="J2" s="65"/>
     </row>
     <row r="3" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="96" t="s">
+      <c r="A3" s="117" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="99"/>
-      <c r="C3" s="99"/>
-      <c r="D3" s="99"/>
-      <c r="E3" s="99"/>
-      <c r="F3" s="99"/>
-      <c r="G3" s="99"/>
-      <c r="H3" s="99"/>
-      <c r="I3" s="99"/>
-      <c r="J3" s="129"/>
+      <c r="B3" s="120"/>
+      <c r="C3" s="120"/>
+      <c r="D3" s="120"/>
+      <c r="E3" s="120"/>
+      <c r="F3" s="120"/>
+      <c r="G3" s="120"/>
+      <c r="H3" s="120"/>
+      <c r="I3" s="120"/>
+      <c r="J3" s="150"/>
     </row>
     <row r="4" spans="1:10" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="66"/>
@@ -5078,18 +5072,18 @@
       <c r="J11" s="65"/>
     </row>
     <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="97" t="s">
+      <c r="A12" s="118" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="100"/>
-      <c r="C12" s="100"/>
-      <c r="D12" s="100"/>
-      <c r="E12" s="100"/>
-      <c r="F12" s="100"/>
-      <c r="G12" s="100"/>
-      <c r="H12" s="100"/>
-      <c r="I12" s="100"/>
-      <c r="J12" s="100"/>
+      <c r="B12" s="126"/>
+      <c r="C12" s="126"/>
+      <c r="D12" s="126"/>
+      <c r="E12" s="126"/>
+      <c r="F12" s="126"/>
+      <c r="G12" s="126"/>
+      <c r="H12" s="126"/>
+      <c r="I12" s="126"/>
+      <c r="J12" s="126"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="64"/>
@@ -5129,15 +5123,16 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84595693-2766-4438-88C6-66C4A1683268}">
-  <dimension ref="A1:Z107"/>
+  <dimension ref="A1:Z105"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" style="134" customWidth="1"/>
-    <col min="2" max="10" width="20.7109375" style="134" customWidth="1"/>
-    <col min="11" max="16384" width="14.42578125" style="134"/>
+    <col min="1" max="1" width="15.7109375" style="96" customWidth="1"/>
+    <col min="2" max="9" width="20.7109375" style="96" customWidth="1"/>
+    <col min="10" max="11" width="22.7109375" style="96" customWidth="1"/>
+    <col min="12" max="16384" width="14.42578125" style="96"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="23.25" x14ac:dyDescent="0.35">
@@ -5146,1533 +5141,1999 @@
       </c>
     </row>
     <row r="3" spans="1:26" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A3" s="96" t="s">
+      <c r="A3" s="117" t="s">
         <v>97</v>
       </c>
-      <c r="B3" s="99"/>
-      <c r="C3" s="99"/>
-      <c r="D3" s="99"/>
-      <c r="E3" s="99"/>
-      <c r="F3" s="99"/>
-      <c r="G3" s="99"/>
-      <c r="H3" s="99"/>
-      <c r="I3" s="99"/>
-      <c r="J3" s="129"/>
-    </row>
-    <row r="4" spans="1:26" s="152" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="150"/>
-      <c r="B4" s="151"/>
-      <c r="C4" s="151"/>
-      <c r="D4" s="151"/>
-      <c r="E4" s="151"/>
-      <c r="F4" s="151"/>
-      <c r="G4" s="151"/>
-      <c r="H4" s="151"/>
-      <c r="I4" s="151"/>
-      <c r="J4" s="151"/>
-      <c r="K4" s="151"/>
-      <c r="L4" s="151"/>
-      <c r="M4" s="151"/>
-      <c r="N4" s="151"/>
-      <c r="O4" s="151"/>
-      <c r="P4" s="151"/>
-      <c r="Q4" s="151"/>
-      <c r="R4" s="151"/>
-      <c r="S4" s="151"/>
-      <c r="T4" s="151"/>
-      <c r="U4" s="151"/>
-      <c r="V4" s="151"/>
-      <c r="W4" s="151"/>
-      <c r="X4" s="151"/>
-      <c r="Y4" s="151"/>
-      <c r="Z4" s="151"/>
-    </row>
-    <row r="5" spans="1:26" s="154" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="71" t="s">
+      <c r="B3" s="117"/>
+      <c r="C3" s="117"/>
+      <c r="D3" s="117"/>
+      <c r="E3" s="117"/>
+      <c r="F3" s="117"/>
+      <c r="G3" s="117"/>
+      <c r="H3" s="117"/>
+      <c r="I3" s="117"/>
+      <c r="J3" s="117"/>
+      <c r="K3" s="117"/>
+    </row>
+    <row r="4" spans="1:26" s="110" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="108"/>
+      <c r="B4" s="109"/>
+      <c r="C4" s="109"/>
+      <c r="D4" s="109"/>
+      <c r="E4" s="109"/>
+      <c r="F4" s="109"/>
+      <c r="G4" s="109"/>
+      <c r="H4" s="109"/>
+      <c r="I4" s="109"/>
+      <c r="J4" s="109"/>
+      <c r="K4" s="109"/>
+      <c r="L4" s="109"/>
+      <c r="M4" s="109"/>
+      <c r="N4" s="109"/>
+      <c r="O4" s="109"/>
+      <c r="P4" s="109"/>
+      <c r="Q4" s="109"/>
+      <c r="R4" s="109"/>
+      <c r="S4" s="109"/>
+      <c r="T4" s="109"/>
+      <c r="U4" s="109"/>
+      <c r="V4" s="109"/>
+      <c r="W4" s="109"/>
+      <c r="X4" s="109"/>
+      <c r="Y4" s="109"/>
+      <c r="Z4" s="109"/>
+    </row>
+    <row r="5" spans="1:26" s="112" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="66" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="6" spans="1:26" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="135" t="s">
+    <row r="6" spans="1:26" ht="45" x14ac:dyDescent="0.25">
+      <c r="A6" s="97" t="s">
         <v>71</v>
       </c>
-      <c r="B6" s="138" t="s">
+      <c r="B6" s="100" t="s">
         <v>88</v>
       </c>
-      <c r="C6" s="138" t="s">
+      <c r="C6" s="100" t="s">
         <v>89</v>
       </c>
-      <c r="D6" s="138" t="s">
+      <c r="D6" s="100" t="s">
         <v>90</v>
       </c>
-      <c r="E6" s="138" t="s">
+      <c r="E6" s="100" t="s">
         <v>91</v>
       </c>
-      <c r="F6" s="138" t="s">
+      <c r="F6" s="100" t="s">
         <v>96</v>
       </c>
-      <c r="G6" s="138" t="s">
+      <c r="G6" s="100" t="s">
         <v>92</v>
       </c>
-      <c r="H6" s="139" t="s">
+      <c r="H6" s="101" t="s">
         <v>93</v>
       </c>
-      <c r="I6" s="138" t="s">
+      <c r="I6" s="100" t="s">
         <v>94</v>
       </c>
+      <c r="J6" s="159" t="s">
+        <v>99</v>
+      </c>
+      <c r="K6" s="159" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A7" s="141"/>
-      <c r="B7" s="141"/>
-      <c r="C7" s="142"/>
-      <c r="D7" s="142"/>
-      <c r="E7" s="142"/>
-      <c r="F7" s="142"/>
-      <c r="G7" s="142"/>
-      <c r="H7" s="143"/>
-      <c r="I7" s="142"/>
+      <c r="A7" s="158"/>
+      <c r="B7" s="155"/>
+      <c r="C7" s="156"/>
+      <c r="D7" s="156"/>
+      <c r="E7" s="156"/>
+      <c r="F7" s="156"/>
+      <c r="G7" s="156"/>
+      <c r="H7" s="157"/>
+      <c r="I7" s="156"/>
+      <c r="J7" s="160" t="str">
+        <f>IF(ISBLANK(A7),"",SUM(B7:G7))</f>
+        <v/>
+      </c>
+      <c r="K7" s="160" t="str">
+        <f>IF(ISBLANK(A7),"",SUM(B7:H7))</f>
+        <v/>
+      </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A8" s="141"/>
-      <c r="B8" s="141"/>
-      <c r="C8" s="142"/>
-      <c r="D8" s="142"/>
-      <c r="E8" s="142"/>
-      <c r="F8" s="142"/>
-      <c r="G8" s="142"/>
-      <c r="H8" s="143"/>
-      <c r="I8" s="142"/>
+      <c r="A8" s="158"/>
+      <c r="B8" s="155"/>
+      <c r="C8" s="156"/>
+      <c r="D8" s="156"/>
+      <c r="E8" s="156"/>
+      <c r="F8" s="156"/>
+      <c r="G8" s="156"/>
+      <c r="H8" s="157"/>
+      <c r="I8" s="156"/>
+      <c r="J8" s="160" t="str">
+        <f t="shared" ref="J8:J36" si="0">IF(ISBLANK(A8),"",SUM(B8:G8))</f>
+        <v/>
+      </c>
+      <c r="K8" s="160" t="str">
+        <f t="shared" ref="K8:K36" si="1">IF(ISBLANK(A8),"",SUM(B8:H8))</f>
+        <v/>
+      </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A9" s="141"/>
-      <c r="B9" s="141"/>
-      <c r="C9" s="142"/>
-      <c r="D9" s="142"/>
-      <c r="E9" s="142"/>
-      <c r="F9" s="142"/>
-      <c r="G9" s="142"/>
-      <c r="H9" s="143"/>
-      <c r="I9" s="142"/>
+      <c r="A9" s="158"/>
+      <c r="B9" s="155"/>
+      <c r="C9" s="156"/>
+      <c r="D9" s="156"/>
+      <c r="E9" s="156"/>
+      <c r="F9" s="156"/>
+      <c r="G9" s="156"/>
+      <c r="H9" s="157"/>
+      <c r="I9" s="156"/>
+      <c r="J9" s="160" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K9" s="160" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A10" s="141"/>
-      <c r="B10" s="141"/>
-      <c r="C10" s="142"/>
-      <c r="D10" s="142"/>
-      <c r="E10" s="142"/>
-      <c r="F10" s="142"/>
-      <c r="G10" s="142"/>
-      <c r="H10" s="143"/>
-      <c r="I10" s="142"/>
+      <c r="A10" s="158"/>
+      <c r="B10" s="155"/>
+      <c r="C10" s="156"/>
+      <c r="D10" s="156"/>
+      <c r="E10" s="156"/>
+      <c r="F10" s="156"/>
+      <c r="G10" s="156"/>
+      <c r="H10" s="157"/>
+      <c r="I10" s="156"/>
+      <c r="J10" s="160" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K10" s="160" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A11" s="141"/>
-      <c r="B11" s="141"/>
-      <c r="C11" s="142"/>
-      <c r="D11" s="142"/>
-      <c r="E11" s="142"/>
-      <c r="F11" s="142"/>
-      <c r="G11" s="142"/>
-      <c r="H11" s="143"/>
-      <c r="I11" s="142"/>
+      <c r="A11" s="158"/>
+      <c r="B11" s="155"/>
+      <c r="C11" s="156"/>
+      <c r="D11" s="156"/>
+      <c r="E11" s="156"/>
+      <c r="F11" s="156"/>
+      <c r="G11" s="156"/>
+      <c r="H11" s="157"/>
+      <c r="I11" s="156"/>
+      <c r="J11" s="160" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K11" s="160" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A12" s="141"/>
-      <c r="B12" s="141"/>
-      <c r="C12" s="142"/>
-      <c r="D12" s="142"/>
-      <c r="E12" s="142"/>
-      <c r="F12" s="142"/>
-      <c r="G12" s="142"/>
-      <c r="H12" s="143"/>
-      <c r="I12" s="142"/>
+      <c r="A12" s="158"/>
+      <c r="B12" s="155"/>
+      <c r="C12" s="156"/>
+      <c r="D12" s="156"/>
+      <c r="E12" s="156"/>
+      <c r="F12" s="156"/>
+      <c r="G12" s="156"/>
+      <c r="H12" s="157"/>
+      <c r="I12" s="156"/>
+      <c r="J12" s="160" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K12" s="160" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A13" s="141"/>
-      <c r="B13" s="141"/>
-      <c r="C13" s="142"/>
-      <c r="D13" s="142"/>
-      <c r="E13" s="142"/>
-      <c r="F13" s="142"/>
-      <c r="G13" s="142"/>
-      <c r="H13" s="143"/>
-      <c r="I13" s="142"/>
+      <c r="A13" s="158"/>
+      <c r="B13" s="155"/>
+      <c r="C13" s="156"/>
+      <c r="D13" s="156"/>
+      <c r="E13" s="156"/>
+      <c r="F13" s="156"/>
+      <c r="G13" s="156"/>
+      <c r="H13" s="157"/>
+      <c r="I13" s="156"/>
+      <c r="J13" s="160" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K13" s="160" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A14" s="141"/>
-      <c r="B14" s="141"/>
-      <c r="C14" s="142"/>
-      <c r="D14" s="142"/>
-      <c r="E14" s="142"/>
-      <c r="F14" s="142"/>
-      <c r="G14" s="142"/>
-      <c r="H14" s="143"/>
-      <c r="I14" s="142"/>
+      <c r="A14" s="158"/>
+      <c r="B14" s="155"/>
+      <c r="C14" s="156"/>
+      <c r="D14" s="156"/>
+      <c r="E14" s="156"/>
+      <c r="F14" s="156"/>
+      <c r="G14" s="156"/>
+      <c r="H14" s="157"/>
+      <c r="I14" s="156"/>
+      <c r="J14" s="160" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K14" s="160" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A15" s="141"/>
-      <c r="B15" s="141"/>
-      <c r="C15" s="142"/>
-      <c r="D15" s="142"/>
-      <c r="E15" s="142"/>
-      <c r="F15" s="142"/>
-      <c r="G15" s="142"/>
-      <c r="H15" s="143"/>
-      <c r="I15" s="142"/>
+      <c r="A15" s="158"/>
+      <c r="B15" s="155"/>
+      <c r="C15" s="156"/>
+      <c r="D15" s="156"/>
+      <c r="E15" s="156"/>
+      <c r="F15" s="156"/>
+      <c r="G15" s="156"/>
+      <c r="H15" s="157"/>
+      <c r="I15" s="156"/>
+      <c r="J15" s="160" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K15" s="160" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A16" s="141"/>
-      <c r="B16" s="141"/>
-      <c r="C16" s="142"/>
-      <c r="D16" s="142"/>
-      <c r="E16" s="142"/>
-      <c r="F16" s="142"/>
-      <c r="G16" s="142"/>
-      <c r="H16" s="143"/>
-      <c r="I16" s="142"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="141"/>
-      <c r="B17" s="141"/>
-      <c r="C17" s="142"/>
-      <c r="D17" s="142"/>
-      <c r="E17" s="142"/>
-      <c r="F17" s="142"/>
-      <c r="G17" s="142"/>
-      <c r="H17" s="143"/>
-      <c r="I17" s="142"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="141"/>
-      <c r="B18" s="141"/>
-      <c r="C18" s="142"/>
-      <c r="D18" s="142"/>
-      <c r="E18" s="142"/>
-      <c r="F18" s="142"/>
-      <c r="G18" s="142"/>
-      <c r="H18" s="143"/>
-      <c r="I18" s="142"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="141"/>
-      <c r="B19" s="141"/>
-      <c r="C19" s="142"/>
-      <c r="D19" s="142"/>
-      <c r="E19" s="142"/>
-      <c r="F19" s="142"/>
-      <c r="G19" s="142"/>
-      <c r="H19" s="143"/>
-      <c r="I19" s="142"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="141"/>
-      <c r="B20" s="141"/>
-      <c r="C20" s="142"/>
-      <c r="D20" s="142"/>
-      <c r="E20" s="142"/>
-      <c r="F20" s="142"/>
-      <c r="G20" s="142"/>
-      <c r="H20" s="143"/>
-      <c r="I20" s="142"/>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="141"/>
-      <c r="B21" s="141"/>
-      <c r="C21" s="142"/>
-      <c r="D21" s="142"/>
-      <c r="E21" s="142"/>
-      <c r="F21" s="142"/>
-      <c r="G21" s="142"/>
-      <c r="H21" s="143"/>
-      <c r="I21" s="142"/>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="141"/>
-      <c r="B22" s="141"/>
-      <c r="C22" s="142"/>
-      <c r="D22" s="142"/>
-      <c r="E22" s="142"/>
-      <c r="F22" s="142"/>
-      <c r="G22" s="142"/>
-      <c r="H22" s="143"/>
-      <c r="I22" s="142"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="141"/>
-      <c r="B23" s="141"/>
-      <c r="C23" s="142"/>
-      <c r="D23" s="142"/>
-      <c r="E23" s="142"/>
-      <c r="F23" s="142"/>
-      <c r="G23" s="142"/>
-      <c r="H23" s="143"/>
-      <c r="I23" s="142"/>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="141"/>
-      <c r="B24" s="141"/>
-      <c r="C24" s="142"/>
-      <c r="D24" s="142"/>
-      <c r="E24" s="142"/>
-      <c r="F24" s="142"/>
-      <c r="G24" s="142"/>
-      <c r="H24" s="143"/>
-      <c r="I24" s="142"/>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="141"/>
-      <c r="B25" s="141"/>
-      <c r="C25" s="142"/>
-      <c r="D25" s="142"/>
-      <c r="E25" s="142"/>
-      <c r="F25" s="142"/>
-      <c r="G25" s="142"/>
-      <c r="H25" s="143"/>
-      <c r="I25" s="142"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="141"/>
-      <c r="B26" s="141"/>
-      <c r="C26" s="142"/>
-      <c r="D26" s="142"/>
-      <c r="E26" s="142"/>
-      <c r="F26" s="142"/>
-      <c r="G26" s="142"/>
-      <c r="H26" s="143"/>
-      <c r="I26" s="142"/>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="141"/>
-      <c r="B27" s="141"/>
-      <c r="C27" s="142"/>
-      <c r="D27" s="142"/>
-      <c r="E27" s="142"/>
-      <c r="F27" s="142"/>
-      <c r="G27" s="142"/>
-      <c r="H27" s="143"/>
-      <c r="I27" s="142"/>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="141"/>
-      <c r="B28" s="141"/>
-      <c r="C28" s="142"/>
-      <c r="D28" s="142"/>
-      <c r="E28" s="142"/>
-      <c r="F28" s="142"/>
-      <c r="G28" s="142"/>
-      <c r="H28" s="143"/>
-      <c r="I28" s="142"/>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="141"/>
-      <c r="B29" s="141"/>
-      <c r="C29" s="142"/>
-      <c r="D29" s="142"/>
-      <c r="E29" s="142"/>
-      <c r="F29" s="142"/>
-      <c r="G29" s="142"/>
-      <c r="H29" s="143"/>
-      <c r="I29" s="142"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="141"/>
-      <c r="B30" s="141"/>
-      <c r="C30" s="142"/>
-      <c r="D30" s="142"/>
-      <c r="E30" s="142"/>
-      <c r="F30" s="142"/>
-      <c r="G30" s="142"/>
-      <c r="H30" s="143"/>
-      <c r="I30" s="142"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="141"/>
-      <c r="B31" s="141"/>
-      <c r="C31" s="142"/>
-      <c r="D31" s="142"/>
-      <c r="E31" s="142"/>
-      <c r="F31" s="142"/>
-      <c r="G31" s="142"/>
-      <c r="H31" s="143"/>
-      <c r="I31" s="142"/>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="141"/>
-      <c r="B32" s="141"/>
-      <c r="C32" s="142"/>
-      <c r="D32" s="142"/>
-      <c r="E32" s="142"/>
-      <c r="F32" s="142"/>
-      <c r="G32" s="142"/>
-      <c r="H32" s="143"/>
-      <c r="I32" s="142"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="141"/>
-      <c r="B33" s="141"/>
-      <c r="C33" s="142"/>
-      <c r="D33" s="142"/>
-      <c r="E33" s="142"/>
-      <c r="F33" s="142"/>
-      <c r="G33" s="142"/>
-      <c r="H33" s="143"/>
-      <c r="I33" s="142"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="141"/>
-      <c r="B34" s="141"/>
-      <c r="C34" s="142"/>
-      <c r="D34" s="142"/>
-      <c r="E34" s="142"/>
-      <c r="F34" s="142"/>
-      <c r="G34" s="142"/>
-      <c r="H34" s="143"/>
-      <c r="I34" s="142"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="141"/>
-      <c r="B35" s="141"/>
-      <c r="C35" s="142"/>
-      <c r="D35" s="142"/>
-      <c r="E35" s="142"/>
-      <c r="F35" s="142"/>
-      <c r="G35" s="142"/>
-      <c r="H35" s="143"/>
-      <c r="I35" s="142"/>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="141"/>
-      <c r="B36" s="141"/>
-      <c r="C36" s="142"/>
-      <c r="D36" s="142"/>
-      <c r="E36" s="142"/>
-      <c r="F36" s="142"/>
-      <c r="G36" s="142"/>
-      <c r="H36" s="143"/>
-      <c r="I36" s="142"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="155"/>
-      <c r="B37" s="155"/>
-      <c r="C37" s="156"/>
-      <c r="D37" s="156"/>
-      <c r="E37" s="156"/>
-      <c r="F37" s="156"/>
-      <c r="G37" s="156"/>
-      <c r="H37" s="156"/>
-      <c r="I37" s="156"/>
-    </row>
-    <row r="38" spans="1:9" s="154" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="71" t="s">
+      <c r="A16" s="158"/>
+      <c r="B16" s="155"/>
+      <c r="C16" s="156"/>
+      <c r="D16" s="156"/>
+      <c r="E16" s="156"/>
+      <c r="F16" s="156"/>
+      <c r="G16" s="156"/>
+      <c r="H16" s="157"/>
+      <c r="I16" s="156"/>
+      <c r="J16" s="160" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K16" s="160" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="158"/>
+      <c r="B17" s="155"/>
+      <c r="C17" s="156"/>
+      <c r="D17" s="156"/>
+      <c r="E17" s="156"/>
+      <c r="F17" s="156"/>
+      <c r="G17" s="156"/>
+      <c r="H17" s="157"/>
+      <c r="I17" s="156"/>
+      <c r="J17" s="160" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K17" s="160" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" s="158"/>
+      <c r="B18" s="155"/>
+      <c r="C18" s="156"/>
+      <c r="D18" s="156"/>
+      <c r="E18" s="156"/>
+      <c r="F18" s="156"/>
+      <c r="G18" s="156"/>
+      <c r="H18" s="157"/>
+      <c r="I18" s="156"/>
+      <c r="J18" s="160" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K18" s="160" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" s="158"/>
+      <c r="B19" s="155"/>
+      <c r="C19" s="156"/>
+      <c r="D19" s="156"/>
+      <c r="E19" s="156"/>
+      <c r="F19" s="156"/>
+      <c r="G19" s="156"/>
+      <c r="H19" s="157"/>
+      <c r="I19" s="156"/>
+      <c r="J19" s="160" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K19" s="160" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" s="158"/>
+      <c r="B20" s="155"/>
+      <c r="C20" s="156"/>
+      <c r="D20" s="156"/>
+      <c r="E20" s="156"/>
+      <c r="F20" s="156"/>
+      <c r="G20" s="156"/>
+      <c r="H20" s="157"/>
+      <c r="I20" s="156"/>
+      <c r="J20" s="160" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K20" s="160" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" s="158"/>
+      <c r="B21" s="155"/>
+      <c r="C21" s="156"/>
+      <c r="D21" s="156"/>
+      <c r="E21" s="156"/>
+      <c r="F21" s="156"/>
+      <c r="G21" s="156"/>
+      <c r="H21" s="157"/>
+      <c r="I21" s="156"/>
+      <c r="J21" s="160" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K21" s="160" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" s="158"/>
+      <c r="B22" s="155"/>
+      <c r="C22" s="156"/>
+      <c r="D22" s="156"/>
+      <c r="E22" s="156"/>
+      <c r="F22" s="156"/>
+      <c r="G22" s="156"/>
+      <c r="H22" s="157"/>
+      <c r="I22" s="156"/>
+      <c r="J22" s="160" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K22" s="160" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" s="158"/>
+      <c r="B23" s="155"/>
+      <c r="C23" s="156"/>
+      <c r="D23" s="156"/>
+      <c r="E23" s="156"/>
+      <c r="F23" s="156"/>
+      <c r="G23" s="156"/>
+      <c r="H23" s="157"/>
+      <c r="I23" s="156"/>
+      <c r="J23" s="160" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K23" s="160" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" s="158"/>
+      <c r="B24" s="155"/>
+      <c r="C24" s="156"/>
+      <c r="D24" s="156"/>
+      <c r="E24" s="156"/>
+      <c r="F24" s="156"/>
+      <c r="G24" s="156"/>
+      <c r="H24" s="157"/>
+      <c r="I24" s="156"/>
+      <c r="J24" s="160" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K24" s="160" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" s="158"/>
+      <c r="B25" s="155"/>
+      <c r="C25" s="156"/>
+      <c r="D25" s="156"/>
+      <c r="E25" s="156"/>
+      <c r="F25" s="156"/>
+      <c r="G25" s="156"/>
+      <c r="H25" s="157"/>
+      <c r="I25" s="156"/>
+      <c r="J25" s="160" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K25" s="160" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" s="158"/>
+      <c r="B26" s="155"/>
+      <c r="C26" s="156"/>
+      <c r="D26" s="156"/>
+      <c r="E26" s="156"/>
+      <c r="F26" s="156"/>
+      <c r="G26" s="156"/>
+      <c r="H26" s="157"/>
+      <c r="I26" s="156"/>
+      <c r="J26" s="160" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K26" s="160" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" s="158"/>
+      <c r="B27" s="155"/>
+      <c r="C27" s="156"/>
+      <c r="D27" s="156"/>
+      <c r="E27" s="156"/>
+      <c r="F27" s="156"/>
+      <c r="G27" s="156"/>
+      <c r="H27" s="157"/>
+      <c r="I27" s="156"/>
+      <c r="J27" s="160" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K27" s="160" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" s="158"/>
+      <c r="B28" s="155"/>
+      <c r="C28" s="156"/>
+      <c r="D28" s="156"/>
+      <c r="E28" s="156"/>
+      <c r="F28" s="156"/>
+      <c r="G28" s="156"/>
+      <c r="H28" s="157"/>
+      <c r="I28" s="156"/>
+      <c r="J28" s="160" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K28" s="160" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" s="158"/>
+      <c r="B29" s="155"/>
+      <c r="C29" s="156"/>
+      <c r="D29" s="156"/>
+      <c r="E29" s="156"/>
+      <c r="F29" s="156"/>
+      <c r="G29" s="156"/>
+      <c r="H29" s="157"/>
+      <c r="I29" s="156"/>
+      <c r="J29" s="160" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K29" s="160" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A30" s="158"/>
+      <c r="B30" s="155"/>
+      <c r="C30" s="156"/>
+      <c r="D30" s="156"/>
+      <c r="E30" s="156"/>
+      <c r="F30" s="156"/>
+      <c r="G30" s="156"/>
+      <c r="H30" s="157"/>
+      <c r="I30" s="156"/>
+      <c r="J30" s="160" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K30" s="160" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="158"/>
+      <c r="B31" s="155"/>
+      <c r="C31" s="156"/>
+      <c r="D31" s="156"/>
+      <c r="E31" s="156"/>
+      <c r="F31" s="156"/>
+      <c r="G31" s="156"/>
+      <c r="H31" s="157"/>
+      <c r="I31" s="156"/>
+      <c r="J31" s="160" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K31" s="160" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" s="158"/>
+      <c r="B32" s="155"/>
+      <c r="C32" s="156"/>
+      <c r="D32" s="156"/>
+      <c r="E32" s="156"/>
+      <c r="F32" s="156"/>
+      <c r="G32" s="156"/>
+      <c r="H32" s="157"/>
+      <c r="I32" s="156"/>
+      <c r="J32" s="160" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K32" s="160" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" s="158"/>
+      <c r="B33" s="155"/>
+      <c r="C33" s="156"/>
+      <c r="D33" s="156"/>
+      <c r="E33" s="156"/>
+      <c r="F33" s="156"/>
+      <c r="G33" s="156"/>
+      <c r="H33" s="157"/>
+      <c r="I33" s="156"/>
+      <c r="J33" s="160" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K33" s="160" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" s="158"/>
+      <c r="B34" s="155"/>
+      <c r="C34" s="156"/>
+      <c r="D34" s="156"/>
+      <c r="E34" s="156"/>
+      <c r="F34" s="156"/>
+      <c r="G34" s="156"/>
+      <c r="H34" s="157"/>
+      <c r="I34" s="156"/>
+      <c r="J34" s="160" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K34" s="160" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" s="158"/>
+      <c r="B35" s="155"/>
+      <c r="C35" s="156"/>
+      <c r="D35" s="156"/>
+      <c r="E35" s="156"/>
+      <c r="F35" s="156"/>
+      <c r="G35" s="156"/>
+      <c r="H35" s="157"/>
+      <c r="I35" s="156"/>
+      <c r="J35" s="160" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K35" s="160" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" s="158"/>
+      <c r="B36" s="155"/>
+      <c r="C36" s="156"/>
+      <c r="D36" s="156"/>
+      <c r="E36" s="156"/>
+      <c r="F36" s="156"/>
+      <c r="G36" s="156"/>
+      <c r="H36" s="157"/>
+      <c r="I36" s="156"/>
+      <c r="J36" s="160" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="K36" s="160" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" s="113"/>
+      <c r="B37" s="113"/>
+      <c r="C37" s="114"/>
+      <c r="D37" s="114"/>
+      <c r="E37" s="114"/>
+      <c r="F37" s="114"/>
+      <c r="G37" s="114"/>
+      <c r="H37" s="114"/>
+      <c r="I37" s="114"/>
+    </row>
+    <row r="38" spans="1:11" s="112" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A38" s="66" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="135" t="s">
+    <row r="39" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+      <c r="A39" s="97" t="s">
         <v>71</v>
       </c>
-      <c r="B39" s="138" t="s">
+      <c r="B39" s="100" t="s">
         <v>88</v>
       </c>
-      <c r="C39" s="138" t="s">
+      <c r="C39" s="100" t="s">
         <v>89</v>
       </c>
-      <c r="D39" s="138" t="s">
+      <c r="D39" s="100" t="s">
         <v>90</v>
       </c>
-      <c r="E39" s="138" t="s">
+      <c r="E39" s="100" t="s">
         <v>91</v>
       </c>
-      <c r="F39" s="138" t="s">
+      <c r="F39" s="100" t="s">
         <v>96</v>
       </c>
-      <c r="G39" s="138" t="s">
+      <c r="G39" s="100" t="s">
         <v>92</v>
       </c>
-      <c r="H39" s="139" t="s">
+      <c r="H39" s="101" t="s">
         <v>93</v>
       </c>
-      <c r="I39" s="138" t="s">
+      <c r="I39" s="100" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="141"/>
-      <c r="B40" s="141"/>
-      <c r="C40" s="142"/>
-      <c r="D40" s="142"/>
-      <c r="E40" s="142"/>
-      <c r="F40" s="142"/>
-      <c r="G40" s="142"/>
-      <c r="H40" s="143"/>
-      <c r="I40" s="142"/>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="141"/>
-      <c r="B41" s="141"/>
-      <c r="C41" s="142"/>
-      <c r="D41" s="142"/>
-      <c r="E41" s="142"/>
-      <c r="F41" s="142"/>
-      <c r="G41" s="142"/>
-      <c r="H41" s="143"/>
-      <c r="I41" s="142"/>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="141"/>
-      <c r="B42" s="141"/>
-      <c r="C42" s="142"/>
-      <c r="D42" s="142"/>
-      <c r="E42" s="142"/>
-      <c r="F42" s="142"/>
-      <c r="G42" s="142"/>
-      <c r="H42" s="143"/>
-      <c r="I42" s="142"/>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="141"/>
-      <c r="B43" s="141"/>
-      <c r="C43" s="142"/>
-      <c r="D43" s="142"/>
-      <c r="E43" s="142"/>
-      <c r="F43" s="142"/>
-      <c r="G43" s="142"/>
-      <c r="H43" s="143"/>
-      <c r="I43" s="142"/>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="141"/>
-      <c r="B44" s="141"/>
-      <c r="C44" s="142"/>
-      <c r="D44" s="142"/>
-      <c r="E44" s="142"/>
-      <c r="F44" s="142"/>
-      <c r="G44" s="142"/>
-      <c r="H44" s="143"/>
-      <c r="I44" s="142"/>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="141"/>
-      <c r="B45" s="141"/>
-      <c r="C45" s="142"/>
-      <c r="D45" s="142"/>
-      <c r="E45" s="142"/>
-      <c r="F45" s="142"/>
-      <c r="G45" s="142"/>
-      <c r="H45" s="143"/>
-      <c r="I45" s="142"/>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="141"/>
-      <c r="B46" s="141"/>
-      <c r="C46" s="142"/>
-      <c r="D46" s="142"/>
-      <c r="E46" s="142"/>
-      <c r="F46" s="142"/>
-      <c r="G46" s="142"/>
-      <c r="H46" s="143"/>
-      <c r="I46" s="142"/>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="141"/>
-      <c r="B47" s="141"/>
-      <c r="C47" s="142"/>
-      <c r="D47" s="142"/>
-      <c r="E47" s="142"/>
-      <c r="F47" s="142"/>
-      <c r="G47" s="142"/>
-      <c r="H47" s="143"/>
-      <c r="I47" s="142"/>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="141"/>
-      <c r="B48" s="141"/>
-      <c r="C48" s="142"/>
-      <c r="D48" s="142"/>
-      <c r="E48" s="142"/>
-      <c r="F48" s="142"/>
-      <c r="G48" s="142"/>
-      <c r="H48" s="143"/>
-      <c r="I48" s="142"/>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="141"/>
-      <c r="B49" s="141"/>
-      <c r="C49" s="142"/>
-      <c r="D49" s="142"/>
-      <c r="E49" s="142"/>
-      <c r="F49" s="142"/>
-      <c r="G49" s="142"/>
-      <c r="H49" s="143"/>
-      <c r="I49" s="142"/>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="141"/>
-      <c r="B50" s="141"/>
-      <c r="C50" s="142"/>
-      <c r="D50" s="142"/>
-      <c r="E50" s="142"/>
-      <c r="F50" s="142"/>
-      <c r="G50" s="142"/>
-      <c r="H50" s="143"/>
-      <c r="I50" s="142"/>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="141"/>
-      <c r="B51" s="141"/>
-      <c r="C51" s="142"/>
-      <c r="D51" s="142"/>
-      <c r="E51" s="142"/>
-      <c r="F51" s="142"/>
-      <c r="G51" s="142"/>
-      <c r="H51" s="143"/>
-      <c r="I51" s="142"/>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="141"/>
-      <c r="B52" s="141"/>
-      <c r="C52" s="142"/>
-      <c r="D52" s="142"/>
-      <c r="E52" s="142"/>
-      <c r="F52" s="142"/>
-      <c r="G52" s="142"/>
-      <c r="H52" s="143"/>
-      <c r="I52" s="142"/>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A53" s="141"/>
-      <c r="B53" s="141"/>
-      <c r="C53" s="142"/>
-      <c r="D53" s="142"/>
-      <c r="E53" s="142"/>
-      <c r="F53" s="142"/>
-      <c r="G53" s="142"/>
-      <c r="H53" s="143"/>
-      <c r="I53" s="142"/>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A54" s="141"/>
-      <c r="B54" s="141"/>
-      <c r="C54" s="142"/>
-      <c r="D54" s="142"/>
-      <c r="E54" s="142"/>
-      <c r="F54" s="142"/>
-      <c r="G54" s="142"/>
-      <c r="H54" s="143"/>
-      <c r="I54" s="142"/>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" s="141"/>
-      <c r="B55" s="141"/>
-      <c r="C55" s="142"/>
-      <c r="D55" s="142"/>
-      <c r="E55" s="142"/>
-      <c r="F55" s="142"/>
-      <c r="G55" s="142"/>
-      <c r="H55" s="143"/>
-      <c r="I55" s="142"/>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A56" s="141"/>
-      <c r="B56" s="141"/>
-      <c r="C56" s="142"/>
-      <c r="D56" s="142"/>
-      <c r="E56" s="142"/>
-      <c r="F56" s="142"/>
-      <c r="G56" s="142"/>
-      <c r="H56" s="143"/>
-      <c r="I56" s="142"/>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A57" s="141"/>
-      <c r="B57" s="141"/>
-      <c r="C57" s="142"/>
-      <c r="D57" s="142"/>
-      <c r="E57" s="142"/>
-      <c r="F57" s="142"/>
-      <c r="G57" s="142"/>
-      <c r="H57" s="143"/>
-      <c r="I57" s="142"/>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A58" s="141"/>
-      <c r="B58" s="141"/>
-      <c r="C58" s="142"/>
-      <c r="D58" s="142"/>
-      <c r="E58" s="142"/>
-      <c r="F58" s="142"/>
-      <c r="G58" s="142"/>
-      <c r="H58" s="143"/>
-      <c r="I58" s="142"/>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A59" s="141"/>
-      <c r="B59" s="141"/>
-      <c r="C59" s="142"/>
-      <c r="D59" s="142"/>
-      <c r="E59" s="142"/>
-      <c r="F59" s="142"/>
-      <c r="G59" s="142"/>
-      <c r="H59" s="143"/>
-      <c r="I59" s="142"/>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A60" s="141"/>
-      <c r="B60" s="141"/>
-      <c r="C60" s="142"/>
-      <c r="D60" s="142"/>
-      <c r="E60" s="142"/>
-      <c r="F60" s="142"/>
-      <c r="G60" s="142"/>
-      <c r="H60" s="143"/>
-      <c r="I60" s="142"/>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="141"/>
-      <c r="B61" s="141"/>
-      <c r="C61" s="142"/>
-      <c r="D61" s="142"/>
-      <c r="E61" s="142"/>
-      <c r="F61" s="142"/>
-      <c r="G61" s="142"/>
-      <c r="H61" s="143"/>
-      <c r="I61" s="142"/>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="141"/>
-      <c r="B62" s="141"/>
-      <c r="C62" s="142"/>
-      <c r="D62" s="142"/>
-      <c r="E62" s="142"/>
-      <c r="F62" s="142"/>
-      <c r="G62" s="142"/>
-      <c r="H62" s="143"/>
-      <c r="I62" s="142"/>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A63" s="141"/>
-      <c r="B63" s="141"/>
-      <c r="C63" s="142"/>
-      <c r="D63" s="142"/>
-      <c r="E63" s="142"/>
-      <c r="F63" s="142"/>
-      <c r="G63" s="142"/>
-      <c r="H63" s="143"/>
-      <c r="I63" s="142"/>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A64" s="141"/>
-      <c r="B64" s="141"/>
-      <c r="C64" s="142"/>
-      <c r="D64" s="142"/>
-      <c r="E64" s="142"/>
-      <c r="F64" s="142"/>
-      <c r="G64" s="142"/>
-      <c r="H64" s="143"/>
-      <c r="I64" s="142"/>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A65" s="141"/>
-      <c r="B65" s="141"/>
-      <c r="C65" s="142"/>
-      <c r="D65" s="142"/>
-      <c r="E65" s="142"/>
-      <c r="F65" s="142"/>
-      <c r="G65" s="142"/>
-      <c r="H65" s="143"/>
-      <c r="I65" s="142"/>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A66" s="141"/>
-      <c r="B66" s="141"/>
-      <c r="C66" s="142"/>
-      <c r="D66" s="142"/>
-      <c r="E66" s="142"/>
-      <c r="F66" s="142"/>
-      <c r="G66" s="142"/>
-      <c r="H66" s="143"/>
-      <c r="I66" s="142"/>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67" s="141"/>
-      <c r="B67" s="141"/>
-      <c r="C67" s="142"/>
-      <c r="D67" s="142"/>
-      <c r="E67" s="142"/>
-      <c r="F67" s="142"/>
-      <c r="G67" s="142"/>
-      <c r="H67" s="143"/>
-      <c r="I67" s="142"/>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A68" s="141"/>
-      <c r="B68" s="141"/>
-      <c r="C68" s="142"/>
-      <c r="D68" s="142"/>
-      <c r="E68" s="142"/>
-      <c r="F68" s="142"/>
-      <c r="G68" s="142"/>
-      <c r="H68" s="143"/>
-      <c r="I68" s="142"/>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A69" s="141"/>
-      <c r="B69" s="141"/>
-      <c r="C69" s="142"/>
-      <c r="D69" s="142"/>
-      <c r="E69" s="142"/>
-      <c r="F69" s="142"/>
-      <c r="G69" s="142"/>
-      <c r="H69" s="143"/>
-      <c r="I69" s="142"/>
-    </row>
-    <row r="70" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" spans="1:10" s="154" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="71" t="s">
+      <c r="J39" s="159" t="s">
+        <v>99</v>
+      </c>
+      <c r="K39" s="159" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" s="158"/>
+      <c r="B40" s="155"/>
+      <c r="C40" s="156"/>
+      <c r="D40" s="156"/>
+      <c r="E40" s="156"/>
+      <c r="F40" s="156"/>
+      <c r="G40" s="156"/>
+      <c r="H40" s="157"/>
+      <c r="I40" s="156"/>
+      <c r="J40" s="160" t="str">
+        <f>IF(ISBLANK(A40),"",SUM(B40:G40))</f>
+        <v/>
+      </c>
+      <c r="K40" s="160" t="str">
+        <f>IF(ISBLANK(A40),"",SUM(B40:H40))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" s="158"/>
+      <c r="B41" s="155"/>
+      <c r="C41" s="156"/>
+      <c r="D41" s="156"/>
+      <c r="E41" s="156"/>
+      <c r="F41" s="156"/>
+      <c r="G41" s="156"/>
+      <c r="H41" s="157"/>
+      <c r="I41" s="156"/>
+      <c r="J41" s="160" t="str">
+        <f t="shared" ref="J41:J69" si="2">IF(ISBLANK(A41),"",SUM(B41:G41))</f>
+        <v/>
+      </c>
+      <c r="K41" s="160" t="str">
+        <f t="shared" ref="K41:K69" si="3">IF(ISBLANK(A41),"",SUM(B41:H41))</f>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" s="158"/>
+      <c r="B42" s="155"/>
+      <c r="C42" s="156"/>
+      <c r="D42" s="156"/>
+      <c r="E42" s="156"/>
+      <c r="F42" s="156"/>
+      <c r="G42" s="156"/>
+      <c r="H42" s="157"/>
+      <c r="I42" s="156"/>
+      <c r="J42" s="160" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="K42" s="160" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" s="158"/>
+      <c r="B43" s="155"/>
+      <c r="C43" s="156"/>
+      <c r="D43" s="156"/>
+      <c r="E43" s="156"/>
+      <c r="F43" s="156"/>
+      <c r="G43" s="156"/>
+      <c r="H43" s="157"/>
+      <c r="I43" s="156"/>
+      <c r="J43" s="160" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="K43" s="160" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" s="158"/>
+      <c r="B44" s="155"/>
+      <c r="C44" s="156"/>
+      <c r="D44" s="156"/>
+      <c r="E44" s="156"/>
+      <c r="F44" s="156"/>
+      <c r="G44" s="156"/>
+      <c r="H44" s="157"/>
+      <c r="I44" s="156"/>
+      <c r="J44" s="160" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="K44" s="160" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" s="158"/>
+      <c r="B45" s="155"/>
+      <c r="C45" s="156"/>
+      <c r="D45" s="156"/>
+      <c r="E45" s="156"/>
+      <c r="F45" s="156"/>
+      <c r="G45" s="156"/>
+      <c r="H45" s="157"/>
+      <c r="I45" s="156"/>
+      <c r="J45" s="160" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="K45" s="160" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" s="158"/>
+      <c r="B46" s="155"/>
+      <c r="C46" s="156"/>
+      <c r="D46" s="156"/>
+      <c r="E46" s="156"/>
+      <c r="F46" s="156"/>
+      <c r="G46" s="156"/>
+      <c r="H46" s="157"/>
+      <c r="I46" s="156"/>
+      <c r="J46" s="160" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="K46" s="160" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" s="158"/>
+      <c r="B47" s="155"/>
+      <c r="C47" s="156"/>
+      <c r="D47" s="156"/>
+      <c r="E47" s="156"/>
+      <c r="F47" s="156"/>
+      <c r="G47" s="156"/>
+      <c r="H47" s="157"/>
+      <c r="I47" s="156"/>
+      <c r="J47" s="160" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="K47" s="160" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" s="158"/>
+      <c r="B48" s="155"/>
+      <c r="C48" s="156"/>
+      <c r="D48" s="156"/>
+      <c r="E48" s="156"/>
+      <c r="F48" s="156"/>
+      <c r="G48" s="156"/>
+      <c r="H48" s="157"/>
+      <c r="I48" s="156"/>
+      <c r="J48" s="160" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="K48" s="160" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49" s="158"/>
+      <c r="B49" s="155"/>
+      <c r="C49" s="156"/>
+      <c r="D49" s="156"/>
+      <c r="E49" s="156"/>
+      <c r="F49" s="156"/>
+      <c r="G49" s="156"/>
+      <c r="H49" s="157"/>
+      <c r="I49" s="156"/>
+      <c r="J49" s="160" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="K49" s="160" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50" s="158"/>
+      <c r="B50" s="155"/>
+      <c r="C50" s="156"/>
+      <c r="D50" s="156"/>
+      <c r="E50" s="156"/>
+      <c r="F50" s="156"/>
+      <c r="G50" s="156"/>
+      <c r="H50" s="157"/>
+      <c r="I50" s="156"/>
+      <c r="J50" s="160" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="K50" s="160" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51" s="158"/>
+      <c r="B51" s="155"/>
+      <c r="C51" s="156"/>
+      <c r="D51" s="156"/>
+      <c r="E51" s="156"/>
+      <c r="F51" s="156"/>
+      <c r="G51" s="156"/>
+      <c r="H51" s="157"/>
+      <c r="I51" s="156"/>
+      <c r="J51" s="160" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="K51" s="160" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52" s="158"/>
+      <c r="B52" s="155"/>
+      <c r="C52" s="156"/>
+      <c r="D52" s="156"/>
+      <c r="E52" s="156"/>
+      <c r="F52" s="156"/>
+      <c r="G52" s="156"/>
+      <c r="H52" s="157"/>
+      <c r="I52" s="156"/>
+      <c r="J52" s="160" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="K52" s="160" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53" s="158"/>
+      <c r="B53" s="155"/>
+      <c r="C53" s="156"/>
+      <c r="D53" s="156"/>
+      <c r="E53" s="156"/>
+      <c r="F53" s="156"/>
+      <c r="G53" s="156"/>
+      <c r="H53" s="157"/>
+      <c r="I53" s="156"/>
+      <c r="J53" s="160" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="K53" s="160" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54" s="158"/>
+      <c r="B54" s="155"/>
+      <c r="C54" s="156"/>
+      <c r="D54" s="156"/>
+      <c r="E54" s="156"/>
+      <c r="F54" s="156"/>
+      <c r="G54" s="156"/>
+      <c r="H54" s="157"/>
+      <c r="I54" s="156"/>
+      <c r="J54" s="160" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="K54" s="160" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55" s="158"/>
+      <c r="B55" s="155"/>
+      <c r="C55" s="156"/>
+      <c r="D55" s="156"/>
+      <c r="E55" s="156"/>
+      <c r="F55" s="156"/>
+      <c r="G55" s="156"/>
+      <c r="H55" s="157"/>
+      <c r="I55" s="156"/>
+      <c r="J55" s="160" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="K55" s="160" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56" s="158"/>
+      <c r="B56" s="155"/>
+      <c r="C56" s="156"/>
+      <c r="D56" s="156"/>
+      <c r="E56" s="156"/>
+      <c r="F56" s="156"/>
+      <c r="G56" s="156"/>
+      <c r="H56" s="157"/>
+      <c r="I56" s="156"/>
+      <c r="J56" s="160" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="K56" s="160" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57" s="158"/>
+      <c r="B57" s="155"/>
+      <c r="C57" s="156"/>
+      <c r="D57" s="156"/>
+      <c r="E57" s="156"/>
+      <c r="F57" s="156"/>
+      <c r="G57" s="156"/>
+      <c r="H57" s="157"/>
+      <c r="I57" s="156"/>
+      <c r="J57" s="160" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="K57" s="160" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58" s="158"/>
+      <c r="B58" s="155"/>
+      <c r="C58" s="156"/>
+      <c r="D58" s="156"/>
+      <c r="E58" s="156"/>
+      <c r="F58" s="156"/>
+      <c r="G58" s="156"/>
+      <c r="H58" s="157"/>
+      <c r="I58" s="156"/>
+      <c r="J58" s="160" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="K58" s="160" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59" s="158"/>
+      <c r="B59" s="155"/>
+      <c r="C59" s="156"/>
+      <c r="D59" s="156"/>
+      <c r="E59" s="156"/>
+      <c r="F59" s="156"/>
+      <c r="G59" s="156"/>
+      <c r="H59" s="157"/>
+      <c r="I59" s="156"/>
+      <c r="J59" s="160" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="K59" s="160" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60" s="158"/>
+      <c r="B60" s="155"/>
+      <c r="C60" s="156"/>
+      <c r="D60" s="156"/>
+      <c r="E60" s="156"/>
+      <c r="F60" s="156"/>
+      <c r="G60" s="156"/>
+      <c r="H60" s="157"/>
+      <c r="I60" s="156"/>
+      <c r="J60" s="160" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="K60" s="160" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61" s="158"/>
+      <c r="B61" s="155"/>
+      <c r="C61" s="156"/>
+      <c r="D61" s="156"/>
+      <c r="E61" s="156"/>
+      <c r="F61" s="156"/>
+      <c r="G61" s="156"/>
+      <c r="H61" s="157"/>
+      <c r="I61" s="156"/>
+      <c r="J61" s="160" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="K61" s="160" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62" s="158"/>
+      <c r="B62" s="155"/>
+      <c r="C62" s="156"/>
+      <c r="D62" s="156"/>
+      <c r="E62" s="156"/>
+      <c r="F62" s="156"/>
+      <c r="G62" s="156"/>
+      <c r="H62" s="157"/>
+      <c r="I62" s="156"/>
+      <c r="J62" s="160" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="K62" s="160" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63" s="158"/>
+      <c r="B63" s="155"/>
+      <c r="C63" s="156"/>
+      <c r="D63" s="156"/>
+      <c r="E63" s="156"/>
+      <c r="F63" s="156"/>
+      <c r="G63" s="156"/>
+      <c r="H63" s="157"/>
+      <c r="I63" s="156"/>
+      <c r="J63" s="160" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="K63" s="160" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64" s="158"/>
+      <c r="B64" s="155"/>
+      <c r="C64" s="156"/>
+      <c r="D64" s="156"/>
+      <c r="E64" s="156"/>
+      <c r="F64" s="156"/>
+      <c r="G64" s="156"/>
+      <c r="H64" s="157"/>
+      <c r="I64" s="156"/>
+      <c r="J64" s="160" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="K64" s="160" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A65" s="158"/>
+      <c r="B65" s="155"/>
+      <c r="C65" s="156"/>
+      <c r="D65" s="156"/>
+      <c r="E65" s="156"/>
+      <c r="F65" s="156"/>
+      <c r="G65" s="156"/>
+      <c r="H65" s="157"/>
+      <c r="I65" s="156"/>
+      <c r="J65" s="160" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="K65" s="160" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A66" s="158"/>
+      <c r="B66" s="155"/>
+      <c r="C66" s="156"/>
+      <c r="D66" s="156"/>
+      <c r="E66" s="156"/>
+      <c r="F66" s="156"/>
+      <c r="G66" s="156"/>
+      <c r="H66" s="157"/>
+      <c r="I66" s="156"/>
+      <c r="J66" s="160" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="K66" s="160" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A67" s="158"/>
+      <c r="B67" s="155"/>
+      <c r="C67" s="156"/>
+      <c r="D67" s="156"/>
+      <c r="E67" s="156"/>
+      <c r="F67" s="156"/>
+      <c r="G67" s="156"/>
+      <c r="H67" s="157"/>
+      <c r="I67" s="156"/>
+      <c r="J67" s="160" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="K67" s="160" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A68" s="158"/>
+      <c r="B68" s="155"/>
+      <c r="C68" s="156"/>
+      <c r="D68" s="156"/>
+      <c r="E68" s="156"/>
+      <c r="F68" s="156"/>
+      <c r="G68" s="156"/>
+      <c r="H68" s="157"/>
+      <c r="I68" s="156"/>
+      <c r="J68" s="160" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="K68" s="160" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A69" s="158"/>
+      <c r="B69" s="155"/>
+      <c r="C69" s="156"/>
+      <c r="D69" s="156"/>
+      <c r="E69" s="156"/>
+      <c r="F69" s="156"/>
+      <c r="G69" s="156"/>
+      <c r="H69" s="157"/>
+      <c r="I69" s="156"/>
+      <c r="J69" s="160" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="K69" s="160" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+    </row>
+    <row r="70" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" spans="1:11" s="112" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A71" s="66" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="72" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B72" s="141"/>
-      <c r="C72" s="138" t="s">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B72" s="103"/>
+      <c r="C72" s="100" t="s">
         <v>21</v>
       </c>
-      <c r="D72" s="138" t="s">
+      <c r="D72" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="E72" s="138" t="s">
+      <c r="E72" s="100" t="s">
         <v>6</v>
       </c>
-      <c r="F72" s="138" t="s">
+      <c r="F72" s="100" t="s">
         <v>7</v>
       </c>
-      <c r="G72" s="138" t="s">
+      <c r="G72" s="100" t="s">
         <v>72</v>
       </c>
-      <c r="H72" s="138" t="s">
+      <c r="H72" s="100" t="s">
         <v>73</v>
       </c>
-      <c r="I72" s="138" t="s">
+      <c r="I72" s="100" t="s">
         <v>9</v>
       </c>
-      <c r="J72" s="138" t="s">
+      <c r="J72" s="100" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="73" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B73" s="138" t="s">
+    <row r="73" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B73" s="100" t="s">
         <v>21</v>
       </c>
-      <c r="C73" s="142"/>
-      <c r="D73" s="142"/>
-      <c r="E73" s="142"/>
-      <c r="F73" s="142"/>
-      <c r="G73" s="142"/>
-      <c r="H73" s="142"/>
-      <c r="I73" s="142"/>
-      <c r="J73" s="141">
-        <f t="shared" ref="J73:J80" si="0">SUM(C73:I73)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B74" s="138" t="s">
+      <c r="C73" s="161"/>
+      <c r="D73" s="161"/>
+      <c r="E73" s="161"/>
+      <c r="F73" s="161"/>
+      <c r="G73" s="161"/>
+      <c r="H73" s="161"/>
+      <c r="I73" s="161"/>
+      <c r="J73" s="162">
+        <f t="shared" ref="J73:J80" si="4">SUM(C73:I73)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B74" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="C74" s="142"/>
-      <c r="D74" s="142"/>
-      <c r="E74" s="142"/>
-      <c r="F74" s="142"/>
-      <c r="G74" s="142"/>
-      <c r="H74" s="142"/>
-      <c r="I74" s="142"/>
-      <c r="J74" s="141">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B75" s="138" t="s">
+      <c r="C74" s="161"/>
+      <c r="D74" s="161"/>
+      <c r="E74" s="161"/>
+      <c r="F74" s="161"/>
+      <c r="G74" s="161"/>
+      <c r="H74" s="161"/>
+      <c r="I74" s="161"/>
+      <c r="J74" s="162">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B75" s="100" t="s">
         <v>6</v>
       </c>
-      <c r="C75" s="142"/>
-      <c r="D75" s="142"/>
-      <c r="E75" s="142"/>
-      <c r="F75" s="142"/>
-      <c r="G75" s="142"/>
-      <c r="H75" s="142"/>
-      <c r="I75" s="142"/>
-      <c r="J75" s="141">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B76" s="138" t="s">
+      <c r="C75" s="161"/>
+      <c r="D75" s="161"/>
+      <c r="E75" s="161"/>
+      <c r="F75" s="161"/>
+      <c r="G75" s="161"/>
+      <c r="H75" s="161"/>
+      <c r="I75" s="161"/>
+      <c r="J75" s="162">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B76" s="100" t="s">
         <v>7</v>
       </c>
-      <c r="C76" s="142"/>
-      <c r="D76" s="142"/>
-      <c r="E76" s="142"/>
-      <c r="F76" s="142"/>
-      <c r="G76" s="142"/>
-      <c r="H76" s="142"/>
-      <c r="I76" s="142"/>
-      <c r="J76" s="141">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B77" s="138" t="s">
+      <c r="C76" s="161"/>
+      <c r="D76" s="161"/>
+      <c r="E76" s="161"/>
+      <c r="F76" s="161"/>
+      <c r="G76" s="161"/>
+      <c r="H76" s="161"/>
+      <c r="I76" s="161"/>
+      <c r="J76" s="162">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B77" s="100" t="s">
         <v>72</v>
       </c>
-      <c r="C77" s="142"/>
-      <c r="D77" s="142"/>
-      <c r="E77" s="142"/>
-      <c r="F77" s="142"/>
-      <c r="G77" s="142"/>
-      <c r="H77" s="142"/>
-      <c r="I77" s="142"/>
-      <c r="J77" s="141">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B78" s="138" t="s">
+      <c r="C77" s="161"/>
+      <c r="D77" s="161"/>
+      <c r="E77" s="161"/>
+      <c r="F77" s="161"/>
+      <c r="G77" s="161"/>
+      <c r="H77" s="161"/>
+      <c r="I77" s="161"/>
+      <c r="J77" s="162">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B78" s="100" t="s">
         <v>73</v>
       </c>
-      <c r="C78" s="142"/>
-      <c r="D78" s="142"/>
-      <c r="E78" s="142"/>
-      <c r="F78" s="142"/>
-      <c r="G78" s="142"/>
-      <c r="H78" s="142"/>
-      <c r="I78" s="142"/>
-      <c r="J78" s="141">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B79" s="138" t="s">
+      <c r="C78" s="161"/>
+      <c r="D78" s="161"/>
+      <c r="E78" s="161"/>
+      <c r="F78" s="161"/>
+      <c r="G78" s="161"/>
+      <c r="H78" s="161"/>
+      <c r="I78" s="161"/>
+      <c r="J78" s="162">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B79" s="100" t="s">
         <v>9</v>
       </c>
-      <c r="C79" s="142"/>
-      <c r="D79" s="142"/>
-      <c r="E79" s="142"/>
-      <c r="F79" s="142"/>
-      <c r="G79" s="142"/>
-      <c r="H79" s="142"/>
-      <c r="I79" s="142"/>
-      <c r="J79" s="141">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B80" s="138" t="s">
+      <c r="C79" s="161"/>
+      <c r="D79" s="161"/>
+      <c r="E79" s="161"/>
+      <c r="F79" s="161"/>
+      <c r="G79" s="161"/>
+      <c r="H79" s="161"/>
+      <c r="I79" s="161"/>
+      <c r="J79" s="162">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B80" s="100" t="s">
         <v>80</v>
       </c>
-      <c r="C80" s="142">
-        <f t="shared" ref="C80:I80" si="1">SUM(C73:C79)</f>
-        <v>0</v>
-      </c>
-      <c r="D80" s="142">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E80" s="142">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="F80" s="142">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G80" s="142">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H80" s="142">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I80" s="142">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="J80" s="141">
-        <f t="shared" si="0"/>
+      <c r="C80" s="161">
+        <f t="shared" ref="C80:I80" si="5">SUM(C73:C79)</f>
+        <v>0</v>
+      </c>
+      <c r="D80" s="161">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="E80" s="161">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="F80" s="161">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="G80" s="161">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="H80" s="161">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="I80" s="161">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J80" s="162">
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="82" spans="1:10" s="154" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="71" t="s">
+    <row r="82" spans="1:10" s="112" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A82" s="66" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="83" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="B83" s="141"/>
-      <c r="C83" s="138" t="s">
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B83" s="103"/>
+      <c r="C83" s="100" t="s">
         <v>21</v>
       </c>
-      <c r="D83" s="138" t="s">
+      <c r="D83" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="E83" s="138" t="s">
+      <c r="E83" s="100" t="s">
         <v>6</v>
       </c>
-      <c r="F83" s="138" t="s">
+      <c r="F83" s="100" t="s">
         <v>7</v>
       </c>
-      <c r="G83" s="138" t="s">
+      <c r="G83" s="100" t="s">
         <v>72</v>
       </c>
-      <c r="H83" s="138" t="s">
+      <c r="H83" s="100" t="s">
         <v>73</v>
       </c>
-      <c r="I83" s="138" t="s">
+      <c r="I83" s="100" t="s">
         <v>9</v>
       </c>
-      <c r="J83" s="138" t="s">
+      <c r="J83" s="100" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="84" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B84" s="138" t="s">
+      <c r="B84" s="100" t="s">
         <v>21</v>
       </c>
-      <c r="C84" s="142"/>
-      <c r="D84" s="142"/>
-      <c r="E84" s="142"/>
-      <c r="F84" s="142"/>
-      <c r="G84" s="142"/>
-      <c r="H84" s="142"/>
-      <c r="I84" s="142"/>
-      <c r="J84" s="141">
-        <f t="shared" ref="J84:J91" si="2">SUM(C84:I84)</f>
+      <c r="C84" s="161"/>
+      <c r="D84" s="161"/>
+      <c r="E84" s="161"/>
+      <c r="F84" s="161"/>
+      <c r="G84" s="161"/>
+      <c r="H84" s="161"/>
+      <c r="I84" s="161"/>
+      <c r="J84" s="162">
+        <f t="shared" ref="J84:J91" si="6">SUM(C84:I84)</f>
         <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B85" s="138" t="s">
+      <c r="B85" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="C85" s="142"/>
-      <c r="D85" s="142"/>
-      <c r="E85" s="142"/>
-      <c r="F85" s="142"/>
-      <c r="G85" s="142"/>
-      <c r="H85" s="142"/>
-      <c r="I85" s="142"/>
-      <c r="J85" s="141">
-        <f t="shared" si="2"/>
+      <c r="C85" s="161"/>
+      <c r="D85" s="161"/>
+      <c r="E85" s="161"/>
+      <c r="F85" s="161"/>
+      <c r="G85" s="161"/>
+      <c r="H85" s="161"/>
+      <c r="I85" s="161"/>
+      <c r="J85" s="162">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B86" s="138" t="s">
+      <c r="B86" s="100" t="s">
         <v>6</v>
       </c>
-      <c r="C86" s="142"/>
-      <c r="D86" s="142"/>
-      <c r="E86" s="142"/>
-      <c r="F86" s="142"/>
-      <c r="G86" s="142"/>
-      <c r="H86" s="142"/>
-      <c r="I86" s="142"/>
-      <c r="J86" s="141">
-        <f t="shared" si="2"/>
+      <c r="C86" s="161"/>
+      <c r="D86" s="161"/>
+      <c r="E86" s="161"/>
+      <c r="F86" s="161"/>
+      <c r="G86" s="161"/>
+      <c r="H86" s="161"/>
+      <c r="I86" s="161"/>
+      <c r="J86" s="162">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="138" t="s">
+      <c r="B87" s="100" t="s">
         <v>7</v>
       </c>
-      <c r="C87" s="142"/>
-      <c r="D87" s="142"/>
-      <c r="E87" s="142"/>
-      <c r="F87" s="142"/>
-      <c r="G87" s="142"/>
-      <c r="H87" s="142"/>
-      <c r="I87" s="142"/>
-      <c r="J87" s="141">
-        <f t="shared" si="2"/>
+      <c r="C87" s="161"/>
+      <c r="D87" s="161"/>
+      <c r="E87" s="161"/>
+      <c r="F87" s="161"/>
+      <c r="G87" s="161"/>
+      <c r="H87" s="161"/>
+      <c r="I87" s="161"/>
+      <c r="J87" s="162">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B88" s="138" t="s">
+      <c r="B88" s="100" t="s">
         <v>72</v>
       </c>
-      <c r="C88" s="142"/>
-      <c r="D88" s="142"/>
-      <c r="E88" s="142"/>
-      <c r="F88" s="142"/>
-      <c r="G88" s="142"/>
-      <c r="H88" s="142"/>
-      <c r="I88" s="142"/>
-      <c r="J88" s="141">
-        <f t="shared" si="2"/>
+      <c r="C88" s="161"/>
+      <c r="D88" s="161"/>
+      <c r="E88" s="161"/>
+      <c r="F88" s="161"/>
+      <c r="G88" s="161"/>
+      <c r="H88" s="161"/>
+      <c r="I88" s="161"/>
+      <c r="J88" s="162">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B89" s="138" t="s">
+      <c r="B89" s="100" t="s">
         <v>73</v>
       </c>
-      <c r="C89" s="142"/>
-      <c r="D89" s="142"/>
-      <c r="E89" s="142"/>
-      <c r="F89" s="142"/>
-      <c r="G89" s="142"/>
-      <c r="H89" s="142"/>
-      <c r="I89" s="142"/>
-      <c r="J89" s="141">
-        <f t="shared" si="2"/>
+      <c r="C89" s="161"/>
+      <c r="D89" s="161"/>
+      <c r="E89" s="161"/>
+      <c r="F89" s="161"/>
+      <c r="G89" s="161"/>
+      <c r="H89" s="161"/>
+      <c r="I89" s="161"/>
+      <c r="J89" s="162">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B90" s="138" t="s">
+      <c r="B90" s="100" t="s">
         <v>9</v>
       </c>
-      <c r="C90" s="142"/>
-      <c r="D90" s="142"/>
-      <c r="E90" s="142"/>
-      <c r="F90" s="142"/>
-      <c r="G90" s="142"/>
-      <c r="H90" s="142"/>
-      <c r="I90" s="142"/>
-      <c r="J90" s="141">
-        <f t="shared" si="2"/>
+      <c r="C90" s="161"/>
+      <c r="D90" s="161"/>
+      <c r="E90" s="161"/>
+      <c r="F90" s="161"/>
+      <c r="G90" s="161"/>
+      <c r="H90" s="161"/>
+      <c r="I90" s="161"/>
+      <c r="J90" s="162">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B91" s="138" t="s">
+      <c r="B91" s="100" t="s">
         <v>80</v>
       </c>
-      <c r="C91" s="142">
-        <f t="shared" ref="C91:I91" si="3">SUM(C84:C90)</f>
-        <v>0</v>
-      </c>
-      <c r="D91" s="142">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="E91" s="142">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="F91" s="142">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G91" s="142">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="H91" s="142">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="I91" s="142">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="J91" s="141">
-        <f t="shared" si="2"/>
+      <c r="C91" s="161">
+        <f t="shared" ref="C91:I91" si="7">SUM(C84:C90)</f>
+        <v>0</v>
+      </c>
+      <c r="D91" s="161">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="E91" s="161">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="F91" s="161">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="G91" s="161">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="H91" s="161">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="I91" s="161">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="J91" s="162">
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A92" s="137"/>
-    </row>
-    <row r="93" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="94" spans="1:10" s="154" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="154" t="s">
+      <c r="A92" s="99"/>
+    </row>
+    <row r="93" spans="1:10" s="112" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A93" s="168" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="95" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="145"/>
-      <c r="B95" s="135" t="s">
+    <row r="94" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="105"/>
+      <c r="B94" s="97" t="s">
         <v>84</v>
       </c>
-      <c r="C95" s="135" t="s">
+      <c r="C94" s="97" t="s">
         <v>74</v>
       </c>
-      <c r="D95" s="146"/>
+      <c r="D94" s="106"/>
+    </row>
+    <row r="95" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="97" t="s">
+        <v>75</v>
+      </c>
+      <c r="B95" s="165"/>
+      <c r="C95" s="166" t="str">
+        <f>IFERROR((B95/#REF!)*100,"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D95" s="107"/>
     </row>
     <row r="96" spans="1:10" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="135" t="s">
-        <v>75</v>
-      </c>
-      <c r="B96" s="147"/>
-      <c r="C96" s="148" t="str">
+      <c r="A96" s="97" t="s">
+        <v>79</v>
+      </c>
+      <c r="B96" s="165"/>
+      <c r="C96" s="166" t="str">
         <f>IFERROR((B96/#REF!)*100,"-")</f>
         <v>-</v>
       </c>
-      <c r="D96" s="149"/>
+      <c r="D96" s="107"/>
     </row>
     <row r="97" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="135" t="s">
-        <v>79</v>
-      </c>
-      <c r="B97" s="147"/>
-      <c r="C97" s="148" t="str">
+      <c r="A97" s="97" t="s">
+        <v>76</v>
+      </c>
+      <c r="B97" s="165"/>
+      <c r="C97" s="166" t="str">
         <f>IFERROR((B97/#REF!)*100,"-")</f>
         <v>-</v>
       </c>
-      <c r="D97" s="149"/>
-    </row>
-    <row r="98" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="135" t="s">
-        <v>76</v>
-      </c>
-      <c r="B98" s="147"/>
-      <c r="C98" s="148" t="str">
-        <f>IFERROR((B98/#REF!)*100,"-")</f>
+      <c r="D97" s="107"/>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="98"/>
+    </row>
+    <row r="99" spans="1:4" s="112" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A99" s="168" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="100"/>
+      <c r="B100" s="115" t="s">
+        <v>84</v>
+      </c>
+      <c r="C100" s="116" t="s">
+        <v>74</v>
+      </c>
+      <c r="D100" s="102"/>
+    </row>
+    <row r="101" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="100" t="s">
+        <v>78</v>
+      </c>
+      <c r="B101" s="163"/>
+      <c r="C101" s="167" t="str">
+        <f>IFERROR((B101/#REF!)*100,"-")</f>
         <v>-</v>
       </c>
-      <c r="D98" s="149"/>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" s="136"/>
-    </row>
-    <row r="100" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="101" spans="1:4" s="154" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="154" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="138"/>
-      <c r="B102" s="157" t="s">
-        <v>84</v>
-      </c>
-      <c r="C102" s="158" t="s">
-        <v>74</v>
-      </c>
-      <c r="D102" s="140"/>
+      <c r="D101" s="104"/>
+    </row>
+    <row r="102" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="100" t="s">
+        <v>77</v>
+      </c>
+      <c r="B102" s="163"/>
+      <c r="C102" s="167" t="str">
+        <f>IFERROR((B102/#REF!)*100,"-")</f>
+        <v>-</v>
+      </c>
+      <c r="D102" s="104"/>
     </row>
     <row r="103" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A103" s="138" t="s">
-        <v>78</v>
-      </c>
-      <c r="B103" s="159"/>
-      <c r="C103" s="160" t="str">
+      <c r="A103" s="100" t="s">
+        <v>75</v>
+      </c>
+      <c r="B103" s="163"/>
+      <c r="C103" s="167" t="str">
         <f>IFERROR((B103/#REF!)*100,"-")</f>
         <v>-</v>
       </c>
-      <c r="D103" s="144"/>
+      <c r="D103" s="104"/>
     </row>
     <row r="104" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A104" s="138" t="s">
-        <v>77</v>
-      </c>
-      <c r="B104" s="159"/>
-      <c r="C104" s="160" t="str">
+      <c r="A104" s="111" t="s">
+        <v>76</v>
+      </c>
+      <c r="B104" s="164"/>
+      <c r="C104" s="167" t="str">
         <f>IFERROR((B104/#REF!)*100,"-")</f>
         <v>-</v>
       </c>
-      <c r="D104" s="144"/>
-    </row>
-    <row r="105" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="138" t="s">
-        <v>75</v>
-      </c>
-      <c r="B105" s="159"/>
-      <c r="C105" s="160" t="str">
-        <f>IFERROR((B105/#REF!)*100,"-")</f>
-        <v>-</v>
-      </c>
-      <c r="D105" s="144"/>
-    </row>
-    <row r="106" spans="1:4" ht="45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="153" t="s">
-        <v>76</v>
-      </c>
-      <c r="B106" s="161"/>
-      <c r="C106" s="160" t="str">
-        <f>IFERROR((B106/#REF!)*100,"-")</f>
-        <v>-</v>
-      </c>
-      <c r="D106" s="144"/>
-    </row>
-    <row r="107" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="D104" s="104"/>
+    </row>
+    <row r="105" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A3:K3"/>
   </mergeCells>
-  <conditionalFormatting sqref="A107:Z107 A117:Z987">
-    <cfRule type="expression" dxfId="53" priority="33">
-      <formula>_xludf.isformula(A107:Z1127)</formula>
+  <conditionalFormatting sqref="A105:Z105 A115:Z985">
+    <cfRule type="expression" dxfId="47" priority="49">
+      <formula>_xludf.isformula(A105:Z1125)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A102:Z106">
-    <cfRule type="expression" dxfId="52" priority="34">
-      <formula>_xludf.isformula(A102:Z1121)</formula>
+  <conditionalFormatting sqref="A100:Z104">
+    <cfRule type="expression" dxfId="46" priority="50">
+      <formula>_xludf.isformula(A100:Z1119)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B101:Z101 A99:Z100">
-    <cfRule type="expression" dxfId="51" priority="35">
-      <formula>_xludf.isformula(A99:Z1116)</formula>
+  <conditionalFormatting sqref="B99:Z99">
+    <cfRule type="expression" dxfId="45" priority="51">
+      <formula>_xludf.isformula(B99:AA1116)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A108:W116">
-    <cfRule type="expression" dxfId="50" priority="36">
-      <formula>_xludf.isformula(D108:AC1128)</formula>
+  <conditionalFormatting sqref="A106:W114">
+    <cfRule type="expression" dxfId="44" priority="52">
+      <formula>_xludf.isformula(D106:AC1126)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A81:Z81 K72:Z80 K83:Z91 B82:Z82">
-    <cfRule type="expression" dxfId="49" priority="38">
-      <formula>_xludf.isformula(A72:Z1084)</formula>
+    <cfRule type="expression" dxfId="43" priority="54">
+      <formula>_xludf.isformula(A72:Z1082)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A70:Z70">
-    <cfRule type="expression" dxfId="48" priority="39">
-      <formula>_xludf.isformula(A70:Z1078)</formula>
+  <conditionalFormatting sqref="A70:I70">
+    <cfRule type="expression" dxfId="42" priority="55">
+      <formula>_xludf.isformula(A70:Z1076)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J25:Z25">
-    <cfRule type="expression" dxfId="46" priority="53">
-      <formula>_xludf.isformula(J25:AI1065)</formula>
+  <conditionalFormatting sqref="L25:Z25 L57:Z57">
+    <cfRule type="expression" dxfId="41" priority="69">
+      <formula>_xludf.isformula(L25:AK1063)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J23:Z23 J50:Z55">
-    <cfRule type="expression" dxfId="45" priority="63">
-      <formula>_xludf.isformula(J23:AI1065)</formula>
+  <conditionalFormatting sqref="L23:Z23 L50:Z55">
+    <cfRule type="expression" dxfId="40" priority="79">
+      <formula>_xludf.isformula(L23:AK1063)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J16:Z16">
-    <cfRule type="expression" dxfId="44" priority="73">
-      <formula>_xludf.isformula(J16:AI1060)</formula>
+  <conditionalFormatting sqref="L16:Z16 L48:Z48">
+    <cfRule type="expression" dxfId="39" priority="89">
+      <formula>_xludf.isformula(L16:AK1058)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A6">
-    <cfRule type="expression" dxfId="43" priority="96">
-      <formula>_xludf.isformula(A6:Z1003)</formula>
+    <cfRule type="expression" dxfId="38" priority="112">
+      <formula>_xludf.isformula(A6:Z1001)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B13:H13 B40:H45 I40:I69">
-    <cfRule type="expression" dxfId="42" priority="98">
-      <formula>_xludf.isformula(A13:Z1060)</formula>
+  <conditionalFormatting sqref="B39:I39 B40:H45 I40:K69 B7:H12 I7:K36">
+    <cfRule type="expression" dxfId="37" priority="114">
+      <formula>_xludf.isformula(A7:Z1052)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B46:H46">
+    <cfRule type="expression" dxfId="36" priority="117">
+      <formula>_xludf.isformula(A46:Z1090)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B47:H47">
+    <cfRule type="expression" dxfId="35" priority="120">
+      <formula>_xludf.isformula(A47:Z1090)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B56:H56">
+    <cfRule type="expression" dxfId="34" priority="126">
+      <formula>_xludf.isformula(A56:Z1095)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B57:H57">
+    <cfRule type="expression" dxfId="33" priority="133">
+      <formula>_xludf.isformula(A57:Z1095)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B6:I6 I37">
+    <cfRule type="expression" dxfId="32" priority="143">
+      <formula>_xludf.isformula(A6:Z1052)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A71:Z71">
+    <cfRule type="expression" dxfId="31" priority="147">
+      <formula>_xludf.isformula(A71:Z1079)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L14:Z14 L46:Z46 A38:Z38 A5">
+    <cfRule type="expression" dxfId="30" priority="165">
+      <formula>_xludf.isformula(A5:Z1049)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L15:Z15 L47:Z47">
+    <cfRule type="expression" dxfId="29" priority="191">
+      <formula>_xludf.isformula(L15:AK1058)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A93:Z93">
+    <cfRule type="expression" dxfId="28" priority="201">
+      <formula>_xludf.isformula(A93:Z1107)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A92:Z92">
+    <cfRule type="expression" dxfId="27" priority="225">
+      <formula>_xludf.isformula(A92:Z1093)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4:Z4">
+    <cfRule type="expression" dxfId="26" priority="284">
+      <formula>_xludf.isformula(A4:Z986)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L24:Z24 L56:Z56">
+    <cfRule type="expression" dxfId="25" priority="285">
+      <formula>_xludf.isformula(L24:AK1063)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B48:H48">
+    <cfRule type="expression" dxfId="24" priority="286">
+      <formula>_xludf.isformula(A48:Z1090)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B5:Z5 L13:Z13 L39:Z45">
+    <cfRule type="expression" dxfId="23" priority="290">
+      <formula>_xludf.isformula(B5:AA1050)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L58:Z58 J37:Z37 L26:Z36">
+    <cfRule type="expression" dxfId="22" priority="21">
+      <formula>_xludf.isformula(J26:AI1063)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L49:Z49 L17:Z22">
+    <cfRule type="expression" dxfId="21" priority="23">
+      <formula>_xludf.isformula(L17:AK1058)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A39">
+    <cfRule type="expression" dxfId="20" priority="24">
+      <formula>_xludf.isformula(A39:Z1033)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B58:H58 B37:H37">
+    <cfRule type="expression" dxfId="19" priority="29">
+      <formula>_xludf.isformula(A37:Z1074)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B49:H49">
+    <cfRule type="expression" dxfId="18" priority="35">
+      <formula>_xludf.isformula(A49:Z1090)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A82">
+    <cfRule type="expression" dxfId="17" priority="19">
+      <formula>_xludf.isformula(A82:Z1091)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A98:Z98">
+    <cfRule type="expression" dxfId="16" priority="17">
+      <formula>_xludf.isformula(A98:Z1114)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A99 A94:Z97">
+    <cfRule type="expression" dxfId="15" priority="322">
+      <formula>_xludf.isformula(A94:Z1109)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J39:K39 B83:J91 B72:J80">
+    <cfRule type="expression" dxfId="14" priority="331">
+      <formula>_xludf.isformula(A39:Z1049)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J70:X70">
+    <cfRule type="expression" dxfId="13" priority="349">
+      <formula>_xludf.isformula(L70:AK1076)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B13:H13">
+    <cfRule type="expression" dxfId="12" priority="7">
+      <formula>_xludf.isformula(A13:Z1057)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B14:H14">
-    <cfRule type="expression" dxfId="41" priority="101">
-      <formula>_xludf.isformula(A14:Z1060)</formula>
+    <cfRule type="expression" dxfId="11" priority="8">
+      <formula>_xludf.isformula(A14:Z1057)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B23:H23">
+    <cfRule type="expression" dxfId="10" priority="9">
+      <formula>_xludf.isformula(A23:Z1062)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B24:H24">
+    <cfRule type="expression" dxfId="9" priority="10">
+      <formula>_xludf.isformula(A24:Z1062)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15:H15">
-    <cfRule type="expression" dxfId="40" priority="104">
-      <formula>_xludf.isformula(A15:Z1060)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B24:H24">
-    <cfRule type="expression" dxfId="39" priority="110">
-      <formula>_xludf.isformula(A24:Z1065)</formula>
+    <cfRule type="expression" dxfId="8" priority="12">
+      <formula>_xludf.isformula(A15:Z1057)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B25:H25">
-    <cfRule type="expression" dxfId="38" priority="117">
-      <formula>_xludf.isformula(A25:Z1065)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B23:H23 B50:H55">
-    <cfRule type="expression" dxfId="37" priority="120">
-      <formula>_xludf.isformula(A23:Z1065)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B6:I6 B7:H12 I7:I37">
-    <cfRule type="expression" dxfId="36" priority="127">
-      <formula>_xludf.isformula(A6:Z1054)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A93:Z93">
-    <cfRule type="expression" dxfId="35" priority="130">
-      <formula>_xludf.isformula(A93:Z1106)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A71:Z71">
-    <cfRule type="expression" dxfId="34" priority="131">
-      <formula>_xludf.isformula(A71:Z1081)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J14:Z14 J46:Z46">
-    <cfRule type="expression" dxfId="33" priority="149">
-      <formula>_xludf.isformula(J14:AI1060)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J15:Z15">
-    <cfRule type="expression" dxfId="32" priority="175">
-      <formula>_xludf.isformula(J15:AI1060)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A94:Z94">
-    <cfRule type="expression" dxfId="31" priority="185">
-      <formula>_xludf.isformula(A94:Z1109)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A92:Z92">
-    <cfRule type="expression" dxfId="30" priority="209">
-      <formula>_xludf.isformula(A92:Z1095)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A4:Z4">
-    <cfRule type="expression" dxfId="29" priority="268">
-      <formula>_xludf.isformula(A4:Z988)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J24:Z24">
-    <cfRule type="expression" dxfId="28" priority="269">
-      <formula>_xludf.isformula(J24:AI1065)</formula>
+    <cfRule type="expression" dxfId="7" priority="4">
+      <formula>_xludf.isformula(A25:Z1062)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B16:H16">
-    <cfRule type="expression" dxfId="27" priority="270">
-      <formula>_xludf.isformula(A16:Z1060)</formula>
+    <cfRule type="expression" dxfId="6" priority="5">
+      <formula>_xludf.isformula(A16:Z1057)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B5:Z5 J13:Z13 J39:Z45">
-    <cfRule type="expression" dxfId="26" priority="274">
-      <formula>_xludf.isformula(B5:AA1052)</formula>
+  <conditionalFormatting sqref="J6:K6">
+    <cfRule type="expression" dxfId="5" priority="1">
+      <formula>_xludf.isformula(I6:AH1016)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J58:Z58 J26:Z37">
-    <cfRule type="expression" dxfId="25" priority="5">
-      <formula>_xludf.isformula(J26:AI1065)</formula>
+  <conditionalFormatting sqref="A7:A37 A40:A69">
+    <cfRule type="expression" dxfId="4" priority="403">
+      <formula>_xludf.isformula(Y7:XFD1053)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J56:Z56">
-    <cfRule type="expression" dxfId="24" priority="6">
-      <formula>_xludf.isformula(J56:AI1097)</formula>
+  <conditionalFormatting sqref="B50:H55 B17:H22">
+    <cfRule type="expression" dxfId="3" priority="405">
+      <formula>_xludf.isformula(A17:Z1057)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J49:Z49 J17:Z22">
-    <cfRule type="expression" dxfId="23" priority="7">
-      <formula>_xludf.isformula(J17:AI1060)</formula>
+  <conditionalFormatting sqref="L6:Z12">
+    <cfRule type="expression" dxfId="2" priority="407">
+      <formula>_xludf.isformula(L6:AK1052)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A39">
-    <cfRule type="expression" dxfId="22" priority="8">
-      <formula>_xludf.isformula(A39:Z1035)</formula>
+  <conditionalFormatting sqref="L59:Z69">
+    <cfRule type="expression" dxfId="1" priority="408">
+      <formula>_xludf.isformula(L59:AK1095)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B46:H46">
-    <cfRule type="expression" dxfId="21" priority="9">
-      <formula>_xludf.isformula(A46:Z1092)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B47:H47">
-    <cfRule type="expression" dxfId="20" priority="10">
-      <formula>_xludf.isformula(A47:Z1092)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B48:H48">
-    <cfRule type="expression" dxfId="19" priority="11">
-      <formula>_xludf.isformula(A48:Z1092)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B57:H57">
-    <cfRule type="expression" dxfId="18" priority="12">
-      <formula>_xludf.isformula(A57:Z1097)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B58:H58 B26:H37">
-    <cfRule type="expression" dxfId="17" priority="13">
-      <formula>_xludf.isformula(A26:Z1065)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B56:H56">
-    <cfRule type="expression" dxfId="16" priority="14">
-      <formula>_xludf.isformula(A56:Z1097)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B39:I39">
-    <cfRule type="expression" dxfId="15" priority="15">
-      <formula>_xludf.isformula(A39:Z1086)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J47:Z47">
-    <cfRule type="expression" dxfId="14" priority="16">
-      <formula>_xludf.isformula(J47:AI1092)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J48:Z48">
-    <cfRule type="expression" dxfId="13" priority="17">
-      <formula>_xludf.isformula(J48:AI1092)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J57:Z57">
-    <cfRule type="expression" dxfId="12" priority="18">
-      <formula>_xludf.isformula(J57:AI1097)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B49:H49 B17:H22">
-    <cfRule type="expression" dxfId="11" priority="19">
-      <formula>_xludf.isformula(A17:Z1060)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A38:Z38">
-    <cfRule type="expression" dxfId="10" priority="21">
-      <formula>_xludf.isformula(A38:Z1084)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A5">
-    <cfRule type="expression" dxfId="9" priority="4">
-      <formula>_xludf.isformula(A5:Z1051)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A82">
-    <cfRule type="expression" dxfId="8" priority="3">
-      <formula>_xludf.isformula(A82:Z1093)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A95:Z98">
-    <cfRule type="expression" dxfId="7" priority="1">
-      <formula>_xludf.isformula(A95:Z1111)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A7:A37">
-    <cfRule type="expression" dxfId="6" priority="305">
-      <formula>_xludf.isformula(Y7:XFD1055)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A101">
-    <cfRule type="expression" dxfId="5" priority="1">
-      <formula>_xludf.isformula(A101:Z1116)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B83:J91 B72:J80">
-    <cfRule type="expression" dxfId="4" priority="315">
-      <formula>_xludf.isformula(A72:Z1084)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J6:Z12">
-    <cfRule type="expression" dxfId="3" priority="327">
-      <formula>_xludf.isformula(J6:AI1054)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J59:Z69">
-    <cfRule type="expression" dxfId="2" priority="329">
-      <formula>_xludf.isformula(J59:AI1097)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B59:H69">
-    <cfRule type="expression" dxfId="1" priority="330">
-      <formula>_xludf.isformula(A59:Z1097)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A40:A69">
-    <cfRule type="expression" dxfId="0" priority="331">
-      <formula>_xludf.isformula(Y40:XFD1087)</formula>
+  <conditionalFormatting sqref="B59:H69 B26:H36">
+    <cfRule type="expression" dxfId="0" priority="409">
+      <formula>_xludf.isformula(A26:Z1062)</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
